--- a/Conocimiento/Metodología/Calculadora (version 1).xlsx
+++ b/Conocimiento/Metodología/Calculadora (version 1).xlsx
@@ -1,39 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
-  <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agres\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{3B7D3016-AB3B-4185-A947-A04F13F11E0C}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="7155" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15348" windowHeight="7152" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Costes y presupuesto" sheetId="2" r:id="rId1"/>
     <sheet name="Hoja1" sheetId="4" r:id="rId2"/>
     <sheet name="Caculadora" sheetId="1" r:id="rId3"/>
     <sheet name="Imputaciones semana" sheetId="3" r:id="rId4"/>
+    <sheet name="Hoja2" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="171027"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr/>
-    </ext>
-  </extLst>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Ale Garrido Resina</author>
   </authors>
   <commentList>
-    <comment ref="D3" authorId="0" shapeId="1025" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="D3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -57,29 +47,8 @@
 </t>
         </r>
       </text>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-        <mc:Choice Requires="v"/>
-        <mc:Fallback>
-          <commentPr defaultSize="0" autoFill="0" autoLine="0">
-            <anchor>
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>762000</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>2133600</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </commentPr>
-        </mc:Fallback>
-      </mc:AlternateContent>
     </comment>
-    <comment ref="E4" authorId="0" shapeId="1026" xr:uid="{86E73C43-D059-4835-B52A-8FC7F8C2205E}">
+    <comment ref="E4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -103,29 +72,8 @@
 </t>
         </r>
       </text>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-        <mc:Choice Requires="v"/>
-        <mc:Fallback>
-          <commentPr defaultSize="0" autoFill="0" autoLine="0">
-            <anchor>
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>142875</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>723900</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </commentPr>
-        </mc:Fallback>
-      </mc:AlternateContent>
     </comment>
-    <comment ref="E6" authorId="0" shapeId="1027" xr:uid="{D19F6C76-3A92-43F7-97B9-6CF61675D128}">
+    <comment ref="E6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -149,29 +97,8 @@
 </t>
         </r>
       </text>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-        <mc:Choice Requires="v"/>
-        <mc:Fallback>
-          <commentPr defaultSize="0" autoFill="0" autoLine="0">
-            <anchor>
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>381000</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>781050</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </commentPr>
-        </mc:Fallback>
-      </mc:AlternateContent>
     </comment>
-    <comment ref="C7" authorId="0" shapeId="1028" xr:uid="{93866095-A2B7-4213-A35B-D8DB04B493CE}">
+    <comment ref="C7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -194,29 +121,8 @@
 Estimado desde estandar Heroku</t>
         </r>
       </text>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-        <mc:Choice Requires="v"/>
-        <mc:Fallback>
-          <commentPr defaultSize="0" autoFill="0" autoLine="0">
-            <anchor>
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>142875</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </commentPr>
-        </mc:Fallback>
-      </mc:AlternateContent>
     </comment>
-    <comment ref="D7" authorId="0" shapeId="1029" xr:uid="{514106E6-D39A-4A26-8092-A9441E50D899}">
+    <comment ref="D7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -240,39 +146,18 @@
 </t>
         </r>
       </text>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-        <mc:Choice Requires="v"/>
-        <mc:Fallback>
-          <commentPr defaultSize="0" autoFill="0" autoLine="0">
-            <anchor>
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>142875</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>142875</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </commentPr>
-        </mc:Fallback>
-      </mc:AlternateContent>
     </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Ale Garrido Resina</author>
   </authors>
   <commentList>
-    <comment ref="C7" authorId="0" shapeId="2049" xr:uid="{7F6D6435-8F3B-4611-8AC3-4965CC473C5B}">
+    <comment ref="C7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -296,34 +181,13 @@
 </t>
         </r>
       </text>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-        <mc:Choice Requires="v"/>
-        <mc:Fallback>
-          <commentPr defaultSize="0" autoFill="0" autoLine="0">
-            <anchor>
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>142875</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>723900</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </to>
-            </anchor>
-          </commentPr>
-        </mc:Fallback>
-      </mc:AlternateContent>
     </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="84" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="74">
   <si>
     <t>Registered time</t>
   </si>
@@ -495,11 +359,62 @@
   <si>
     <t>4688(16%)</t>
   </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>Precio Licencia</t>
+  </si>
+  <si>
+    <t>Nº</t>
+  </si>
+  <si>
+    <t>Tipo Licencia</t>
+  </si>
+  <si>
+    <t>Básica</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>Grande</t>
+  </si>
+  <si>
+    <t>Precio total redondeado</t>
+  </si>
+  <si>
+    <t>Precio mensual</t>
+  </si>
+  <si>
+    <t>Precio mensual redondeado</t>
+  </si>
+  <si>
+    <t>A partir del 3 trimestre</t>
+  </si>
+  <si>
+    <t>Inicial</t>
+  </si>
+  <si>
+    <t>A partir del 3 mes</t>
+  </si>
+  <si>
+    <t>A partir del 6 mes</t>
+  </si>
+  <si>
+    <t>A partir del 9 mes</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
@@ -947,15 +862,15 @@
   </fills>
   <borders count="25">
     <border>
-      <start/>
-      <end/>
+      <left/>
+      <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <start/>
-      <end/>
+      <left/>
+      <right/>
       <top/>
       <bottom style="thick">
         <color theme="4"/>
@@ -963,8 +878,8 @@
       <diagonal/>
     </border>
     <border>
-      <start/>
-      <end/>
+      <left/>
+      <right/>
       <top/>
       <bottom style="thick">
         <color theme="4" tint="0.499984740745262"/>
@@ -972,8 +887,8 @@
       <diagonal/>
     </border>
     <border>
-      <start/>
-      <end/>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.39997558519241921"/>
@@ -981,12 +896,12 @@
       <diagonal/>
     </border>
     <border>
-      <start style="thin">
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
-      </start>
-      <end style="thin">
+      </left>
+      <right style="thin">
         <color rgb="FF7F7F7F"/>
-      </end>
+      </right>
       <top style="thin">
         <color rgb="FF7F7F7F"/>
       </top>
@@ -996,12 +911,12 @@
       <diagonal/>
     </border>
     <border>
-      <start style="thin">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
-      </start>
-      <end style="thin">
+      </left>
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
-      </end>
+      </right>
       <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
@@ -1011,8 +926,8 @@
       <diagonal/>
     </border>
     <border>
-      <start/>
-      <end/>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -1020,12 +935,12 @@
       <diagonal/>
     </border>
     <border>
-      <start style="double">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
-      </start>
-      <end style="double">
+      </left>
+      <right style="double">
         <color rgb="FF3F3F3F"/>
-      </end>
+      </right>
       <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
@@ -1035,12 +950,12 @@
       <diagonal/>
     </border>
     <border>
-      <start style="thin">
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
-      </start>
-      <end style="thin">
+      </left>
+      <right style="thin">
         <color rgb="FFB2B2B2"/>
-      </end>
+      </right>
       <top style="thin">
         <color rgb="FFB2B2B2"/>
       </top>
@@ -1050,8 +965,8 @@
       <diagonal/>
     </border>
     <border>
-      <start/>
-      <end/>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1061,12 +976,12 @@
       <diagonal/>
     </border>
     <border>
-      <start style="thin">
+      <left style="thin">
         <color indexed="64"/>
-      </start>
-      <end style="thin">
+      </left>
+      <right style="thin">
         <color indexed="64"/>
-      </end>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -1076,19 +991,19 @@
       <diagonal/>
     </border>
     <border>
-      <start style="thin">
+      <left style="thin">
         <color indexed="64"/>
-      </start>
-      <end/>
+      </left>
+      <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <start style="thin">
+      <left style="thin">
         <color indexed="64"/>
-      </start>
-      <end/>
+      </left>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -1096,8 +1011,8 @@
       <diagonal/>
     </border>
     <border>
-      <start/>
-      <end/>
+      <left/>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -1105,10 +1020,10 @@
       <diagonal/>
     </border>
     <border>
-      <start/>
-      <end style="thin">
+      <left/>
+      <right style="thin">
         <color indexed="64"/>
-      </end>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -1116,19 +1031,19 @@
       <diagonal/>
     </border>
     <border>
-      <start/>
-      <end style="thin">
+      <left/>
+      <right style="thin">
         <color indexed="64"/>
-      </end>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <start style="thin">
+      <left style="thin">
         <color indexed="64"/>
-      </start>
-      <end/>
+      </left>
+      <right/>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -1136,8 +1051,8 @@
       <diagonal/>
     </border>
     <border>
-      <start/>
-      <end/>
+      <left/>
+      <right/>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -1145,10 +1060,10 @@
       <diagonal/>
     </border>
     <border>
-      <start/>
-      <end style="thin">
+      <left/>
+      <right style="thin">
         <color indexed="64"/>
-      </end>
+      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -1156,10 +1071,10 @@
       <diagonal/>
     </border>
     <border>
-      <start style="thin">
+      <left style="thin">
         <color indexed="64"/>
-      </start>
-      <end/>
+      </left>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -1169,8 +1084,8 @@
       <diagonal/>
     </border>
     <border>
-      <start/>
-      <end/>
+      <left/>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -1180,10 +1095,10 @@
       <diagonal/>
     </border>
     <border>
-      <start/>
-      <end style="thin">
+      <left/>
+      <right style="thin">
         <color indexed="64"/>
-      </end>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -1193,12 +1108,12 @@
       <diagonal/>
     </border>
     <border>
-      <start style="thin">
+      <left style="thin">
         <color indexed="64"/>
-      </start>
-      <end style="thin">
+      </left>
+      <right style="thin">
         <color indexed="64"/>
-      </end>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -1206,23 +1121,23 @@
       <diagonal/>
     </border>
     <border>
-      <start style="thin">
+      <left style="thin">
         <color indexed="64"/>
-      </start>
-      <end style="thin">
+      </left>
+      <right style="thin">
         <color indexed="64"/>
-      </end>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <start style="thin">
+      <left style="thin">
         <color indexed="64"/>
-      </start>
-      <end style="thin">
+      </left>
+      <right style="thin">
         <color indexed="64"/>
-      </end>
+      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -1376,6 +1291,7 @@
     <xf numFmtId="0" fontId="0" fillId="43" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="47" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="42" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1403,7 +1319,6 @@
     <xf numFmtId="0" fontId="0" fillId="45" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Énfasis1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -1424,11 +1339,10 @@
     <cellStyle name="60% - Énfasis4" xfId="34" builtinId="44" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis5" xfId="38" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis6" xfId="42" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Bueno" xfId="7" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Buena" xfId="7" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Cálculo" xfId="12" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Celda de comprobación" xfId="14" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Celda vinculada" xfId="13" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Encabezado 1" xfId="3" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Encabezado 4" xfId="6" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Énfasis1" xfId="19" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Énfasis2" xfId="23" builtinId="33" customBuiltin="1"/>
@@ -1447,6 +1361,7 @@
     <cellStyle name="Texto de advertencia" xfId="15" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Texto explicativo" xfId="17" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Título" xfId="2" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título 1" xfId="3" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Título 2" xfId="4" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Título 3" xfId="5" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
@@ -1465,7 +1380,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -1502,12 +1417,9 @@
             <c:strRef>
               <c:f>Caculadora!$G$1:$G$2</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Progreso</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Real</c:v>
+                  <c:v>Progreso Real</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1515,25 +1427,25 @@
           <c:spPr>
             <a:gradFill rotWithShape="1">
               <a:gsLst>
-                <a:gs pos="0%">
+                <a:gs pos="0">
                   <a:schemeClr val="accent1">
-                    <a:satMod val="103%"/>
-                    <a:lumMod val="102%"/>
-                    <a:tint val="94%"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
                   </a:schemeClr>
                 </a:gs>
-                <a:gs pos="50%">
+                <a:gs pos="50000">
                   <a:schemeClr val="accent1">
-                    <a:satMod val="110%"/>
-                    <a:lumMod val="100%"/>
-                    <a:shade val="100%"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
                   </a:schemeClr>
                 </a:gs>
-                <a:gs pos="100%">
+                <a:gs pos="100000">
                   <a:schemeClr val="accent1">
-                    <a:lumMod val="99%"/>
-                    <a:satMod val="120%"/>
-                    <a:shade val="78%"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
                   </a:schemeClr>
                 </a:gs>
               </a:gsLst>
@@ -1547,7 +1459,7 @@
             <a:effectLst>
               <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
                 <a:srgbClr val="000000">
-                  <a:alpha val="63%"/>
+                  <a:alpha val="63000"/>
                 </a:srgbClr>
               </a:outerShdw>
             </a:effectLst>
@@ -1579,7 +1491,7 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000000-E409-4349-BB70-B4830E9B9444}"/>
@@ -1600,10 +1512,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="lt1">
-                        <a:lumMod val="85%"/>
+                        <a:lumMod val="85000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -1621,8 +1533,7 @@
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showDataLabelsRange val="1"/>
                 <c15:showLeaderLines val="1"/>
@@ -1654,7 +1565,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:datalabelsRange>
                 <c15:f>Caculadora!$G$5</c15:f>
@@ -1678,12 +1589,9 @@
             <c:strRef>
               <c:f>Caculadora!$H$1:$H$2</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Progreso</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Objetivo</c:v>
+                  <c:v>Progreso Objetivo</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1691,7 +1599,7 @@
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1">
-                <a:alpha val="15%"/>
+                <a:alpha val="15000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:ln>
@@ -1702,7 +1610,7 @@
             <a:effectLst>
               <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
                 <a:srgbClr val="000000">
-                  <a:alpha val="63%"/>
+                  <a:alpha val="63000"/>
                 </a:srgbClr>
               </a:outerShdw>
             </a:effectLst>
@@ -1731,7 +1639,7 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
@@ -1755,7 +1663,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                  <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
@@ -1773,8 +1681,7 @@
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showDataLabelsRange val="1"/>
                 <c15:showLeaderLines val="1"/>
@@ -1806,7 +1713,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:datalabelsRange>
                 <c15:f>Caculadora!$H$4</c15:f>
@@ -1833,11 +1740,11 @@
         </c:dLbls>
         <c:gapWidth val="30"/>
         <c:overlap val="100"/>
-        <c:axId val="597695119"/>
-        <c:axId val="522222911"/>
+        <c:axId val="322950656"/>
+        <c:axId val="320139776"/>
       </c:barChart>
       <c:valAx>
-        <c:axId val="522222911"/>
+        <c:axId val="320139776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1863,7 +1770,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
@@ -1878,13 +1785,13 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="597695119"/>
+        <c:crossAx val="322950656"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.25"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="597695119"/>
+        <c:axId val="322950656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1893,7 +1800,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="522222911"/>
+        <c:crossAx val="320139776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1910,14 +1817,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:noFill/>
@@ -1945,7 +1852,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -2023,7 +1930,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0CCE-482A-8138-6F93BA323EB6}"/>
             </c:ext>
@@ -2031,7 +1938,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:order val="1"/>
           <c:tx>
             <c:v>Estimado</c:v>
           </c:tx>
@@ -2117,7 +2024,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-0CCE-482A-8138-6F93BA323EB6}"/>
             </c:ext>
@@ -2133,9 +2040,9 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="164761200"/>
-        <c:axId val="335739584"/>
-        <c:extLst>
+        <c:axId val="322951680"/>
+        <c:axId val="320142080"/>
+        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
               <c15:ser>
@@ -2213,7 +2120,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="164761200"/>
+        <c:axId val="322951680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2226,11 +2133,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
-                        <a:lumMod val="65%"/>
-                        <a:lumOff val="35%"/>
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -2261,26 +2168,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65%"/>
-                      <a:lumOff val="35%"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="es-ES"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -2291,8 +2178,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="15%"/>
-                <a:lumOff val="85%"/>
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -2304,11 +2191,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
-                    <a:lumMod val="65%"/>
-                    <a:lumOff val="35%"/>
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -2319,7 +2206,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="335739584"/>
+        <c:crossAx val="320142080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2327,7 +2214,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="335739584"/>
+        <c:axId val="320142080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="30000"/>
@@ -2339,8 +2226,8 @@
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
-                  <a:lumMod val="15%"/>
-                  <a:lumOff val="85%"/>
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -2355,11 +2242,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
-                        <a:lumMod val="65%"/>
-                        <a:lumOff val="35%"/>
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -2372,13 +2259,23 @@
                   <a:t>Presupuesto</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="es-ES" baseline="0%"/>
+                  <a:rPr lang="es-ES" baseline="0"/>
                   <a:t> (€)</a:t>
                 </a:r>
               </a:p>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:endParaRPr lang="es-ES"/>
               </a:p>
@@ -2392,26 +2289,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65%"/>
-                      <a:lumOff val="35%"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="es-ES"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="#,##0.00\ &quot;€&quot;" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -2429,11 +2306,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
-                    <a:lumMod val="65%"/>
-                    <a:lumOff val="35%"/>
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -2444,7 +2321,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="164761200"/>
+        <c:crossAx val="322951680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2481,11 +2358,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
-                  <a:lumMod val="65%"/>
-                  <a:lumOff val="35%"/>
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -2499,14 +2376,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2515,8 +2392,8 @@
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
         <a:schemeClr val="tx1">
-          <a:lumMod val="15%"/>
-          <a:lumOff val="85%"/>
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:round/>
@@ -2542,7 +2419,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -2620,7 +2497,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5661-4738-B608-7F29A7F5D55D}"/>
             </c:ext>
@@ -2628,7 +2505,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:order val="1"/>
           <c:tx>
             <c:v>Estimado</c:v>
           </c:tx>
@@ -2714,7 +2591,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-5661-4738-B608-7F29A7F5D55D}"/>
             </c:ext>
@@ -2730,9 +2607,9 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="164761200"/>
-        <c:axId val="335739584"/>
-        <c:extLst>
+        <c:axId val="324195840"/>
+        <c:axId val="324018176"/>
+        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
               <c15:ser>
@@ -2810,7 +2687,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="164761200"/>
+        <c:axId val="324195840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2820,7 +2697,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="335739584"/>
+        <c:crossAx val="324018176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2828,7 +2705,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="335739584"/>
+        <c:axId val="324018176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="30000"/>
@@ -2840,8 +2717,8 @@
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
-                  <a:lumMod val="15%"/>
-                  <a:lumOff val="85%"/>
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -2853,7 +2730,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="164761200"/>
+        <c:crossAx val="324195840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2890,11 +2767,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
-                  <a:lumMod val="65%"/>
-                  <a:lumOff val="35%"/>
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -2908,14 +2785,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2924,8 +2801,8 @@
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
         <a:schemeClr val="tx1">
-          <a:lumMod val="15%"/>
-          <a:lumOff val="85%"/>
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:round/>
@@ -2951,7 +2828,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -2983,7 +2860,7 @@
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:order val="0"/>
           <c:tx>
             <c:strRef>
               <c:f>Hoja1!$H$1</c:f>
@@ -3005,7 +2882,7 @@
             <a:effectLst>
               <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
                 <a:srgbClr val="000000">
-                  <a:alpha val="63%"/>
+                  <a:alpha val="63000"/>
                 </a:srgbClr>
               </a:outerShdw>
             </a:effectLst>
@@ -3018,7 +2895,7 @@
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1">
-                  <a:alpha val="15%"/>
+                  <a:alpha val="15000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:ln>
@@ -3029,12 +2906,12 @@
               <a:effectLst>
                 <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
-                    <a:alpha val="63%"/>
+                    <a:alpha val="63000"/>
                   </a:srgbClr>
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000006-EB81-4B8A-9CC2-7323559F094F}"/>
               </c:ext>
@@ -3049,7 +2926,7 @@
               </c:pt>
             </c:numLit>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-EB81-4B8A-9CC2-7323559F094F}"/>
             </c:ext>
@@ -3057,7 +2934,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>Hoja1!$G$1</c:f>
@@ -3072,25 +2949,25 @@
           <c:spPr>
             <a:gradFill rotWithShape="1">
               <a:gsLst>
-                <a:gs pos="0%">
+                <a:gs pos="0">
                   <a:schemeClr val="accent3">
-                    <a:satMod val="103%"/>
-                    <a:lumMod val="102%"/>
-                    <a:tint val="94%"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
                   </a:schemeClr>
                 </a:gs>
-                <a:gs pos="50%">
+                <a:gs pos="50000">
                   <a:schemeClr val="accent3">
-                    <a:satMod val="110%"/>
-                    <a:lumMod val="100%"/>
-                    <a:shade val="100%"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
                   </a:schemeClr>
                 </a:gs>
-                <a:gs pos="100%">
+                <a:gs pos="100000">
                   <a:schemeClr val="accent3">
-                    <a:lumMod val="99%"/>
-                    <a:satMod val="120%"/>
-                    <a:shade val="78%"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
                   </a:schemeClr>
                 </a:gs>
               </a:gsLst>
@@ -3102,7 +2979,7 @@
             <a:effectLst>
               <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
                 <a:srgbClr val="000000">
-                  <a:alpha val="63%"/>
+                  <a:alpha val="63000"/>
                 </a:srgbClr>
               </a:outerShdw>
             </a:effectLst>
@@ -3117,7 +2994,7 @@
               </c:pt>
             </c:numLit>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-EB81-4B8A-9CC2-7323559F094F}"/>
             </c:ext>
@@ -3133,9 +3010,9 @@
         </c:dLbls>
         <c:gapWidth val="30"/>
         <c:overlap val="100"/>
-        <c:axId val="597695119"/>
-        <c:axId val="522222911"/>
-        <c:extLst>
+        <c:axId val="324196864"/>
+        <c:axId val="324019904"/>
+        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
               <c15:ser>
@@ -3217,7 +3094,7 @@
         </c:extLst>
       </c:barChart>
       <c:valAx>
-        <c:axId val="522222911"/>
+        <c:axId val="324019904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3243,7 +3120,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
@@ -3258,13 +3135,13 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="597695119"/>
+        <c:crossAx val="324196864"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.25"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="597695119"/>
+        <c:axId val="324196864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3273,7 +3150,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="522222911"/>
+        <c:crossAx val="324019904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3290,14 +3167,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:noFill/>
@@ -3312,6 +3189,315 @@
     <a:p>
       <a:pPr>
         <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Investment</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750"/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="44450"/>
+            </c:spPr>
+          </c:dPt>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja2!$B$8:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>28208.333333333332</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27416.666666666668</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25962.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24950</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23937.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21250</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19958.333333333332</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18666.666666666664</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14666.666666666668</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13233.333333333334</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Earnings</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="44450"/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja2!$C$8:$C$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>791.66666666666674</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1583.3333333333335</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3037.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4050</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5062.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7750</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9041.6666666666679</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10333.333333333334</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14333.333333333332</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15766.666666666666</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="323339776"/>
+        <c:axId val="324023360"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="323339776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES" sz="4000"/>
+                  <a:t>Months</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="3000"/>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="324023360"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="324023360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES" sz="4000"/>
+                  <a:t>Euros</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="3000"/>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="323339776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="3000"/>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1"/>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+      <a:miter lim="800000"/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="es-ES"/>
     </a:p>
@@ -5517,7 +5703,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -5536,7 +5722,7 @@
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4478CC80-9EF6-4ADD-B060-B7DA1112C280}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4478CC80-9EF6-4ADD-B060-B7DA1112C280}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5549,8 +5735,8 @@
         <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
-        <a:graphicData uri="http://purl.oclc.org/ooxml/drawingml/chart">
-          <c:chart xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" r:id="rId1"/>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5574,7 +5760,7 @@
         <xdr:cNvPr id="3" name="Gráfico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46D435CB-CF32-4D44-8F73-691DA66C623B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46D435CB-CF32-4D44-8F73-691DA66C623B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5587,635 +5773,18 @@
         <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
-        <a:graphicData uri="http://purl.oclc.org/ooxml/drawingml/chart">
-          <c:chart xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" r:id="rId2"/>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:v="urn:schemas-microsoft-com:vml" Requires="v"/>
-    <mc:Fallback>
-      <xdr:twoCellAnchor editAs="absolute">
-        <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>762000</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>95250</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>2133600</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>85725</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1025" name="Comentario 1" hidden="1">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0883D118-F92D-436A-91DE-02BDD4E28B14}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1">
-              <a:spLocks noChangeArrowheads="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="2705100" y="285750"/>
-              <a:ext cx="1371600" cy="752475"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFE1" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="80"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="510000"/>
-              </a:solidFill>
-              <a:miter lim="800%"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="510000"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-              <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-                <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="es-ES" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0%">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Tahoma"/>
-                  <a:ea typeface="Tahoma"/>
-                  <a:cs typeface="Tahoma"/>
-                </a:rPr>
-                <a:t>Ale Garrido Resina:</a:t>
-              </a:r>
-              <a:endParaRPr lang="es-ES" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0%">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Tahoma"/>
-                <a:ea typeface="Tahoma"/>
-                <a:cs typeface="Tahoma"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="es-ES" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0%">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Tahoma"/>
-                  <a:ea typeface="Tahoma"/>
-                  <a:cs typeface="Tahoma"/>
-                </a:rPr>
-                <a:t>Ud:Hora</a:t>
-              </a:r>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="es-ES" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0%">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Tahoma"/>
-                <a:ea typeface="Tahoma"/>
-                <a:cs typeface="Tahoma"/>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:v="urn:schemas-microsoft-com:vml" Requires="v"/>
-    <mc:Fallback>
-      <xdr:twoCellAnchor editAs="absolute">
-        <xdr:from>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>142875</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>95250</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>723900</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>85725</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1026" name="Comentario 5" hidden="1">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD4EE551-446B-4BF5-A2D1-082CCC2AF8C9}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1">
-              <a:spLocks noChangeArrowheads="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="5476875" y="476250"/>
-              <a:ext cx="1371600" cy="752475"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFE1" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="80"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="510000"/>
-              </a:solidFill>
-              <a:miter lim="800%"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="510000"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-              <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-                <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="es-ES" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0%">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Tahoma"/>
-                  <a:ea typeface="Tahoma"/>
-                  <a:cs typeface="Tahoma"/>
-                </a:rPr>
-                <a:t>Ale Garrido Resina:</a:t>
-              </a:r>
-              <a:endParaRPr lang="es-ES" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0%">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Tahoma"/>
-                <a:ea typeface="Tahoma"/>
-                <a:cs typeface="Tahoma"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="es-ES" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0%">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Tahoma"/>
-                  <a:ea typeface="Tahoma"/>
-                  <a:cs typeface="Tahoma"/>
-                </a:rPr>
-                <a:t>5 Personas</a:t>
-              </a:r>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="es-ES" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0%">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Tahoma"/>
-                <a:ea typeface="Tahoma"/>
-                <a:cs typeface="Tahoma"/>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:v="urn:schemas-microsoft-com:vml" Requires="v"/>
-    <mc:Fallback>
-      <xdr:twoCellAnchor editAs="absolute">
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>381000</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>95250</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>781050</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>85725</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1027" name="Comentario 2" hidden="1">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E90E4E1-412D-4D9A-9E52-76CBC28AF806}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1">
-              <a:spLocks noChangeArrowheads="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="4743450" y="857250"/>
-              <a:ext cx="1371600" cy="752475"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFE1" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="80"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="510000"/>
-              </a:solidFill>
-              <a:miter lim="800%"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="510000"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-              <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-                <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="es-ES" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0%">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Tahoma"/>
-                  <a:ea typeface="Tahoma"/>
-                  <a:cs typeface="Tahoma"/>
-                </a:rPr>
-                <a:t>Ale Garrido Resina:</a:t>
-              </a:r>
-              <a:endParaRPr lang="es-ES" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0%">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Tahoma"/>
-                <a:ea typeface="Tahoma"/>
-                <a:cs typeface="Tahoma"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="es-ES" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0%">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Tahoma"/>
-                  <a:ea typeface="Tahoma"/>
-                  <a:cs typeface="Tahoma"/>
-                </a:rPr>
-                <a:t>Personas</a:t>
-              </a:r>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="es-ES" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0%">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Tahoma"/>
-                <a:ea typeface="Tahoma"/>
-                <a:cs typeface="Tahoma"/>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:v="urn:schemas-microsoft-com:vml" Requires="v"/>
-    <mc:Fallback>
-      <xdr:twoCellAnchor editAs="absolute">
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>142875</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>95250</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>542925</xdr:colOff>
-          <xdr:row>9</xdr:row>
-          <xdr:rowOff>85725</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1028" name="Comentario 3" hidden="1">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBC93C88-2B5D-4D0E-B6DB-15EB38D8C0C2}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1">
-              <a:spLocks noChangeArrowheads="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="4505325" y="1047750"/>
-              <a:ext cx="1371600" cy="752475"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFE1" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="80"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="510000"/>
-              </a:solidFill>
-              <a:miter lim="800%"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="510000"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-              <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-                <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="es-ES" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0%">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Tahoma"/>
-                  <a:ea typeface="Tahoma"/>
-                  <a:cs typeface="Tahoma"/>
-                </a:rPr>
-                <a:t>Ale Garrido Resina:</a:t>
-              </a:r>
-              <a:endParaRPr lang="es-ES" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0%">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Tahoma"/>
-                <a:ea typeface="Tahoma"/>
-                <a:cs typeface="Tahoma"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="es-ES" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0%">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Tahoma"/>
-                  <a:ea typeface="Tahoma"/>
-                  <a:cs typeface="Tahoma"/>
-                </a:rPr>
-                <a:t>Estimado desde estandar Heroku</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:v="urn:schemas-microsoft-com:vml" Requires="v"/>
-    <mc:Fallback>
-      <xdr:twoCellAnchor editAs="absolute">
-        <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>142875</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>95250</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>142875</xdr:colOff>
-          <xdr:row>9</xdr:row>
-          <xdr:rowOff>85725</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1029" name="Comentario 4" hidden="1">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F576C0B2-30BD-40A5-938C-9B77E6DB0C8A}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1">
-              <a:spLocks noChangeArrowheads="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="4895850" y="1047750"/>
-              <a:ext cx="1371600" cy="752475"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFE1" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="80"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="510000"/>
-              </a:solidFill>
-              <a:miter lim="800%"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="510000"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-              <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-                <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="es-ES" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0%">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Tahoma"/>
-                  <a:ea typeface="Tahoma"/>
-                  <a:cs typeface="Tahoma"/>
-                </a:rPr>
-                <a:t>Ale Garrido Resina:</a:t>
-              </a:r>
-              <a:endParaRPr lang="es-ES" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0%">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Tahoma"/>
-                <a:ea typeface="Tahoma"/>
-                <a:cs typeface="Tahoma"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="es-ES" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0%">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Tahoma"/>
-                  <a:ea typeface="Tahoma"/>
-                  <a:cs typeface="Tahoma"/>
-                </a:rPr>
-                <a:t>mes</a:t>
-              </a:r>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="es-ES" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0%">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Tahoma"/>
-                <a:ea typeface="Tahoma"/>
-                <a:cs typeface="Tahoma"/>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Fallback>
-  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -6234,7 +5803,7 @@
         <xdr:cNvPr id="3" name="Gráfico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15DB4FA1-CE3C-4ABC-8972-8E314AEC1C7C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15DB4FA1-CE3C-4ABC-8972-8E314AEC1C7C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6247,8 +5816,8 @@
         <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
-        <a:graphicData uri="http://purl.oclc.org/ooxml/drawingml/chart">
-          <c:chart xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" r:id="rId1"/>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6272,7 +5841,7 @@
         <xdr:cNvPr id="4" name="Gráfico 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1428A001-ABB8-4817-8FF8-E1823E570921}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1428A001-ABB8-4817-8FF8-E1823E570921}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6285,8 +5854,8 @@
         <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
-        <a:graphicData uri="http://purl.oclc.org/ooxml/drawingml/chart">
-          <c:chart xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" r:id="rId2"/>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6296,138 +5865,310 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:v="urn:schemas-microsoft-com:vml" Requires="v"/>
-    <mc:Fallback>
-      <xdr:twoCellAnchor editAs="absolute">
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>142875</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>85725</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>723900</xdr:colOff>
-          <xdr:row>9</xdr:row>
-          <xdr:rowOff>76200</xdr:rowOff>
-        </xdr:to>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1965960" cy="262890"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="2049" name="Comentario 1" hidden="1">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3D644CB-40F7-4202-999E-5A9483305945}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1">
-              <a:spLocks noChangeArrowheads="1"/>
-            </xdr:cNvSpPr>
+            <xdr:cNvPr id="4" name="3 CuadroTexto"/>
+            <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
-              <a:off x="3819525" y="1038225"/>
-              <a:ext cx="1371600" cy="752475"/>
+              <a:off x="2499360" y="1573530"/>
+              <a:ext cx="1965960" cy="262890"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFE1" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="80"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="510000"/>
-              </a:solidFill>
-              <a:miter lim="800%"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="510000"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-              <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-                <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
-              </a:ext>
-            </a:extLst>
+            <a:noFill/>
           </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
             <a:lstStyle/>
             <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="es-ES" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0%">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Tahoma"/>
-                  <a:ea typeface="Tahoma"/>
-                  <a:cs typeface="Tahoma"/>
-                </a:rPr>
-                <a:t>Ale Garrido Resina:</a:t>
-              </a:r>
-              <a:endParaRPr lang="es-ES" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0%">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Tahoma"/>
-                <a:ea typeface="Tahoma"/>
-                <a:cs typeface="Tahoma"/>
-              </a:endParaRPr>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math"/>
+                      </a:rPr>
+                      <m:t>𝑦</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math"/>
+                      </a:rPr>
+                      <m:t>=29000 −2600</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math"/>
+                      </a:rPr>
+                      <m:t>𝑥</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="es-ES" sz="1100" b="0"/>
             </a:p>
             <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="es-ES" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0%">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Tahoma"/>
-                  <a:ea typeface="Tahoma"/>
-                  <a:cs typeface="Tahoma"/>
-                </a:rPr>
-                <a:t>Ud:Hora</a:t>
-              </a:r>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="es-ES" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0%">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Tahoma"/>
-                <a:ea typeface="Tahoma"/>
-                <a:cs typeface="Tahoma"/>
-              </a:endParaRPr>
+              <a:endParaRPr lang="es-ES" sz="1100"/>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Fallback>
-  </mc:AlternateContent>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="3 CuadroTexto"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2499360" y="1573530"/>
+              <a:ext cx="1965960" cy="262890"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>𝑦=29000 −2600𝑥</a:t>
+              </a:r>
+              <a:endParaRPr lang="es-ES" sz="1100" b="0"/>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="es-ES" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1965960" cy="262890"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="4 CuadroTexto"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2491740" y="1234440"/>
+              <a:ext cx="1965960" cy="262890"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math"/>
+                      </a:rPr>
+                      <m:t>𝑧</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math"/>
+                      </a:rPr>
+                      <m:t> =2600</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math"/>
+                      </a:rPr>
+                      <m:t>𝑥</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="es-ES" sz="1100" b="0"/>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="es-ES" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="4 CuadroTexto"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2491740" y="1234440"/>
+              <a:ext cx="1965960" cy="262890"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>𝑧 =2600𝑥</a:t>
+              </a:r>
+              <a:endParaRPr lang="es-ES" sz="1100" b="0"/>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="es-ES" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="8 Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -6580,25 +6321,25 @@
         </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0%">
+            <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110%"/>
-                <a:satMod val="105%"/>
-                <a:tint val="67%"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50%">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105%"/>
-                <a:satMod val="103%"/>
-                <a:tint val="73%"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="100%">
+            <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105%"/>
-                <a:satMod val="109%"/>
-                <a:tint val="81%"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -6606,25 +6347,25 @@
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0%">
+            <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103%"/>
-                <a:lumMod val="102%"/>
-                <a:tint val="94%"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50%">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110%"/>
-                <a:lumMod val="100%"/>
-                <a:shade val="100%"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="100%">
+            <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99%"/>
-                <a:satMod val="120%"/>
-                <a:shade val="78%"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -6637,21 +6378,21 @@
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800%"/>
+          <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800%"/>
+          <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800%"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -6665,7 +6406,7 @@
           <a:effectLst>
             <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63%"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -6677,32 +6418,32 @@
         </a:solidFill>
         <a:solidFill>
           <a:schemeClr val="phClr">
-            <a:tint val="95%"/>
-            <a:satMod val="170%"/>
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0%">
+            <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93%"/>
-                <a:satMod val="150%"/>
-                <a:shade val="98%"/>
-                <a:lumMod val="102%"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50%">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="98%"/>
-                <a:satMod val="130%"/>
-                <a:shade val="90%"/>
-                <a:lumMod val="103%"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="100%">
+            <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63%"/>
-                <a:satMod val="120%"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -6715,31 +6456,31 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -6758,14 +6499,14 @@
       <c r="F1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="81" t="s">
+      <c r="J1" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="83"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="84"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>8</v>
       </c>
@@ -6799,7 +6540,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="18"/>
       <c r="B3" s="19"/>
       <c r="C3" s="52" t="s">
@@ -6830,7 +6571,7 @@
         <v>466.66666666666669</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
       <c r="B4" s="13"/>
       <c r="C4" s="53" t="s">
@@ -6852,7 +6593,7 @@
         <v>16088</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>9</v>
       </c>
@@ -6871,7 +6612,7 @@
         <v>466.66666666666669</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="18"/>
       <c r="B6" s="19"/>
       <c r="C6" s="55" t="s">
@@ -6888,7 +6629,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
       <c r="B7" s="13"/>
       <c r="C7" s="56" t="s">
@@ -6909,7 +6650,7 @@
         <v>4748.666666666667</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
         <v>16</v>
       </c>
@@ -6918,7 +6659,7 @@
         <v>20754.666666666668</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="45" t="s">
         <v>14</v>
       </c>
@@ -6933,7 +6674,7 @@
         <v>4150.9333333333334</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
         <v>15</v>
       </c>
@@ -6948,7 +6689,7 @@
         <v>4150.9333333333334</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="E11" s="16" t="s">
         <v>10</v>
       </c>
@@ -6957,7 +6698,7 @@
         <v>29056.533333333336</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>35</v>
       </c>
@@ -6965,14 +6706,14 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>4</v>
       </c>
       <c r="B15">
         <v>10</v>
       </c>
-      <c r="P15" s="90"/>
+      <c r="P15" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6981,23 +6722,19 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="v">
-      <legacyDrawing r:id="rId3"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2245CC34-666A-4036-B9C2-2D2D05A00F75}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="G1:H1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G1">
@@ -7014,40 +6751,40 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.44140625" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+    <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="G1" s="86" t="s">
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="G1" s="87" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="87"/>
-      <c r="J1" s="88" t="s">
+      <c r="H1" s="88"/>
+      <c r="J1" s="89" t="s">
         <v>54</v>
       </c>
-      <c r="K1" s="89"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K1" s="90"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="79" t="s">
         <v>1</v>
       </c>
@@ -7076,7 +6813,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>29</v>
       </c>
@@ -7110,7 +6847,7 @@
         <v>1537.1666666666667</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="77" t="s">
         <v>2</v>
       </c>
@@ -7137,7 +6874,7 @@
         <v>29000</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="77" t="s">
         <v>3</v>
       </c>
@@ -7160,7 +6897,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="77" t="s">
         <v>28</v>
       </c>
@@ -7180,7 +6917,7 @@
         <v>281.01500000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="77" t="s">
         <v>43</v>
       </c>
@@ -7200,7 +6937,7 @@
         <v>744.46500000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="77" t="s">
         <v>44</v>
       </c>
@@ -7220,7 +6957,7 @@
         <v>194.99</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="78" t="s">
         <v>45</v>
       </c>
@@ -7240,7 +6977,7 @@
         <v>309.69</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B10">
         <f>SUM(B3:B9)</f>
         <v>211.7</v>
@@ -7253,19 +6990,19 @@
         <v>3159.6410000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="85" t="s">
+    <row r="12" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="85"/>
-      <c r="C12" s="85"/>
-      <c r="D12" s="85"/>
-      <c r="E12" s="85"/>
-      <c r="F12" s="85"/>
-      <c r="G12" s="85"/>
-      <c r="H12" s="85"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="86"/>
+      <c r="C12" s="86"/>
+      <c r="D12" s="86"/>
+      <c r="E12" s="86"/>
+      <c r="F12" s="86"/>
+      <c r="G12" s="86"/>
+      <c r="H12" s="86"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>29</v>
       </c>
@@ -7298,7 +7035,7 @@
         <v>29056.533333333336</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>21</v>
       </c>
@@ -7346,7 +7083,7 @@
         <v>1816.0333333333335</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>22</v>
       </c>
@@ -7394,7 +7131,7 @@
         <v>3632.0666666666671</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>23</v>
       </c>
@@ -7442,7 +7179,7 @@
         <v>5448.1</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>24</v>
       </c>
@@ -7490,7 +7227,7 @@
         <v>7264.1333333333341</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>25</v>
       </c>
@@ -7538,7 +7275,7 @@
         <v>9080.1666666666679</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>26</v>
       </c>
@@ -7586,7 +7323,7 @@
         <v>10896.2</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>27</v>
       </c>
@@ -7634,7 +7371,7 @@
         <v>12712.233333333335</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B21" s="36">
         <f>('Imputaciones semana'!A9)*$C$3</f>
         <v>0</v>
@@ -7679,7 +7416,7 @@
         <v>14528.266666666668</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B22" s="39">
         <f>('Imputaciones semana'!A10)*$C$3</f>
         <v>0</v>
@@ -7724,7 +7461,7 @@
         <v>16344.300000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B23" s="36">
         <f>('Imputaciones semana'!A11)*$C$3</f>
         <v>0</v>
@@ -7769,7 +7506,7 @@
         <v>18160.333333333336</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B24" s="39">
         <f>('Imputaciones semana'!A12)*$C$3</f>
         <v>0</v>
@@ -7814,7 +7551,7 @@
         <v>19976.366666666669</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B25" s="36">
         <f>('Imputaciones semana'!A13)*$C$3</f>
         <v>0</v>
@@ -7859,7 +7596,7 @@
         <v>21792.400000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B26" s="39">
         <f>('Imputaciones semana'!A14)*$C$3</f>
         <v>0</v>
@@ -7904,7 +7641,7 @@
         <v>23608.433333333334</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B27" s="36">
         <f>('Imputaciones semana'!A15)*$C$3</f>
         <v>0</v>
@@ -7949,7 +7686,7 @@
         <v>25424.466666666671</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B28" s="39">
         <f>('Imputaciones semana'!A16)*$C$3</f>
         <v>0</v>
@@ -7994,7 +7731,7 @@
         <v>27240.500000000004</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="K29">
         <v>16</v>
       </c>
@@ -8003,7 +7740,7 @@
         <v>29056.533333333336</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>48</v>
       </c>
@@ -8049,30 +7786,25 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="v">
-      <legacyDrawing r:id="rId3"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="7" width="16.7109375" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="7" width="16.6640625" customWidth="1"/>
+    <col min="8" max="8" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -8095,7 +7827,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="35">
         <v>10</v>
       </c>
@@ -8124,7 +7856,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="35">
         <v>17.600000000000001</v>
       </c>
@@ -8153,7 +7885,7 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="35">
         <v>5.5</v>
       </c>
@@ -8182,7 +7914,7 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -8194,7 +7926,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -8206,7 +7938,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -8218,7 +7950,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -8230,7 +7962,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -8242,7 +7974,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -8254,7 +7986,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -8266,7 +7998,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -8276,7 +8008,7 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -8286,7 +8018,7 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -8296,7 +8028,7 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -8306,7 +8038,7 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -8316,7 +8048,7 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -8326,7 +8058,7 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -8336,7 +8068,7 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -8346,7 +8078,7 @@
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -8356,7 +8088,7 @@
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -8366,7 +8098,7 @@
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -8376,7 +8108,7 @@
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -8386,7 +8118,7 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -8396,7 +8128,7 @@
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -8406,7 +8138,7 @@
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -8416,7 +8148,7 @@
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -8426,7 +8158,7 @@
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -8436,7 +8168,7 @@
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -8446,7 +8178,7 @@
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -8459,4 +8191,390 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>29000</v>
+      </c>
+      <c r="B1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <f>A1/12</f>
+        <v>2416.6666666666665</v>
+      </c>
+      <c r="B2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2">
+        <f>200/12</f>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="H2">
+        <v>20</v>
+      </c>
+      <c r="I2">
+        <f>H2*G2</f>
+        <v>333.33333333333337</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2400</v>
+      </c>
+      <c r="B3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3">
+        <f>550/12</f>
+        <v>45.833333333333336</v>
+      </c>
+      <c r="H3">
+        <v>10</v>
+      </c>
+      <c r="I3">
+        <f>H3*G3</f>
+        <v>458.33333333333337</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4">
+        <f>700/12</f>
+        <v>58.333333333333336</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <f>H4*G4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H5">
+        <v>25</v>
+      </c>
+      <c r="I5">
+        <f>H5*G2</f>
+        <v>416.66666666666669</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H6">
+        <v>13</v>
+      </c>
+      <c r="I6">
+        <f>H6*G3</f>
+        <v>595.83333333333337</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H7">
+        <v>30</v>
+      </c>
+      <c r="I7">
+        <f>H7*G2</f>
+        <v>500.00000000000006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <f>A1 -I17*A8</f>
+        <v>28208.333333333332</v>
+      </c>
+      <c r="C8">
+        <f>I17*A8</f>
+        <v>791.66666666666674</v>
+      </c>
+      <c r="G8" t="s">
+        <v>72</v>
+      </c>
+      <c r="H8">
+        <v>16</v>
+      </c>
+      <c r="I8">
+        <f>H8*G3</f>
+        <v>733.33333333333337</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <f>A1 -I17*A9</f>
+        <v>27416.666666666668</v>
+      </c>
+      <c r="C9">
+        <f>I17*A9</f>
+        <v>1583.3333333333335</v>
+      </c>
+      <c r="G9" t="s">
+        <v>72</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <f>H9*G4</f>
+        <v>58.333333333333336</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <f>A1 -I18*A10</f>
+        <v>25962.5</v>
+      </c>
+      <c r="C10">
+        <f>I18*A10</f>
+        <v>3037.5</v>
+      </c>
+      <c r="G10" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10">
+        <v>33</v>
+      </c>
+      <c r="I10">
+        <f>H10*G2</f>
+        <v>550</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <f>A1 -I18*A11</f>
+        <v>24950</v>
+      </c>
+      <c r="C11">
+        <f>I18*A11</f>
+        <v>4050</v>
+      </c>
+      <c r="G11" t="s">
+        <v>73</v>
+      </c>
+      <c r="H11">
+        <v>18</v>
+      </c>
+      <c r="I11">
+        <f>H11*G3</f>
+        <v>825</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <f>A1 -I18*A12</f>
+        <v>23937.5</v>
+      </c>
+      <c r="C12">
+        <f>I18*A12</f>
+        <v>5062.5</v>
+      </c>
+      <c r="G12" t="s">
+        <v>73</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <f>H12*G4</f>
+        <v>58.333333333333336</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <f>A1 -I19*A13</f>
+        <v>21250</v>
+      </c>
+      <c r="C13">
+        <f>I19*A13</f>
+        <v>7750</v>
+      </c>
+      <c r="H13">
+        <f>H10+H11+H12</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <f>A1 -I19*A14</f>
+        <v>19958.333333333332</v>
+      </c>
+      <c r="C14">
+        <f>I19*A14</f>
+        <v>9041.6666666666679</v>
+      </c>
+      <c r="H14">
+        <f>H2+H3+H4</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>8</v>
+      </c>
+      <c r="B15">
+        <f>A1 -I19*A15</f>
+        <v>18666.666666666664</v>
+      </c>
+      <c r="C15">
+        <f>I19*A15</f>
+        <v>10333.333333333334</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>9</v>
+      </c>
+      <c r="B16">
+        <f>A1 -I20*A16</f>
+        <v>16100</v>
+      </c>
+      <c r="C16">
+        <f>I20*A16</f>
+        <v>12900</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>10</v>
+      </c>
+      <c r="B17">
+        <f>A1 -I20*A17</f>
+        <v>14666.666666666668</v>
+      </c>
+      <c r="C17">
+        <f>I20*A17</f>
+        <v>14333.333333333332</v>
+      </c>
+      <c r="H17" t="s">
+        <v>70</v>
+      </c>
+      <c r="I17">
+        <f>I2+I3+I4</f>
+        <v>791.66666666666674</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>11</v>
+      </c>
+      <c r="B18">
+        <f>A1 -I20*A18</f>
+        <v>13233.333333333334</v>
+      </c>
+      <c r="C18">
+        <f>I20*A18</f>
+        <v>15766.666666666666</v>
+      </c>
+      <c r="H18" t="s">
+        <v>69</v>
+      </c>
+      <c r="I18">
+        <f>I5+I6+I4</f>
+        <v>1012.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>12</v>
+      </c>
+      <c r="B19">
+        <f>A1 -I20*A19</f>
+        <v>11800</v>
+      </c>
+      <c r="C19">
+        <f>I20*A19</f>
+        <v>17200</v>
+      </c>
+      <c r="H19" t="s">
+        <v>72</v>
+      </c>
+      <c r="I19">
+        <f>I7+I8+I9</f>
+        <v>1291.6666666666667</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H20" t="s">
+        <v>72</v>
+      </c>
+      <c r="I20">
+        <f>I10+I11+I12</f>
+        <v>1433.3333333333333</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Conocimiento/Metodología/Calculadora (version 1).xlsx
+++ b/Conocimiento/Metodología/Calculadora (version 1).xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jesos\Desktop\ISPP proyecto\ISPP_A4MJ\Conocimiento\Metodología\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15348" windowHeight="7152" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="7155" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Costes y presupuesto" sheetId="2" r:id="rId1"/>
@@ -13,7 +18,7 @@
     <sheet name="Imputaciones semana" sheetId="3" r:id="rId4"/>
     <sheet name="Hoja2" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -23,7 +28,7 @@
     <author>Ale Garrido Resina</author>
   </authors>
   <commentList>
-    <comment ref="D3" authorId="0">
+    <comment ref="D3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -48,7 +53,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0">
+    <comment ref="E4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -73,7 +78,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E6" authorId="0">
+    <comment ref="E6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -98,7 +103,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C7" authorId="0">
+    <comment ref="C7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -122,7 +127,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D7" authorId="0">
+    <comment ref="D7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -157,7 +162,7 @@
     <author>Ale Garrido Resina</author>
   </authors>
   <commentList>
-    <comment ref="C7" authorId="0">
+    <comment ref="C7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -414,7 +419,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
@@ -1339,10 +1344,11 @@
     <cellStyle name="60% - Énfasis4" xfId="34" builtinId="44" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis5" xfId="38" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis6" xfId="42" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Buena" xfId="7" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Bueno" xfId="7" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Cálculo" xfId="12" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Celda de comprobación" xfId="14" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Celda vinculada" xfId="13" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Encabezado 1" xfId="3" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Encabezado 4" xfId="6" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Énfasis1" xfId="19" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Énfasis2" xfId="23" builtinId="33" customBuiltin="1"/>
@@ -1361,7 +1367,6 @@
     <cellStyle name="Texto de advertencia" xfId="15" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Texto explicativo" xfId="17" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Título" xfId="2" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Título 1" xfId="3" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Título 2" xfId="4" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Título 3" xfId="5" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
@@ -1380,7 +1385,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -1417,9 +1422,12 @@
             <c:strRef>
               <c:f>Caculadora!$G$1:$G$2</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Progreso Real</c:v>
+                  <c:v>Progreso</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Real</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1491,7 +1499,7 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000000-E409-4349-BB70-B4830E9B9444}"/>
@@ -1533,7 +1541,8 @@
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showDataLabelsRange val="1"/>
                 <c15:showLeaderLines val="1"/>
@@ -1542,8 +1551,8 @@
                     <a:ln w="9525">
                       <a:solidFill>
                         <a:schemeClr val="lt1">
-                          <a:lumMod val="95%"/>
-                          <a:alpha val="54%"/>
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
                         </a:schemeClr>
                       </a:solidFill>
                     </a:ln>
@@ -1560,23 +1569,12 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.16164377259962187</c:v>
+                  <c:v>0.21822715717406069</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:datalabelsRange>
-                <c15:f>Caculadora!$G$5</c15:f>
-                <c15:dlblRangeCache>
-                  <c:ptCount val="1"/>
-                  <c:pt idx="0">
-                    <c:v>4688(16%)</c:v>
-                  </c:pt>
-                </c15:dlblRangeCache>
-              </c15:datalabelsRange>
-            </c:ext>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-E409-4349-BB70-B4830E9B9444}"/>
             </c:ext>
@@ -1589,9 +1587,12 @@
             <c:strRef>
               <c:f>Caculadora!$H$1:$H$2</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Progreso Objetivo</c:v>
+                  <c:v>Progreso</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Objetivo</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1624,7 +1625,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4706F960-E611-4E7F-B0C2-57CB3561C6F1}" type="CELLRANGE">
+                    <a:fld id="{934BDDEB-C00D-4F62-BB7D-E557FB84EF1D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1639,7 +1640,7 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
@@ -1681,7 +1682,8 @@
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showDataLabelsRange val="1"/>
                 <c15:showLeaderLines val="1"/>
@@ -1690,8 +1692,8 @@
                     <a:ln w="9525">
                       <a:solidFill>
                         <a:schemeClr val="lt1">
-                          <a:lumMod val="95%"/>
-                          <a:alpha val="54%"/>
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
                         </a:schemeClr>
                       </a:solidFill>
                     </a:ln>
@@ -1713,7 +1715,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:datalabelsRange>
                 <c15:f>Caculadora!$H$4</c15:f>
@@ -1766,7 +1768,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="b" anchorCtr="0"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="b" anchorCtr="0"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -1817,14 +1819,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:noFill/>
@@ -1852,7 +1854,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -1930,7 +1932,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0CCE-482A-8138-6F93BA323EB6}"/>
             </c:ext>
@@ -1938,7 +1940,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="1"/>
+          <c:order val="2"/>
           <c:tx>
             <c:v>Estimado</c:v>
           </c:tx>
@@ -2024,7 +2026,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-0CCE-482A-8138-6F93BA323EB6}"/>
             </c:ext>
@@ -2042,7 +2044,7 @@
         <c:smooth val="0"/>
         <c:axId val="322951680"/>
         <c:axId val="320142080"/>
-        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+        <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
               <c15:ser>
@@ -2168,6 +2170,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -2265,17 +2287,7 @@
               </a:p>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
+                  <a:defRPr/>
                 </a:pPr>
                 <a:endParaRPr lang="es-ES"/>
               </a:p>
@@ -2289,6 +2301,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="#,##0.00\ &quot;€&quot;" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -2376,14 +2408,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2419,7 +2451,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -2497,7 +2529,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5661-4738-B608-7F29A7F5D55D}"/>
             </c:ext>
@@ -2505,7 +2537,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="1"/>
+          <c:order val="2"/>
           <c:tx>
             <c:v>Estimado</c:v>
           </c:tx>
@@ -2591,7 +2623,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-5661-4738-B608-7F29A7F5D55D}"/>
             </c:ext>
@@ -2609,7 +2641,7 @@
         <c:smooth val="0"/>
         <c:axId val="324195840"/>
         <c:axId val="324018176"/>
-        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+        <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
               <c15:ser>
@@ -2785,14 +2817,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2828,7 +2860,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -2860,7 +2892,7 @@
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="0"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>Hoja1!$H$1</c:f>
@@ -2911,7 +2943,7 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000006-EB81-4B8A-9CC2-7323559F094F}"/>
               </c:ext>
@@ -2926,7 +2958,7 @@
               </c:pt>
             </c:numLit>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-EB81-4B8A-9CC2-7323559F094F}"/>
             </c:ext>
@@ -2934,7 +2966,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="1"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>Hoja1!$G$1</c:f>
@@ -2994,7 +3026,7 @@
               </c:pt>
             </c:numLit>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-EB81-4B8A-9CC2-7323559F094F}"/>
             </c:ext>
@@ -3012,7 +3044,7 @@
         <c:overlap val="100"/>
         <c:axId val="324196864"/>
         <c:axId val="324019904"/>
-        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+        <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
               <c15:ser>
@@ -3038,25 +3070,25 @@
                 <c:spPr>
                   <a:gradFill rotWithShape="1">
                     <a:gsLst>
-                      <a:gs pos="0%">
+                      <a:gs pos="0">
                         <a:schemeClr val="accent1">
-                          <a:satMod val="103%"/>
-                          <a:lumMod val="102%"/>
-                          <a:tint val="94%"/>
+                          <a:satMod val="103000"/>
+                          <a:lumMod val="102000"/>
+                          <a:tint val="94000"/>
                         </a:schemeClr>
                       </a:gs>
-                      <a:gs pos="50%">
+                      <a:gs pos="50000">
                         <a:schemeClr val="accent1">
-                          <a:satMod val="110%"/>
-                          <a:lumMod val="100%"/>
-                          <a:shade val="100%"/>
+                          <a:satMod val="110000"/>
+                          <a:lumMod val="100000"/>
+                          <a:shade val="100000"/>
                         </a:schemeClr>
                       </a:gs>
-                      <a:gs pos="100%">
+                      <a:gs pos="100000">
                         <a:schemeClr val="accent1">
-                          <a:lumMod val="99%"/>
-                          <a:satMod val="120%"/>
-                          <a:shade val="78%"/>
+                          <a:lumMod val="99000"/>
+                          <a:satMod val="120000"/>
+                          <a:shade val="78000"/>
                         </a:schemeClr>
                       </a:gs>
                     </a:gsLst>
@@ -3068,7 +3100,7 @@
                   <a:effectLst>
                     <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
                       <a:srgbClr val="000000">
-                        <a:alpha val="63%"/>
+                        <a:alpha val="63000"/>
                       </a:srgbClr>
                     </a:outerShdw>
                   </a:effectLst>
@@ -3167,14 +3199,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:noFill/>
@@ -3202,7 +3234,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -3239,6 +3271,11 @@
             <c:spPr>
               <a:ln w="44450"/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-38B4-46DF-BC24-A92988660D8E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:val>
             <c:numRef>
@@ -3286,6 +3323,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-38B4-46DF-BC24-A92988660D8E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3345,6 +3387,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-38B4-46DF-BC24-A92988660D8E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3354,7 +3401,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="323339776"/>
         <c:axId val="324023360"/>
@@ -3384,7 +3430,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="none"/>
@@ -3431,7 +3476,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -3455,7 +3499,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -3511,7 +3554,7 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" meth="cycle" id="10">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
   <a:schemeClr val="accent3"/>
@@ -3520,38 +3563,38 @@
   <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
-    <a:lumMod val="60%"/>
+    <a:lumMod val="60000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="80%"/>
-    <a:lumOff val="20%"/>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="80%"/>
+    <a:lumMod val="80000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="60%"/>
-    <a:lumOff val="40%"/>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="50%"/>
+    <a:lumMod val="50000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="70%"/>
-    <a:lumOff val="30%"/>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="70%"/>
+    <a:lumMod val="70000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="50%"/>
-    <a:lumOff val="50%"/>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
   </cs:variation>
 </cs:colorStyle>
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" meth="cycle" id="10">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
   <a:schemeClr val="accent3"/>
@@ -3560,38 +3603,38 @@
   <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
-    <a:lumMod val="60%"/>
+    <a:lumMod val="60000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="80%"/>
-    <a:lumOff val="20%"/>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="80%"/>
+    <a:lumMod val="80000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="60%"/>
-    <a:lumOff val="40%"/>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="50%"/>
+    <a:lumMod val="50000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="70%"/>
-    <a:lumOff val="30%"/>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="70%"/>
+    <a:lumMod val="70000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="50%"/>
-    <a:lumOff val="50%"/>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
   </cs:variation>
 </cs:colorStyle>
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" meth="cycle" id="10">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
   <a:schemeClr val="accent3"/>
@@ -3600,38 +3643,38 @@
   <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
-    <a:lumMod val="60%"/>
+    <a:lumMod val="60000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="80%"/>
-    <a:lumOff val="20%"/>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="80%"/>
+    <a:lumMod val="80000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="60%"/>
-    <a:lumOff val="40%"/>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="50%"/>
+    <a:lumMod val="50000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="70%"/>
-    <a:lumOff val="30%"/>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="70%"/>
+    <a:lumMod val="70000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="50%"/>
-    <a:lumOff val="50%"/>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
   </cs:variation>
 </cs:colorStyle>
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" meth="cycle" id="10">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
   <a:schemeClr val="accent3"/>
@@ -3640,45 +3683,45 @@
   <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
-    <a:lumMod val="60%"/>
+    <a:lumMod val="60000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="80%"/>
-    <a:lumOff val="20%"/>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="80%"/>
+    <a:lumMod val="80000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="60%"/>
-    <a:lumOff val="40%"/>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="50%"/>
+    <a:lumMod val="50000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="70%"/>
-    <a:lumOff val="30%"/>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="70%"/>
+    <a:lumMod val="70000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="50%"/>
-    <a:lumOff val="50%"/>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
   </cs:variation>
 </cs:colorStyle>
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" id="328">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="328">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1">
-        <a:lumMod val="85%"/>
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
@@ -3689,15 +3732,15 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1">
-        <a:lumMod val="85%"/>
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="lt1">
-            <a:lumMod val="95%"/>
-            <a:alpha val="54%"/>
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3715,21 +3758,21 @@
     <cs:spPr>
       <a:gradFill flip="none" rotWithShape="1">
         <a:gsLst>
-          <a:gs pos="0%">
+          <a:gs pos="0">
             <a:schemeClr val="dk1">
-              <a:lumMod val="65%"/>
-              <a:lumOff val="35%"/>
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
             </a:schemeClr>
           </a:gs>
-          <a:gs pos="100%">
+          <a:gs pos="100000">
             <a:schemeClr val="dk1">
-              <a:lumMod val="85%"/>
-              <a:lumOff val="15%"/>
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
             </a:schemeClr>
           </a:gs>
         </a:gsLst>
         <a:path path="circle">
-          <a:fillToRect l="50%" t="50%" r="50%" b="50%"/>
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
         </a:path>
         <a:tileRect/>
       </a:gradFill>
@@ -3742,7 +3785,7 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1">
-        <a:lumMod val="85%"/>
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3753,8 +3796,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1">
-        <a:lumMod val="65%"/>
-        <a:lumOff val="35%"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
@@ -3850,15 +3893,15 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1">
-        <a:lumMod val="85%"/>
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="lt1">
-            <a:lumMod val="95%"/>
-            <a:alpha val="54%"/>
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -3875,28 +3918,28 @@
     <cs:spPr>
       <a:gradFill>
         <a:gsLst>
-          <a:gs pos="100%">
+          <a:gs pos="100000">
             <a:schemeClr val="dk1">
-              <a:lumMod val="95%"/>
-              <a:lumOff val="5%"/>
+              <a:lumMod val="95000"/>
+              <a:lumOff val="5000"/>
             </a:schemeClr>
           </a:gs>
-          <a:gs pos="0%">
+          <a:gs pos="0">
             <a:schemeClr val="dk1">
-              <a:lumMod val="75%"/>
-              <a:lumOff val="25%"/>
+              <a:lumMod val="75000"/>
+              <a:lumOff val="25000"/>
             </a:schemeClr>
           </a:gs>
         </a:gsLst>
         <a:path path="circle">
-          <a:fillToRect l="50%" t="50%" r="50%" b="50%"/>
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
         </a:path>
       </a:gradFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="dk1">
-            <a:lumMod val="75%"/>
-            <a:lumOff val="25%"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -3929,7 +3972,7 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="lt1">
-            <a:lumMod val="95%"/>
+            <a:lumMod val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3955,8 +3998,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="lt1">
-            <a:lumMod val="95%"/>
-            <a:alpha val="10%"/>
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3974,8 +4017,8 @@
       <a:ln>
         <a:solidFill>
           <a:schemeClr val="lt1">
-            <a:lumMod val="95%"/>
-            <a:alpha val="5%"/>
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -4008,8 +4051,8 @@
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="lt1">
-            <a:lumMod val="95%"/>
-            <a:alpha val="54%"/>
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -4021,7 +4064,7 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1">
-        <a:lumMod val="85%"/>
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -4048,15 +4091,15 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1">
-        <a:lumMod val="85%"/>
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="lt1">
-            <a:lumMod val="95%"/>
-            <a:alpha val="54%"/>
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4075,8 +4118,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="lt1">
-            <a:lumMod val="95%"/>
-            <a:alpha val="54%"/>
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4089,14 +4132,14 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1">
-        <a:lumMod val="95%"/>
+        <a:lumMod val="95000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0%">
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
       <a:effectLst>
         <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
           <a:prstClr val="black">
-            <a:alpha val="40%"/>
+            <a:alpha val="40000"/>
           </a:prstClr>
         </a:outerShdw>
       </a:effectLst>
@@ -4125,7 +4168,7 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1">
-        <a:lumMod val="85%"/>
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -4140,17 +4183,17 @@
     <cs:spPr>
       <a:gradFill>
         <a:gsLst>
-          <a:gs pos="100%">
+          <a:gs pos="100000">
             <a:schemeClr val="lt1">
-              <a:lumMod val="85%"/>
+              <a:lumMod val="85000"/>
             </a:schemeClr>
           </a:gs>
-          <a:gs pos="0%">
+          <a:gs pos="0">
             <a:schemeClr val="lt1"/>
           </a:gs>
         </a:gsLst>
         <a:path path="circle">
-          <a:fillToRect l="50%" t="50%" r="50%" b="50%"/>
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
         </a:path>
       </a:gradFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -4167,7 +4210,7 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1">
-        <a:lumMod val="85%"/>
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -4184,15 +4227,15 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" id="332">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65%"/>
-        <a:lumOff val="35%"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="1000" kern="1200"/>
@@ -4203,16 +4246,16 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65%"/>
-        <a:lumOff val="35%"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15%"/>
-            <a:lumOff val="85%"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4234,8 +4277,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15%"/>
-            <a:lumOff val="85%"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4249,8 +4292,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="75%"/>
-        <a:lumOff val="25%"/>
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -4261,8 +4304,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1">
-        <a:lumMod val="65%"/>
-        <a:lumOff val="35%"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
@@ -4272,8 +4315,8 @@
       <a:ln>
         <a:solidFill>
           <a:schemeClr val="dk1">
-            <a:lumMod val="25%"/>
-            <a:lumOff val="75%"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -4365,8 +4408,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65%"/>
-        <a:lumOff val="35%"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
@@ -4374,8 +4417,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15%"/>
-            <a:lumOff val="85%"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4393,15 +4436,15 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65%"/>
-          <a:lumOff val="35%"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65%"/>
-            <a:lumOff val="35%"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -4418,8 +4461,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="35%"/>
-            <a:lumOff val="65%"/>
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4437,8 +4480,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65%"/>
-            <a:lumOff val="35%"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4470,8 +4513,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15%"/>
-            <a:lumOff val="85%"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4489,8 +4532,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="5%"/>
-            <a:lumOff val="95%"/>
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4508,8 +4551,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75%"/>
-            <a:lumOff val="25%"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4527,8 +4570,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="35%"/>
-            <a:lumOff val="65%"/>
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4541,8 +4584,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65%"/>
-        <a:lumOff val="35%"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -4569,8 +4612,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65%"/>
-        <a:lumOff val="35%"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -4586,8 +4629,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="35%"/>
-            <a:lumOff val="65%"/>
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4600,11 +4643,11 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65%"/>
-        <a:lumOff val="35%"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0%"/>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -4630,8 +4673,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65%"/>
-        <a:lumOff val="35%"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -4650,8 +4693,8 @@
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15%"/>
-            <a:lumOff val="85%"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -4663,8 +4706,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65%"/>
-        <a:lumOff val="35%"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -4687,15 +4730,15 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" id="332">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65%"/>
-        <a:lumOff val="35%"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="1000" kern="1200"/>
@@ -4706,16 +4749,16 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65%"/>
-        <a:lumOff val="35%"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15%"/>
-            <a:lumOff val="85%"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4737,8 +4780,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15%"/>
-            <a:lumOff val="85%"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4752,8 +4795,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="75%"/>
-        <a:lumOff val="25%"/>
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -4764,8 +4807,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1">
-        <a:lumMod val="65%"/>
-        <a:lumOff val="35%"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
@@ -4775,8 +4818,8 @@
       <a:ln>
         <a:solidFill>
           <a:schemeClr val="dk1">
-            <a:lumMod val="25%"/>
-            <a:lumOff val="75%"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -4868,8 +4911,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65%"/>
-        <a:lumOff val="35%"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
@@ -4877,8 +4920,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15%"/>
-            <a:lumOff val="85%"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4896,15 +4939,15 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65%"/>
-          <a:lumOff val="35%"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65%"/>
-            <a:lumOff val="35%"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -4921,8 +4964,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="35%"/>
-            <a:lumOff val="65%"/>
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4940,8 +4983,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65%"/>
-            <a:lumOff val="35%"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4973,8 +5016,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15%"/>
-            <a:lumOff val="85%"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4992,8 +5035,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="5%"/>
-            <a:lumOff val="95%"/>
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -5011,8 +5054,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75%"/>
-            <a:lumOff val="25%"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -5030,8 +5073,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="35%"/>
-            <a:lumOff val="65%"/>
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -5044,8 +5087,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65%"/>
-        <a:lumOff val="35%"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -5072,8 +5115,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65%"/>
-        <a:lumOff val="35%"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -5089,8 +5132,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="35%"/>
-            <a:lumOff val="65%"/>
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -5103,11 +5146,11 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65%"/>
-        <a:lumOff val="35%"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0%"/>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -5133,8 +5176,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65%"/>
-        <a:lumOff val="35%"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -5153,8 +5196,8 @@
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15%"/>
-            <a:lumOff val="85%"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -5166,8 +5209,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65%"/>
-        <a:lumOff val="35%"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -5190,14 +5233,14 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" id="328">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="328">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1">
-        <a:lumMod val="85%"/>
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
@@ -5208,15 +5251,15 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1">
-        <a:lumMod val="85%"/>
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="lt1">
-            <a:lumMod val="95%"/>
-            <a:alpha val="54%"/>
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -5234,21 +5277,21 @@
     <cs:spPr>
       <a:gradFill flip="none" rotWithShape="1">
         <a:gsLst>
-          <a:gs pos="0%">
+          <a:gs pos="0">
             <a:schemeClr val="dk1">
-              <a:lumMod val="65%"/>
-              <a:lumOff val="35%"/>
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
             </a:schemeClr>
           </a:gs>
-          <a:gs pos="100%">
+          <a:gs pos="100000">
             <a:schemeClr val="dk1">
-              <a:lumMod val="85%"/>
-              <a:lumOff val="15%"/>
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
             </a:schemeClr>
           </a:gs>
         </a:gsLst>
         <a:path path="circle">
-          <a:fillToRect l="50%" t="50%" r="50%" b="50%"/>
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
         </a:path>
         <a:tileRect/>
       </a:gradFill>
@@ -5261,7 +5304,7 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1">
-        <a:lumMod val="85%"/>
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -5272,8 +5315,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1">
-        <a:lumMod val="65%"/>
-        <a:lumOff val="35%"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
@@ -5369,15 +5412,15 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1">
-        <a:lumMod val="85%"/>
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="lt1">
-            <a:lumMod val="95%"/>
-            <a:alpha val="54%"/>
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -5394,28 +5437,28 @@
     <cs:spPr>
       <a:gradFill>
         <a:gsLst>
-          <a:gs pos="100%">
+          <a:gs pos="100000">
             <a:schemeClr val="dk1">
-              <a:lumMod val="95%"/>
-              <a:lumOff val="5%"/>
+              <a:lumMod val="95000"/>
+              <a:lumOff val="5000"/>
             </a:schemeClr>
           </a:gs>
-          <a:gs pos="0%">
+          <a:gs pos="0">
             <a:schemeClr val="dk1">
-              <a:lumMod val="75%"/>
-              <a:lumOff val="25%"/>
+              <a:lumMod val="75000"/>
+              <a:lumOff val="25000"/>
             </a:schemeClr>
           </a:gs>
         </a:gsLst>
         <a:path path="circle">
-          <a:fillToRect l="50%" t="50%" r="50%" b="50%"/>
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
         </a:path>
       </a:gradFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="dk1">
-            <a:lumMod val="75%"/>
-            <a:lumOff val="25%"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -5448,7 +5491,7 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="lt1">
-            <a:lumMod val="95%"/>
+            <a:lumMod val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -5474,8 +5517,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="lt1">
-            <a:lumMod val="95%"/>
-            <a:alpha val="10%"/>
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -5493,8 +5536,8 @@
       <a:ln>
         <a:solidFill>
           <a:schemeClr val="lt1">
-            <a:lumMod val="95%"/>
-            <a:alpha val="5%"/>
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -5527,8 +5570,8 @@
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="lt1">
-            <a:lumMod val="95%"/>
-            <a:alpha val="54%"/>
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -5540,7 +5583,7 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1">
-        <a:lumMod val="85%"/>
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -5567,15 +5610,15 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1">
-        <a:lumMod val="85%"/>
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="lt1">
-            <a:lumMod val="95%"/>
-            <a:alpha val="54%"/>
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -5594,8 +5637,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="lt1">
-            <a:lumMod val="95%"/>
-            <a:alpha val="54%"/>
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -5608,14 +5651,14 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1">
-        <a:lumMod val="95%"/>
+        <a:lumMod val="95000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0%">
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
       <a:effectLst>
         <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
           <a:prstClr val="black">
-            <a:alpha val="40%"/>
+            <a:alpha val="40000"/>
           </a:prstClr>
         </a:outerShdw>
       </a:effectLst>
@@ -5644,7 +5687,7 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1">
-        <a:lumMod val="85%"/>
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -5659,17 +5702,17 @@
     <cs:spPr>
       <a:gradFill>
         <a:gsLst>
-          <a:gs pos="100%">
+          <a:gs pos="100000">
             <a:schemeClr val="lt1">
-              <a:lumMod val="85%"/>
+              <a:lumMod val="85000"/>
             </a:schemeClr>
           </a:gs>
-          <a:gs pos="0%">
+          <a:gs pos="0">
             <a:schemeClr val="lt1"/>
           </a:gs>
         </a:gsLst>
         <a:path path="circle">
-          <a:fillToRect l="50%" t="50%" r="50%" b="50%"/>
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
         </a:path>
       </a:gradFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -5686,7 +5729,7 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1">
-        <a:lumMod val="85%"/>
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -5722,7 +5765,7 @@
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4478CC80-9EF6-4ADD-B060-B7DA1112C280}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4478CC80-9EF6-4ADD-B060-B7DA1112C280}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5760,7 +5803,7 @@
         <xdr:cNvPr id="3" name="Gráfico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46D435CB-CF32-4D44-8F73-691DA66C623B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46D435CB-CF32-4D44-8F73-691DA66C623B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5803,7 +5846,7 @@
         <xdr:cNvPr id="3" name="Gráfico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15DB4FA1-CE3C-4ABC-8972-8E314AEC1C7C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15DB4FA1-CE3C-4ABC-8972-8E314AEC1C7C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5841,7 +5884,7 @@
         <xdr:cNvPr id="4" name="Gráfico 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1428A001-ABB8-4817-8FF8-E1823E570921}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1428A001-ABB8-4817-8FF8-E1823E570921}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5878,7 +5921,13 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="4" name="3 CuadroTexto"/>
+            <xdr:cNvPr id="4" name="3 CuadroTexto">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -6012,7 +6061,13 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="5" name="4 CuadroTexto"/>
+            <xdr:cNvPr id="5" name="4 CuadroTexto">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -6149,7 +6204,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="8 Gráfico"/>
+        <xdr:cNvPr id="9" name="8 Gráfico">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -6456,7 +6517,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6466,21 +6527,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -6506,7 +6567,7 @@
       <c r="L1" s="83"/>
       <c r="M1" s="84"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>8</v>
       </c>
@@ -6540,7 +6601,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="18"/>
       <c r="B3" s="19"/>
       <c r="C3" s="52" t="s">
@@ -6571,7 +6632,7 @@
         <v>466.66666666666669</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
       <c r="B4" s="13"/>
       <c r="C4" s="53" t="s">
@@ -6593,7 +6654,7 @@
         <v>16088</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>9</v>
       </c>
@@ -6612,7 +6673,7 @@
         <v>466.66666666666669</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="18"/>
       <c r="B6" s="19"/>
       <c r="C6" s="55" t="s">
@@ -6629,7 +6690,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
       <c r="B7" s="13"/>
       <c r="C7" s="56" t="s">
@@ -6650,7 +6711,7 @@
         <v>4748.666666666667</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
         <v>16</v>
       </c>
@@ -6659,7 +6720,7 @@
         <v>20754.666666666668</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="45" t="s">
         <v>14</v>
       </c>
@@ -6674,7 +6735,7 @@
         <v>4150.9333333333334</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
         <v>15</v>
       </c>
@@ -6689,7 +6750,7 @@
         <v>4150.9333333333334</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E11" s="16" t="s">
         <v>10</v>
       </c>
@@ -6698,7 +6759,7 @@
         <v>29056.533333333336</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>35</v>
       </c>
@@ -6706,7 +6767,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>4</v>
       </c>
@@ -6730,11 +6791,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="G1:H1"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="C16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G1">
@@ -6755,19 +6816,19 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.44140625" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="85" t="s">
         <v>19</v>
       </c>
@@ -6784,7 +6845,7 @@
       </c>
       <c r="K1" s="90"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="79" t="s">
         <v>1</v>
       </c>
@@ -6813,13 +6874,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>29</v>
       </c>
       <c r="B3" s="65">
         <f>SUM('Imputaciones semana'!A$2:A$30)</f>
-        <v>33.1</v>
+        <v>49.1</v>
       </c>
       <c r="C3" s="66">
         <v>27.19</v>
@@ -6830,11 +6891,11 @@
       </c>
       <c r="E3" s="68">
         <f t="shared" ref="E3:E9" si="0">B3*C3</f>
-        <v>899.98900000000003</v>
+        <v>1335.029</v>
       </c>
       <c r="G3" s="62">
         <f>(E10+K3)/L13</f>
-        <v>0.16164377259962187</v>
+        <v>0.21822715717406069</v>
       </c>
       <c r="H3" s="62">
         <v>1</v>
@@ -6847,40 +6908,40 @@
         <v>1537.1666666666667</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="77" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="69">
         <f>SUM('Imputaciones semana'!B$2:B$30)</f>
-        <v>29</v>
+        <v>49.75</v>
       </c>
       <c r="C4" s="70">
         <v>11.47</v>
       </c>
       <c r="D4" s="71">
         <f t="shared" ref="D4:D9" si="1">HOUR(B4)+MINUTE(B4)/60+SECOND(B4)/3600</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E4" s="72">
         <f t="shared" si="0"/>
-        <v>332.63</v>
+        <v>570.63250000000005</v>
       </c>
       <c r="G4" s="63">
         <f>G3*H4</f>
-        <v>4687.6694053890342</v>
+        <v>6328.5875580477596</v>
       </c>
       <c r="H4" s="64">
         <v>29000</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="77" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="69">
         <f>SUM('Imputaciones semana'!C$2:C$30)</f>
-        <v>34.6</v>
+        <v>49.6</v>
       </c>
       <c r="C5" s="70">
         <v>11.47</v>
@@ -6891,39 +6952,39 @@
       </c>
       <c r="E5" s="72">
         <f t="shared" si="0"/>
-        <v>396.86200000000002</v>
+        <v>568.91200000000003</v>
       </c>
       <c r="G5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="77" t="s">
         <v>28</v>
       </c>
       <c r="B6" s="69">
         <f>SUM('Imputaciones semana'!D$2:D$30)</f>
-        <v>24.5</v>
+        <v>36.25</v>
       </c>
       <c r="C6" s="70">
         <v>11.47</v>
       </c>
       <c r="D6" s="71">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E6" s="72">
         <f t="shared" si="0"/>
-        <v>281.01500000000004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+        <v>415.78750000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="77" t="s">
         <v>43</v>
       </c>
       <c r="B7" s="69">
         <f>SUM('Imputaciones semana'!E$2:E$30)</f>
-        <v>46.5</v>
+        <v>67.5</v>
       </c>
       <c r="C7" s="70">
         <v>16.010000000000002</v>
@@ -6934,63 +6995,63 @@
       </c>
       <c r="E7" s="72">
         <f t="shared" si="0"/>
-        <v>744.46500000000003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1080.6750000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="77" t="s">
         <v>44</v>
       </c>
       <c r="B8" s="69">
         <f>SUM('Imputaciones semana'!F$2:F$30)</f>
-        <v>17</v>
+        <v>30.5</v>
       </c>
       <c r="C8" s="70">
         <v>11.47</v>
       </c>
       <c r="D8" s="71">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E8" s="72">
         <f t="shared" si="0"/>
-        <v>194.99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+        <v>349.83500000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="78" t="s">
         <v>45</v>
       </c>
       <c r="B9" s="73">
         <f>SUM('Imputaciones semana'!G$2:G$30)</f>
-        <v>27</v>
+        <v>42.1</v>
       </c>
       <c r="C9" s="74">
         <v>11.47</v>
       </c>
       <c r="D9" s="75">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="E9" s="76">
         <f t="shared" si="0"/>
-        <v>309.69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+        <v>482.88700000000006</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10">
         <f>SUM(B3:B9)</f>
-        <v>211.7</v>
+        <v>324.8</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="4">
         <f>SUM(E3:E9)</f>
-        <v>3159.6410000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+        <v>4803.7580000000007</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="86" t="s">
         <v>20</v>
       </c>
@@ -7002,7 +7063,7 @@
       <c r="G12" s="86"/>
       <c r="H12" s="86"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>29</v>
       </c>
@@ -7035,7 +7096,7 @@
         <v>29056.533333333336</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>21</v>
       </c>
@@ -7083,7 +7144,7 @@
         <v>1816.0333333333335</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>22</v>
       </c>
@@ -7131,7 +7192,7 @@
         <v>3632.0666666666671</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>23</v>
       </c>
@@ -7179,45 +7240,45 @@
         <v>5448.1</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="36">
         <f>('Imputaciones semana'!A5)*$C$3</f>
-        <v>0</v>
+        <v>435.04</v>
       </c>
       <c r="C17" s="37">
         <f>('Imputaciones semana'!B5)*$C$4</f>
-        <v>0</v>
+        <v>238.00250000000003</v>
       </c>
       <c r="D17" s="37">
         <f>('Imputaciones semana'!C5)*$C$5</f>
-        <v>0</v>
+        <v>172.05</v>
       </c>
       <c r="E17" s="37">
         <f>('Imputaciones semana'!D5)*$C$6</f>
-        <v>0</v>
+        <v>134.77250000000001</v>
       </c>
       <c r="F17" s="37">
         <f>('Imputaciones semana'!E5)*$C$7</f>
-        <v>0</v>
+        <v>336.21000000000004</v>
       </c>
       <c r="G17" s="37">
         <f>('Imputaciones semana'!F5)*$C$8</f>
-        <v>0</v>
+        <v>154.845</v>
       </c>
       <c r="H17" s="38">
         <f>('Imputaciones semana'!G5)*$C$9</f>
-        <v>0</v>
+        <v>173.197</v>
       </c>
       <c r="I17" s="43">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1644.1170000000002</v>
       </c>
       <c r="J17" s="4">
         <f t="shared" si="3"/>
-        <v>3159.641000000001</v>
+        <v>4803.7580000000016</v>
       </c>
       <c r="K17">
         <v>4</v>
@@ -7227,7 +7288,7 @@
         <v>7264.1333333333341</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>25</v>
       </c>
@@ -7265,7 +7326,7 @@
       </c>
       <c r="J18" s="4">
         <f t="shared" si="3"/>
-        <v>3159.641000000001</v>
+        <v>4803.7580000000016</v>
       </c>
       <c r="K18">
         <v>5</v>
@@ -7275,7 +7336,7 @@
         <v>9080.1666666666679</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>26</v>
       </c>
@@ -7313,7 +7374,7 @@
       </c>
       <c r="J19" s="4">
         <f t="shared" si="3"/>
-        <v>3159.641000000001</v>
+        <v>4803.7580000000016</v>
       </c>
       <c r="K19">
         <v>6</v>
@@ -7323,7 +7384,7 @@
         <v>10896.2</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>27</v>
       </c>
@@ -7361,7 +7422,7 @@
       </c>
       <c r="J20" s="4">
         <f t="shared" si="3"/>
-        <v>3159.641000000001</v>
+        <v>4803.7580000000016</v>
       </c>
       <c r="K20">
         <v>7</v>
@@ -7371,7 +7432,7 @@
         <v>12712.233333333335</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B21" s="36">
         <f>('Imputaciones semana'!A9)*$C$3</f>
         <v>0</v>
@@ -7406,7 +7467,7 @@
       </c>
       <c r="J21" s="4">
         <f t="shared" si="3"/>
-        <v>3159.641000000001</v>
+        <v>4803.7580000000016</v>
       </c>
       <c r="K21">
         <v>8</v>
@@ -7416,7 +7477,7 @@
         <v>14528.266666666668</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B22" s="39">
         <f>('Imputaciones semana'!A10)*$C$3</f>
         <v>0</v>
@@ -7451,7 +7512,7 @@
       </c>
       <c r="J22" s="4">
         <f t="shared" si="3"/>
-        <v>3159.641000000001</v>
+        <v>4803.7580000000016</v>
       </c>
       <c r="K22">
         <v>9</v>
@@ -7461,7 +7522,7 @@
         <v>16344.300000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B23" s="36">
         <f>('Imputaciones semana'!A11)*$C$3</f>
         <v>0</v>
@@ -7496,7 +7557,7 @@
       </c>
       <c r="J23" s="4">
         <f t="shared" si="3"/>
-        <v>3159.641000000001</v>
+        <v>4803.7580000000016</v>
       </c>
       <c r="K23">
         <v>10</v>
@@ -7506,7 +7567,7 @@
         <v>18160.333333333336</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B24" s="39">
         <f>('Imputaciones semana'!A12)*$C$3</f>
         <v>0</v>
@@ -7541,7 +7602,7 @@
       </c>
       <c r="J24" s="4">
         <f t="shared" si="3"/>
-        <v>3159.641000000001</v>
+        <v>4803.7580000000016</v>
       </c>
       <c r="K24">
         <v>11</v>
@@ -7551,7 +7612,7 @@
         <v>19976.366666666669</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B25" s="36">
         <f>('Imputaciones semana'!A13)*$C$3</f>
         <v>0</v>
@@ -7586,7 +7647,7 @@
       </c>
       <c r="J25" s="4">
         <f t="shared" si="3"/>
-        <v>3159.641000000001</v>
+        <v>4803.7580000000016</v>
       </c>
       <c r="K25">
         <v>12</v>
@@ -7596,7 +7657,7 @@
         <v>21792.400000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B26" s="39">
         <f>('Imputaciones semana'!A14)*$C$3</f>
         <v>0</v>
@@ -7631,7 +7692,7 @@
       </c>
       <c r="J26" s="4">
         <f t="shared" si="3"/>
-        <v>3159.641000000001</v>
+        <v>4803.7580000000016</v>
       </c>
       <c r="K26">
         <v>13</v>
@@ -7641,7 +7702,7 @@
         <v>23608.433333333334</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B27" s="36">
         <f>('Imputaciones semana'!A15)*$C$3</f>
         <v>0</v>
@@ -7676,7 +7737,7 @@
       </c>
       <c r="J27" s="4">
         <f t="shared" si="3"/>
-        <v>3159.641000000001</v>
+        <v>4803.7580000000016</v>
       </c>
       <c r="K27">
         <v>14</v>
@@ -7686,7 +7747,7 @@
         <v>25424.466666666671</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B28" s="39">
         <f>('Imputaciones semana'!A16)*$C$3</f>
         <v>0</v>
@@ -7721,7 +7782,7 @@
       </c>
       <c r="J28" s="4">
         <f t="shared" si="3"/>
-        <v>3159.641000000001</v>
+        <v>4803.7580000000016</v>
       </c>
       <c r="K28">
         <v>15</v>
@@ -7731,7 +7792,7 @@
         <v>27240.500000000004</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K29">
         <v>16</v>
       </c>
@@ -7740,41 +7801,41 @@
         <v>29056.533333333336</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B30" s="4">
         <f t="shared" ref="B30:H30" si="4">SUM(B14:B20)</f>
-        <v>899.98900000000003</v>
+        <v>1335.029</v>
       </c>
       <c r="C30" s="4">
         <f t="shared" si="4"/>
-        <v>332.63</v>
+        <v>570.63250000000005</v>
       </c>
       <c r="D30" s="4">
         <f t="shared" si="4"/>
-        <v>396.86200000000002</v>
+        <v>568.91200000000003</v>
       </c>
       <c r="E30" s="4">
         <f t="shared" si="4"/>
-        <v>281.01500000000004</v>
+        <v>415.78750000000002</v>
       </c>
       <c r="F30" s="4">
         <f t="shared" si="4"/>
-        <v>744.46500000000003</v>
+        <v>1080.6750000000002</v>
       </c>
       <c r="G30" s="4">
         <f t="shared" si="4"/>
-        <v>194.99</v>
+        <v>349.83500000000004</v>
       </c>
       <c r="H30" s="4">
         <f t="shared" si="4"/>
-        <v>309.69</v>
+        <v>482.887</v>
       </c>
       <c r="I30" s="4">
         <f>SUM(B30:H30)</f>
-        <v>3159.6410000000001</v>
+        <v>4803.7580000000007</v>
       </c>
     </row>
   </sheetData>
@@ -7794,17 +7855,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" activeCellId="6" sqref="G5 F5 E5 D5 C5 B5 A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="16.6640625" customWidth="1"/>
-    <col min="8" max="8" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="7" width="16.7109375" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -7827,7 +7888,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="35">
         <v>10</v>
       </c>
@@ -7856,7 +7917,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="35">
         <v>17.600000000000001</v>
       </c>
@@ -7885,7 +7946,7 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="35">
         <v>5.5</v>
       </c>
@@ -7914,19 +7975,33 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="35">
+        <v>16</v>
+      </c>
+      <c r="B5" s="35">
+        <v>20.75</v>
+      </c>
+      <c r="C5" s="35">
+        <v>15</v>
+      </c>
+      <c r="D5" s="35">
+        <v>11.75</v>
+      </c>
+      <c r="E5" s="35">
+        <v>21</v>
+      </c>
+      <c r="F5" s="35">
+        <v>13.5</v>
+      </c>
+      <c r="G5" s="35">
+        <v>15.1</v>
+      </c>
       <c r="H5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -7938,7 +8013,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -7950,7 +8025,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -7962,7 +8037,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -7974,7 +8049,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -7986,7 +8061,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -7998,7 +8073,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -8008,7 +8083,7 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -8018,7 +8093,7 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -8028,7 +8103,7 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -8038,7 +8113,7 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -8048,7 +8123,7 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -8058,7 +8133,7 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -8068,7 +8143,7 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -8078,7 +8153,7 @@
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -8088,7 +8163,7 @@
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -8098,7 +8173,7 @@
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -8108,7 +8183,7 @@
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -8118,7 +8193,7 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -8128,7 +8203,7 @@
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -8138,7 +8213,7 @@
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -8148,7 +8223,7 @@
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -8158,7 +8233,7 @@
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -8168,7 +8243,7 @@
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -8178,7 +8253,7 @@
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -8197,13 +8272,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>29000</v>
       </c>
@@ -8223,7 +8298,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>A1/12</f>
         <v>2416.6666666666665</v>
@@ -8246,7 +8321,7 @@
         <v>333.33333333333337</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2400</v>
       </c>
@@ -8268,7 +8343,7 @@
         <v>458.33333333333337</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F4" t="s">
         <v>65</v>
       </c>
@@ -8284,7 +8359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G5" t="s">
         <v>71</v>
       </c>
@@ -8296,7 +8371,7 @@
         <v>416.66666666666669</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G6" t="s">
         <v>71</v>
       </c>
@@ -8308,7 +8383,7 @@
         <v>595.83333333333337</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>57</v>
       </c>
@@ -8329,7 +8404,7 @@
         <v>500.00000000000006</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -8352,7 +8427,7 @@
         <v>733.33333333333337</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
@@ -8375,7 +8450,7 @@
         <v>58.333333333333336</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3</v>
       </c>
@@ -8398,7 +8473,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4</v>
       </c>
@@ -8421,7 +8496,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>5</v>
       </c>
@@ -8444,7 +8519,7 @@
         <v>58.333333333333336</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>6</v>
       </c>
@@ -8461,7 +8536,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>7</v>
       </c>
@@ -8478,7 +8553,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>8</v>
       </c>
@@ -8491,7 +8566,7 @@
         <v>10333.333333333334</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>9</v>
       </c>
@@ -8504,7 +8579,7 @@
         <v>12900</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>10</v>
       </c>
@@ -8524,7 +8599,7 @@
         <v>791.66666666666674</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>11</v>
       </c>
@@ -8544,7 +8619,7 @@
         <v>1012.5</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>12</v>
       </c>
@@ -8564,7 +8639,7 @@
         <v>1291.6666666666667</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H20" t="s">
         <v>72</v>
       </c>

--- a/Conocimiento/Metodología/Calculadora (version 1).xlsx
+++ b/Conocimiento/Metodología/Calculadora (version 1).xlsx
@@ -1,39 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
-  <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agres\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jesos\Desktop\ISPP proyecto\ISPP_A4MJ\Conocimiento\Metodología\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{3B7D3016-AB3B-4185-A947-A04F13F11E0C}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="7155" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="7155" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Costes y presupuesto" sheetId="2" r:id="rId1"/>
     <sheet name="Hoja1" sheetId="4" r:id="rId2"/>
     <sheet name="Caculadora" sheetId="1" r:id="rId3"/>
     <sheet name="Imputaciones semana" sheetId="3" r:id="rId4"/>
+    <sheet name="Hoja2" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="171027"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr/>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Ale Garrido Resina</author>
   </authors>
   <commentList>
-    <comment ref="D3" authorId="0" shapeId="1025" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="D3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -57,29 +52,8 @@
 </t>
         </r>
       </text>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-        <mc:Choice Requires="v"/>
-        <mc:Fallback>
-          <commentPr defaultSize="0" autoFill="0" autoLine="0">
-            <anchor>
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>762000</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>2133600</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </commentPr>
-        </mc:Fallback>
-      </mc:AlternateContent>
     </comment>
-    <comment ref="E4" authorId="0" shapeId="1026" xr:uid="{86E73C43-D059-4835-B52A-8FC7F8C2205E}">
+    <comment ref="E4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -103,29 +77,8 @@
 </t>
         </r>
       </text>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-        <mc:Choice Requires="v"/>
-        <mc:Fallback>
-          <commentPr defaultSize="0" autoFill="0" autoLine="0">
-            <anchor>
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>142875</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>723900</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </commentPr>
-        </mc:Fallback>
-      </mc:AlternateContent>
     </comment>
-    <comment ref="E6" authorId="0" shapeId="1027" xr:uid="{D19F6C76-3A92-43F7-97B9-6CF61675D128}">
+    <comment ref="E6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -149,29 +102,8 @@
 </t>
         </r>
       </text>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-        <mc:Choice Requires="v"/>
-        <mc:Fallback>
-          <commentPr defaultSize="0" autoFill="0" autoLine="0">
-            <anchor>
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>381000</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>781050</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </commentPr>
-        </mc:Fallback>
-      </mc:AlternateContent>
     </comment>
-    <comment ref="C7" authorId="0" shapeId="1028" xr:uid="{93866095-A2B7-4213-A35B-D8DB04B493CE}">
+    <comment ref="C7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -194,29 +126,8 @@
 Estimado desde estandar Heroku</t>
         </r>
       </text>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-        <mc:Choice Requires="v"/>
-        <mc:Fallback>
-          <commentPr defaultSize="0" autoFill="0" autoLine="0">
-            <anchor>
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>142875</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </commentPr>
-        </mc:Fallback>
-      </mc:AlternateContent>
     </comment>
-    <comment ref="D7" authorId="0" shapeId="1029" xr:uid="{514106E6-D39A-4A26-8092-A9441E50D899}">
+    <comment ref="D7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -240,39 +151,18 @@
 </t>
         </r>
       </text>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-        <mc:Choice Requires="v"/>
-        <mc:Fallback>
-          <commentPr defaultSize="0" autoFill="0" autoLine="0">
-            <anchor>
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>142875</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>142875</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </commentPr>
-        </mc:Fallback>
-      </mc:AlternateContent>
     </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Ale Garrido Resina</author>
   </authors>
   <commentList>
-    <comment ref="C7" authorId="0" shapeId="2049" xr:uid="{7F6D6435-8F3B-4611-8AC3-4965CC473C5B}">
+    <comment ref="C7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -296,34 +186,13 @@
 </t>
         </r>
       </text>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-        <mc:Choice Requires="v"/>
-        <mc:Fallback>
-          <commentPr defaultSize="0" autoFill="0" autoLine="0">
-            <anchor>
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>142875</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>723900</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </to>
-            </anchor>
-          </commentPr>
-        </mc:Fallback>
-      </mc:AlternateContent>
     </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="84" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="74">
   <si>
     <t>Registered time</t>
   </si>
@@ -495,11 +364,62 @@
   <si>
     <t>4688(16%)</t>
   </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>Precio Licencia</t>
+  </si>
+  <si>
+    <t>Nº</t>
+  </si>
+  <si>
+    <t>Tipo Licencia</t>
+  </si>
+  <si>
+    <t>Básica</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>Grande</t>
+  </si>
+  <si>
+    <t>Precio total redondeado</t>
+  </si>
+  <si>
+    <t>Precio mensual</t>
+  </si>
+  <si>
+    <t>Precio mensual redondeado</t>
+  </si>
+  <si>
+    <t>A partir del 3 trimestre</t>
+  </si>
+  <si>
+    <t>Inicial</t>
+  </si>
+  <si>
+    <t>A partir del 3 mes</t>
+  </si>
+  <si>
+    <t>A partir del 6 mes</t>
+  </si>
+  <si>
+    <t>A partir del 9 mes</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
@@ -947,15 +867,15 @@
   </fills>
   <borders count="25">
     <border>
-      <start/>
-      <end/>
+      <left/>
+      <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <start/>
-      <end/>
+      <left/>
+      <right/>
       <top/>
       <bottom style="thick">
         <color theme="4"/>
@@ -963,8 +883,8 @@
       <diagonal/>
     </border>
     <border>
-      <start/>
-      <end/>
+      <left/>
+      <right/>
       <top/>
       <bottom style="thick">
         <color theme="4" tint="0.499984740745262"/>
@@ -972,8 +892,8 @@
       <diagonal/>
     </border>
     <border>
-      <start/>
-      <end/>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.39997558519241921"/>
@@ -981,12 +901,12 @@
       <diagonal/>
     </border>
     <border>
-      <start style="thin">
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
-      </start>
-      <end style="thin">
+      </left>
+      <right style="thin">
         <color rgb="FF7F7F7F"/>
-      </end>
+      </right>
       <top style="thin">
         <color rgb="FF7F7F7F"/>
       </top>
@@ -996,12 +916,12 @@
       <diagonal/>
     </border>
     <border>
-      <start style="thin">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
-      </start>
-      <end style="thin">
+      </left>
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
-      </end>
+      </right>
       <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
@@ -1011,8 +931,8 @@
       <diagonal/>
     </border>
     <border>
-      <start/>
-      <end/>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -1020,12 +940,12 @@
       <diagonal/>
     </border>
     <border>
-      <start style="double">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
-      </start>
-      <end style="double">
+      </left>
+      <right style="double">
         <color rgb="FF3F3F3F"/>
-      </end>
+      </right>
       <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
@@ -1035,12 +955,12 @@
       <diagonal/>
     </border>
     <border>
-      <start style="thin">
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
-      </start>
-      <end style="thin">
+      </left>
+      <right style="thin">
         <color rgb="FFB2B2B2"/>
-      </end>
+      </right>
       <top style="thin">
         <color rgb="FFB2B2B2"/>
       </top>
@@ -1050,8 +970,8 @@
       <diagonal/>
     </border>
     <border>
-      <start/>
-      <end/>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1061,12 +981,12 @@
       <diagonal/>
     </border>
     <border>
-      <start style="thin">
+      <left style="thin">
         <color indexed="64"/>
-      </start>
-      <end style="thin">
+      </left>
+      <right style="thin">
         <color indexed="64"/>
-      </end>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -1076,19 +996,19 @@
       <diagonal/>
     </border>
     <border>
-      <start style="thin">
+      <left style="thin">
         <color indexed="64"/>
-      </start>
-      <end/>
+      </left>
+      <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <start style="thin">
+      <left style="thin">
         <color indexed="64"/>
-      </start>
-      <end/>
+      </left>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -1096,8 +1016,8 @@
       <diagonal/>
     </border>
     <border>
-      <start/>
-      <end/>
+      <left/>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -1105,10 +1025,10 @@
       <diagonal/>
     </border>
     <border>
-      <start/>
-      <end style="thin">
+      <left/>
+      <right style="thin">
         <color indexed="64"/>
-      </end>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -1116,19 +1036,19 @@
       <diagonal/>
     </border>
     <border>
-      <start/>
-      <end style="thin">
+      <left/>
+      <right style="thin">
         <color indexed="64"/>
-      </end>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <start style="thin">
+      <left style="thin">
         <color indexed="64"/>
-      </start>
-      <end/>
+      </left>
+      <right/>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -1136,8 +1056,8 @@
       <diagonal/>
     </border>
     <border>
-      <start/>
-      <end/>
+      <left/>
+      <right/>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -1145,10 +1065,10 @@
       <diagonal/>
     </border>
     <border>
-      <start/>
-      <end style="thin">
+      <left/>
+      <right style="thin">
         <color indexed="64"/>
-      </end>
+      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -1156,10 +1076,10 @@
       <diagonal/>
     </border>
     <border>
-      <start style="thin">
+      <left style="thin">
         <color indexed="64"/>
-      </start>
-      <end/>
+      </left>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -1169,8 +1089,8 @@
       <diagonal/>
     </border>
     <border>
-      <start/>
-      <end/>
+      <left/>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -1180,10 +1100,10 @@
       <diagonal/>
     </border>
     <border>
-      <start/>
-      <end style="thin">
+      <left/>
+      <right style="thin">
         <color indexed="64"/>
-      </end>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -1193,12 +1113,12 @@
       <diagonal/>
     </border>
     <border>
-      <start style="thin">
+      <left style="thin">
         <color indexed="64"/>
-      </start>
-      <end style="thin">
+      </left>
+      <right style="thin">
         <color indexed="64"/>
-      </end>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -1206,23 +1126,23 @@
       <diagonal/>
     </border>
     <border>
-      <start style="thin">
+      <left style="thin">
         <color indexed="64"/>
-      </start>
-      <end style="thin">
+      </left>
+      <right style="thin">
         <color indexed="64"/>
-      </end>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <start style="thin">
+      <left style="thin">
         <color indexed="64"/>
-      </start>
-      <end style="thin">
+      </left>
+      <right style="thin">
         <color indexed="64"/>
-      </end>
+      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -1376,6 +1296,7 @@
     <xf numFmtId="0" fontId="0" fillId="43" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="47" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="42" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1403,7 +1324,6 @@
     <xf numFmtId="0" fontId="0" fillId="45" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Énfasis1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -1465,7 +1385,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -1515,25 +1435,25 @@
           <c:spPr>
             <a:gradFill rotWithShape="1">
               <a:gsLst>
-                <a:gs pos="0%">
+                <a:gs pos="0">
                   <a:schemeClr val="accent1">
-                    <a:satMod val="103%"/>
-                    <a:lumMod val="102%"/>
-                    <a:tint val="94%"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
                   </a:schemeClr>
                 </a:gs>
-                <a:gs pos="50%">
+                <a:gs pos="50000">
                   <a:schemeClr val="accent1">
-                    <a:satMod val="110%"/>
-                    <a:lumMod val="100%"/>
-                    <a:shade val="100%"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
                   </a:schemeClr>
                 </a:gs>
-                <a:gs pos="100%">
+                <a:gs pos="100000">
                   <a:schemeClr val="accent1">
-                    <a:lumMod val="99%"/>
-                    <a:satMod val="120%"/>
-                    <a:shade val="78%"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
                   </a:schemeClr>
                 </a:gs>
               </a:gsLst>
@@ -1547,7 +1467,7 @@
             <a:effectLst>
               <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
                 <a:srgbClr val="000000">
-                  <a:alpha val="63%"/>
+                  <a:alpha val="63000"/>
                 </a:srgbClr>
               </a:outerShdw>
             </a:effectLst>
@@ -1600,10 +1520,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="lt1">
-                        <a:lumMod val="85%"/>
+                        <a:lumMod val="85000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -1631,8 +1551,8 @@
                     <a:ln w="9525">
                       <a:solidFill>
                         <a:schemeClr val="lt1">
-                          <a:lumMod val="95%"/>
-                          <a:alpha val="54%"/>
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
                         </a:schemeClr>
                       </a:solidFill>
                     </a:ln>
@@ -1649,23 +1569,12 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.16164377259962187</c:v>
+                  <c:v>0.21822715717406069</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:datalabelsRange>
-                <c15:f>Caculadora!$G$5</c15:f>
-                <c15:dlblRangeCache>
-                  <c:ptCount val="1"/>
-                  <c:pt idx="0">
-                    <c:v>4688(16%)</c:v>
-                  </c:pt>
-                </c15:dlblRangeCache>
-              </c15:datalabelsRange>
-            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-E409-4349-BB70-B4830E9B9444}"/>
             </c:ext>
@@ -1691,7 +1600,7 @@
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1">
-                <a:alpha val="15%"/>
+                <a:alpha val="15000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:ln>
@@ -1702,7 +1611,7 @@
             <a:effectLst>
               <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
                 <a:srgbClr val="000000">
-                  <a:alpha val="63%"/>
+                  <a:alpha val="63000"/>
                 </a:srgbClr>
               </a:outerShdw>
             </a:effectLst>
@@ -1716,7 +1625,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4706F960-E611-4E7F-B0C2-57CB3561C6F1}" type="CELLRANGE">
+                    <a:fld id="{934BDDEB-C00D-4F62-BB7D-E557FB84EF1D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1755,7 +1664,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                  <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
@@ -1783,8 +1692,8 @@
                     <a:ln w="9525">
                       <a:solidFill>
                         <a:schemeClr val="lt1">
-                          <a:lumMod val="95%"/>
-                          <a:alpha val="54%"/>
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
                         </a:schemeClr>
                       </a:solidFill>
                     </a:ln>
@@ -1833,11 +1742,11 @@
         </c:dLbls>
         <c:gapWidth val="30"/>
         <c:overlap val="100"/>
-        <c:axId val="597695119"/>
-        <c:axId val="522222911"/>
+        <c:axId val="322950656"/>
+        <c:axId val="320139776"/>
       </c:barChart>
       <c:valAx>
-        <c:axId val="522222911"/>
+        <c:axId val="320139776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1859,11 +1768,11 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="b" anchorCtr="0"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="b" anchorCtr="0"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
@@ -1878,13 +1787,13 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="597695119"/>
+        <c:crossAx val="322950656"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.25"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="597695119"/>
+        <c:axId val="322950656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1893,7 +1802,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="522222911"/>
+        <c:crossAx val="320139776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1945,7 +1854,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -2133,8 +2042,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="164761200"/>
-        <c:axId val="335739584"/>
+        <c:axId val="322951680"/>
+        <c:axId val="320142080"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -2213,7 +2122,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="164761200"/>
+        <c:axId val="322951680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2226,11 +2135,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
-                        <a:lumMod val="65%"/>
-                        <a:lumOff val="35%"/>
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -2266,11 +2175,11 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
-                      <a:lumMod val="65%"/>
-                      <a:lumOff val="35%"/>
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -2291,8 +2200,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="15%"/>
-                <a:lumOff val="85%"/>
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -2304,11 +2213,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
-                    <a:lumMod val="65%"/>
-                    <a:lumOff val="35%"/>
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -2319,7 +2228,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="335739584"/>
+        <c:crossAx val="320142080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2327,7 +2236,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="335739584"/>
+        <c:axId val="320142080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="30000"/>
@@ -2339,8 +2248,8 @@
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
-                  <a:lumMod val="15%"/>
-                  <a:lumOff val="85%"/>
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -2355,11 +2264,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
-                        <a:lumMod val="65%"/>
-                        <a:lumOff val="35%"/>
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -2372,7 +2281,7 @@
                   <a:t>Presupuesto</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="es-ES" baseline="0%"/>
+                  <a:rPr lang="es-ES" baseline="0"/>
                   <a:t> (€)</a:t>
                 </a:r>
               </a:p>
@@ -2397,11 +2306,11 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
-                      <a:lumMod val="65%"/>
-                      <a:lumOff val="35%"/>
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -2429,11 +2338,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
-                    <a:lumMod val="65%"/>
-                    <a:lumOff val="35%"/>
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -2444,7 +2353,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="164761200"/>
+        <c:crossAx val="322951680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2481,11 +2390,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
-                  <a:lumMod val="65%"/>
-                  <a:lumOff val="35%"/>
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -2515,8 +2424,8 @@
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
         <a:schemeClr val="tx1">
-          <a:lumMod val="15%"/>
-          <a:lumOff val="85%"/>
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:round/>
@@ -2542,7 +2451,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -2730,8 +2639,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="164761200"/>
-        <c:axId val="335739584"/>
+        <c:axId val="324195840"/>
+        <c:axId val="324018176"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -2810,7 +2719,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="164761200"/>
+        <c:axId val="324195840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2820,7 +2729,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="335739584"/>
+        <c:crossAx val="324018176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2828,7 +2737,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="335739584"/>
+        <c:axId val="324018176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="30000"/>
@@ -2840,8 +2749,8 @@
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
-                  <a:lumMod val="15%"/>
-                  <a:lumOff val="85%"/>
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -2853,7 +2762,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="164761200"/>
+        <c:crossAx val="324195840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2890,11 +2799,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
-                  <a:lumMod val="65%"/>
-                  <a:lumOff val="35%"/>
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -2924,8 +2833,8 @@
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
         <a:schemeClr val="tx1">
-          <a:lumMod val="15%"/>
-          <a:lumOff val="85%"/>
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:round/>
@@ -2951,7 +2860,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -3005,7 +2914,7 @@
             <a:effectLst>
               <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
                 <a:srgbClr val="000000">
-                  <a:alpha val="63%"/>
+                  <a:alpha val="63000"/>
                 </a:srgbClr>
               </a:outerShdw>
             </a:effectLst>
@@ -3018,7 +2927,7 @@
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1">
-                  <a:alpha val="15%"/>
+                  <a:alpha val="15000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:ln>
@@ -3029,7 +2938,7 @@
               <a:effectLst>
                 <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
-                    <a:alpha val="63%"/>
+                    <a:alpha val="63000"/>
                   </a:srgbClr>
                 </a:outerShdw>
               </a:effectLst>
@@ -3072,25 +2981,25 @@
           <c:spPr>
             <a:gradFill rotWithShape="1">
               <a:gsLst>
-                <a:gs pos="0%">
+                <a:gs pos="0">
                   <a:schemeClr val="accent3">
-                    <a:satMod val="103%"/>
-                    <a:lumMod val="102%"/>
-                    <a:tint val="94%"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
                   </a:schemeClr>
                 </a:gs>
-                <a:gs pos="50%">
+                <a:gs pos="50000">
                   <a:schemeClr val="accent3">
-                    <a:satMod val="110%"/>
-                    <a:lumMod val="100%"/>
-                    <a:shade val="100%"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
                   </a:schemeClr>
                 </a:gs>
-                <a:gs pos="100%">
+                <a:gs pos="100000">
                   <a:schemeClr val="accent3">
-                    <a:lumMod val="99%"/>
-                    <a:satMod val="120%"/>
-                    <a:shade val="78%"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
                   </a:schemeClr>
                 </a:gs>
               </a:gsLst>
@@ -3102,7 +3011,7 @@
             <a:effectLst>
               <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
                 <a:srgbClr val="000000">
-                  <a:alpha val="63%"/>
+                  <a:alpha val="63000"/>
                 </a:srgbClr>
               </a:outerShdw>
             </a:effectLst>
@@ -3133,8 +3042,8 @@
         </c:dLbls>
         <c:gapWidth val="30"/>
         <c:overlap val="100"/>
-        <c:axId val="597695119"/>
-        <c:axId val="522222911"/>
+        <c:axId val="324196864"/>
+        <c:axId val="324019904"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -3161,25 +3070,25 @@
                 <c:spPr>
                   <a:gradFill rotWithShape="1">
                     <a:gsLst>
-                      <a:gs pos="0%">
+                      <a:gs pos="0">
                         <a:schemeClr val="accent1">
-                          <a:satMod val="103%"/>
-                          <a:lumMod val="102%"/>
-                          <a:tint val="94%"/>
+                          <a:satMod val="103000"/>
+                          <a:lumMod val="102000"/>
+                          <a:tint val="94000"/>
                         </a:schemeClr>
                       </a:gs>
-                      <a:gs pos="50%">
+                      <a:gs pos="50000">
                         <a:schemeClr val="accent1">
-                          <a:satMod val="110%"/>
-                          <a:lumMod val="100%"/>
-                          <a:shade val="100%"/>
+                          <a:satMod val="110000"/>
+                          <a:lumMod val="100000"/>
+                          <a:shade val="100000"/>
                         </a:schemeClr>
                       </a:gs>
-                      <a:gs pos="100%">
+                      <a:gs pos="100000">
                         <a:schemeClr val="accent1">
-                          <a:lumMod val="99%"/>
-                          <a:satMod val="120%"/>
-                          <a:shade val="78%"/>
+                          <a:lumMod val="99000"/>
+                          <a:satMod val="120000"/>
+                          <a:shade val="78000"/>
                         </a:schemeClr>
                       </a:gs>
                     </a:gsLst>
@@ -3191,7 +3100,7 @@
                   <a:effectLst>
                     <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
                       <a:srgbClr val="000000">
-                        <a:alpha val="63%"/>
+                        <a:alpha val="63000"/>
                       </a:srgbClr>
                     </a:outerShdw>
                   </a:effectLst>
@@ -3217,7 +3126,7 @@
         </c:extLst>
       </c:barChart>
       <c:valAx>
-        <c:axId val="522222911"/>
+        <c:axId val="324019904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3243,7 +3152,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
@@ -3258,13 +3167,13 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="597695119"/>
+        <c:crossAx val="324196864"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.25"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="597695119"/>
+        <c:axId val="324196864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3273,7 +3182,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="522222911"/>
+        <c:crossAx val="324019904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3324,8 +3233,328 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Investment</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750"/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="44450"/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-38B4-46DF-BC24-A92988660D8E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja2!$B$8:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>28208.333333333332</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27416.666666666668</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25962.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24950</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23937.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21250</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19958.333333333332</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18666.666666666664</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14666.666666666668</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13233.333333333334</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-38B4-46DF-BC24-A92988660D8E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Earnings</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="44450"/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja2!$C$8:$C$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>791.66666666666674</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1583.3333333333335</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3037.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4050</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5062.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7750</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9041.6666666666679</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10333.333333333334</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14333.333333333332</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15766.666666666666</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-38B4-46DF-BC24-A92988660D8E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="323339776"/>
+        <c:axId val="324023360"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="323339776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES" sz="4000"/>
+                  <a:t>Months</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="3000"/>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="324023360"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="324023360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES" sz="4000"/>
+                  <a:t>Euros</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="3000"/>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="323339776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="3000"/>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1"/>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+      <a:miter lim="800000"/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" meth="cycle" id="10">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
   <a:schemeClr val="accent3"/>
@@ -3334,38 +3563,38 @@
   <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
-    <a:lumMod val="60%"/>
+    <a:lumMod val="60000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="80%"/>
-    <a:lumOff val="20%"/>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="80%"/>
+    <a:lumMod val="80000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="60%"/>
-    <a:lumOff val="40%"/>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="50%"/>
+    <a:lumMod val="50000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="70%"/>
-    <a:lumOff val="30%"/>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="70%"/>
+    <a:lumMod val="70000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="50%"/>
-    <a:lumOff val="50%"/>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
   </cs:variation>
 </cs:colorStyle>
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" meth="cycle" id="10">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
   <a:schemeClr val="accent3"/>
@@ -3374,38 +3603,38 @@
   <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
-    <a:lumMod val="60%"/>
+    <a:lumMod val="60000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="80%"/>
-    <a:lumOff val="20%"/>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="80%"/>
+    <a:lumMod val="80000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="60%"/>
-    <a:lumOff val="40%"/>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="50%"/>
+    <a:lumMod val="50000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="70%"/>
-    <a:lumOff val="30%"/>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="70%"/>
+    <a:lumMod val="70000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="50%"/>
-    <a:lumOff val="50%"/>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
   </cs:variation>
 </cs:colorStyle>
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" meth="cycle" id="10">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
   <a:schemeClr val="accent3"/>
@@ -3414,38 +3643,38 @@
   <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
-    <a:lumMod val="60%"/>
+    <a:lumMod val="60000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="80%"/>
-    <a:lumOff val="20%"/>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="80%"/>
+    <a:lumMod val="80000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="60%"/>
-    <a:lumOff val="40%"/>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="50%"/>
+    <a:lumMod val="50000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="70%"/>
-    <a:lumOff val="30%"/>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="70%"/>
+    <a:lumMod val="70000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="50%"/>
-    <a:lumOff val="50%"/>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
   </cs:variation>
 </cs:colorStyle>
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" meth="cycle" id="10">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
   <a:schemeClr val="accent3"/>
@@ -3454,45 +3683,45 @@
   <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
-    <a:lumMod val="60%"/>
+    <a:lumMod val="60000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="80%"/>
-    <a:lumOff val="20%"/>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="80%"/>
+    <a:lumMod val="80000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="60%"/>
-    <a:lumOff val="40%"/>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="50%"/>
+    <a:lumMod val="50000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="70%"/>
-    <a:lumOff val="30%"/>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="70%"/>
+    <a:lumMod val="70000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="50%"/>
-    <a:lumOff val="50%"/>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
   </cs:variation>
 </cs:colorStyle>
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" id="328">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="328">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1">
-        <a:lumMod val="85%"/>
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
@@ -3503,15 +3732,15 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1">
-        <a:lumMod val="85%"/>
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="lt1">
-            <a:lumMod val="95%"/>
-            <a:alpha val="54%"/>
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3529,21 +3758,21 @@
     <cs:spPr>
       <a:gradFill flip="none" rotWithShape="1">
         <a:gsLst>
-          <a:gs pos="0%">
+          <a:gs pos="0">
             <a:schemeClr val="dk1">
-              <a:lumMod val="65%"/>
-              <a:lumOff val="35%"/>
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
             </a:schemeClr>
           </a:gs>
-          <a:gs pos="100%">
+          <a:gs pos="100000">
             <a:schemeClr val="dk1">
-              <a:lumMod val="85%"/>
-              <a:lumOff val="15%"/>
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
             </a:schemeClr>
           </a:gs>
         </a:gsLst>
         <a:path path="circle">
-          <a:fillToRect l="50%" t="50%" r="50%" b="50%"/>
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
         </a:path>
         <a:tileRect/>
       </a:gradFill>
@@ -3556,7 +3785,7 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1">
-        <a:lumMod val="85%"/>
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3567,8 +3796,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1">
-        <a:lumMod val="65%"/>
-        <a:lumOff val="35%"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
@@ -3664,15 +3893,15 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1">
-        <a:lumMod val="85%"/>
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="lt1">
-            <a:lumMod val="95%"/>
-            <a:alpha val="54%"/>
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -3689,28 +3918,28 @@
     <cs:spPr>
       <a:gradFill>
         <a:gsLst>
-          <a:gs pos="100%">
+          <a:gs pos="100000">
             <a:schemeClr val="dk1">
-              <a:lumMod val="95%"/>
-              <a:lumOff val="5%"/>
+              <a:lumMod val="95000"/>
+              <a:lumOff val="5000"/>
             </a:schemeClr>
           </a:gs>
-          <a:gs pos="0%">
+          <a:gs pos="0">
             <a:schemeClr val="dk1">
-              <a:lumMod val="75%"/>
-              <a:lumOff val="25%"/>
+              <a:lumMod val="75000"/>
+              <a:lumOff val="25000"/>
             </a:schemeClr>
           </a:gs>
         </a:gsLst>
         <a:path path="circle">
-          <a:fillToRect l="50%" t="50%" r="50%" b="50%"/>
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
         </a:path>
       </a:gradFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="dk1">
-            <a:lumMod val="75%"/>
-            <a:lumOff val="25%"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -3743,7 +3972,7 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="lt1">
-            <a:lumMod val="95%"/>
+            <a:lumMod val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3769,8 +3998,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="lt1">
-            <a:lumMod val="95%"/>
-            <a:alpha val="10%"/>
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3788,8 +4017,8 @@
       <a:ln>
         <a:solidFill>
           <a:schemeClr val="lt1">
-            <a:lumMod val="95%"/>
-            <a:alpha val="5%"/>
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -3822,8 +4051,8 @@
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="lt1">
-            <a:lumMod val="95%"/>
-            <a:alpha val="54%"/>
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -3835,7 +4064,7 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1">
-        <a:lumMod val="85%"/>
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3862,15 +4091,15 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1">
-        <a:lumMod val="85%"/>
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="lt1">
-            <a:lumMod val="95%"/>
-            <a:alpha val="54%"/>
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3889,8 +4118,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="lt1">
-            <a:lumMod val="95%"/>
-            <a:alpha val="54%"/>
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3903,14 +4132,14 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1">
-        <a:lumMod val="95%"/>
+        <a:lumMod val="95000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0%">
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
       <a:effectLst>
         <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
           <a:prstClr val="black">
-            <a:alpha val="40%"/>
+            <a:alpha val="40000"/>
           </a:prstClr>
         </a:outerShdw>
       </a:effectLst>
@@ -3939,7 +4168,7 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1">
-        <a:lumMod val="85%"/>
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3954,17 +4183,17 @@
     <cs:spPr>
       <a:gradFill>
         <a:gsLst>
-          <a:gs pos="100%">
+          <a:gs pos="100000">
             <a:schemeClr val="lt1">
-              <a:lumMod val="85%"/>
+              <a:lumMod val="85000"/>
             </a:schemeClr>
           </a:gs>
-          <a:gs pos="0%">
+          <a:gs pos="0">
             <a:schemeClr val="lt1"/>
           </a:gs>
         </a:gsLst>
         <a:path path="circle">
-          <a:fillToRect l="50%" t="50%" r="50%" b="50%"/>
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
         </a:path>
       </a:gradFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -3981,7 +4210,7 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1">
-        <a:lumMod val="85%"/>
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3998,15 +4227,15 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" id="332">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65%"/>
-        <a:lumOff val="35%"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="1000" kern="1200"/>
@@ -4017,16 +4246,16 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65%"/>
-        <a:lumOff val="35%"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15%"/>
-            <a:lumOff val="85%"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4048,8 +4277,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15%"/>
-            <a:lumOff val="85%"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4063,8 +4292,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="75%"/>
-        <a:lumOff val="25%"/>
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -4075,8 +4304,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1">
-        <a:lumMod val="65%"/>
-        <a:lumOff val="35%"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
@@ -4086,8 +4315,8 @@
       <a:ln>
         <a:solidFill>
           <a:schemeClr val="dk1">
-            <a:lumMod val="25%"/>
-            <a:lumOff val="75%"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -4179,8 +4408,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65%"/>
-        <a:lumOff val="35%"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
@@ -4188,8 +4417,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15%"/>
-            <a:lumOff val="85%"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4207,15 +4436,15 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65%"/>
-          <a:lumOff val="35%"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65%"/>
-            <a:lumOff val="35%"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -4232,8 +4461,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="35%"/>
-            <a:lumOff val="65%"/>
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4251,8 +4480,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65%"/>
-            <a:lumOff val="35%"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4284,8 +4513,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15%"/>
-            <a:lumOff val="85%"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4303,8 +4532,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="5%"/>
-            <a:lumOff val="95%"/>
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4322,8 +4551,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75%"/>
-            <a:lumOff val="25%"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4341,8 +4570,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="35%"/>
-            <a:lumOff val="65%"/>
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4355,8 +4584,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65%"/>
-        <a:lumOff val="35%"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -4383,8 +4612,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65%"/>
-        <a:lumOff val="35%"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -4400,8 +4629,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="35%"/>
-            <a:lumOff val="65%"/>
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4414,11 +4643,11 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65%"/>
-        <a:lumOff val="35%"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0%"/>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -4444,8 +4673,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65%"/>
-        <a:lumOff val="35%"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -4464,8 +4693,8 @@
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15%"/>
-            <a:lumOff val="85%"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -4477,8 +4706,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65%"/>
-        <a:lumOff val="35%"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -4501,15 +4730,15 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" id="332">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65%"/>
-        <a:lumOff val="35%"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="1000" kern="1200"/>
@@ -4520,16 +4749,16 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65%"/>
-        <a:lumOff val="35%"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15%"/>
-            <a:lumOff val="85%"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4551,8 +4780,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15%"/>
-            <a:lumOff val="85%"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4566,8 +4795,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="75%"/>
-        <a:lumOff val="25%"/>
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -4578,8 +4807,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1">
-        <a:lumMod val="65%"/>
-        <a:lumOff val="35%"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
@@ -4589,8 +4818,8 @@
       <a:ln>
         <a:solidFill>
           <a:schemeClr val="dk1">
-            <a:lumMod val="25%"/>
-            <a:lumOff val="75%"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -4682,8 +4911,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65%"/>
-        <a:lumOff val="35%"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
@@ -4691,8 +4920,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15%"/>
-            <a:lumOff val="85%"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4710,15 +4939,15 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65%"/>
-          <a:lumOff val="35%"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65%"/>
-            <a:lumOff val="35%"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -4735,8 +4964,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="35%"/>
-            <a:lumOff val="65%"/>
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4754,8 +4983,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65%"/>
-            <a:lumOff val="35%"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4787,8 +5016,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15%"/>
-            <a:lumOff val="85%"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4806,8 +5035,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="5%"/>
-            <a:lumOff val="95%"/>
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4825,8 +5054,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75%"/>
-            <a:lumOff val="25%"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4844,8 +5073,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="35%"/>
-            <a:lumOff val="65%"/>
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4858,8 +5087,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65%"/>
-        <a:lumOff val="35%"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -4886,8 +5115,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65%"/>
-        <a:lumOff val="35%"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -4903,8 +5132,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="35%"/>
-            <a:lumOff val="65%"/>
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4917,11 +5146,11 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65%"/>
-        <a:lumOff val="35%"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0%"/>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -4947,8 +5176,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65%"/>
-        <a:lumOff val="35%"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -4967,8 +5196,8 @@
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15%"/>
-            <a:lumOff val="85%"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -4980,8 +5209,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65%"/>
-        <a:lumOff val="35%"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -5004,14 +5233,14 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" id="328">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="328">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1">
-        <a:lumMod val="85%"/>
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
@@ -5022,15 +5251,15 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1">
-        <a:lumMod val="85%"/>
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="lt1">
-            <a:lumMod val="95%"/>
-            <a:alpha val="54%"/>
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -5048,21 +5277,21 @@
     <cs:spPr>
       <a:gradFill flip="none" rotWithShape="1">
         <a:gsLst>
-          <a:gs pos="0%">
+          <a:gs pos="0">
             <a:schemeClr val="dk1">
-              <a:lumMod val="65%"/>
-              <a:lumOff val="35%"/>
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
             </a:schemeClr>
           </a:gs>
-          <a:gs pos="100%">
+          <a:gs pos="100000">
             <a:schemeClr val="dk1">
-              <a:lumMod val="85%"/>
-              <a:lumOff val="15%"/>
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
             </a:schemeClr>
           </a:gs>
         </a:gsLst>
         <a:path path="circle">
-          <a:fillToRect l="50%" t="50%" r="50%" b="50%"/>
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
         </a:path>
         <a:tileRect/>
       </a:gradFill>
@@ -5075,7 +5304,7 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1">
-        <a:lumMod val="85%"/>
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -5086,8 +5315,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1">
-        <a:lumMod val="65%"/>
-        <a:lumOff val="35%"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
@@ -5183,15 +5412,15 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1">
-        <a:lumMod val="85%"/>
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="lt1">
-            <a:lumMod val="95%"/>
-            <a:alpha val="54%"/>
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -5208,28 +5437,28 @@
     <cs:spPr>
       <a:gradFill>
         <a:gsLst>
-          <a:gs pos="100%">
+          <a:gs pos="100000">
             <a:schemeClr val="dk1">
-              <a:lumMod val="95%"/>
-              <a:lumOff val="5%"/>
+              <a:lumMod val="95000"/>
+              <a:lumOff val="5000"/>
             </a:schemeClr>
           </a:gs>
-          <a:gs pos="0%">
+          <a:gs pos="0">
             <a:schemeClr val="dk1">
-              <a:lumMod val="75%"/>
-              <a:lumOff val="25%"/>
+              <a:lumMod val="75000"/>
+              <a:lumOff val="25000"/>
             </a:schemeClr>
           </a:gs>
         </a:gsLst>
         <a:path path="circle">
-          <a:fillToRect l="50%" t="50%" r="50%" b="50%"/>
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
         </a:path>
       </a:gradFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="dk1">
-            <a:lumMod val="75%"/>
-            <a:lumOff val="25%"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -5262,7 +5491,7 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="lt1">
-            <a:lumMod val="95%"/>
+            <a:lumMod val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -5288,8 +5517,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="lt1">
-            <a:lumMod val="95%"/>
-            <a:alpha val="10%"/>
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -5307,8 +5536,8 @@
       <a:ln>
         <a:solidFill>
           <a:schemeClr val="lt1">
-            <a:lumMod val="95%"/>
-            <a:alpha val="5%"/>
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -5341,8 +5570,8 @@
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="lt1">
-            <a:lumMod val="95%"/>
-            <a:alpha val="54%"/>
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -5354,7 +5583,7 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1">
-        <a:lumMod val="85%"/>
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -5381,15 +5610,15 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1">
-        <a:lumMod val="85%"/>
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="lt1">
-            <a:lumMod val="95%"/>
-            <a:alpha val="54%"/>
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -5408,8 +5637,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="lt1">
-            <a:lumMod val="95%"/>
-            <a:alpha val="54%"/>
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -5422,14 +5651,14 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1">
-        <a:lumMod val="95%"/>
+        <a:lumMod val="95000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0%">
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
       <a:effectLst>
         <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
           <a:prstClr val="black">
-            <a:alpha val="40%"/>
+            <a:alpha val="40000"/>
           </a:prstClr>
         </a:outerShdw>
       </a:effectLst>
@@ -5458,7 +5687,7 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1">
-        <a:lumMod val="85%"/>
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -5473,17 +5702,17 @@
     <cs:spPr>
       <a:gradFill>
         <a:gsLst>
-          <a:gs pos="100%">
+          <a:gs pos="100000">
             <a:schemeClr val="lt1">
-              <a:lumMod val="85%"/>
+              <a:lumMod val="85000"/>
             </a:schemeClr>
           </a:gs>
-          <a:gs pos="0%">
+          <a:gs pos="0">
             <a:schemeClr val="lt1"/>
           </a:gs>
         </a:gsLst>
         <a:path path="circle">
-          <a:fillToRect l="50%" t="50%" r="50%" b="50%"/>
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
         </a:path>
       </a:gradFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -5500,7 +5729,7 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1">
-        <a:lumMod val="85%"/>
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -5517,7 +5746,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -5549,8 +5778,8 @@
         <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
-        <a:graphicData uri="http://purl.oclc.org/ooxml/drawingml/chart">
-          <c:chart xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" r:id="rId1"/>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5587,635 +5816,18 @@
         <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
-        <a:graphicData uri="http://purl.oclc.org/ooxml/drawingml/chart">
-          <c:chart xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" r:id="rId2"/>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:v="urn:schemas-microsoft-com:vml" Requires="v"/>
-    <mc:Fallback>
-      <xdr:twoCellAnchor editAs="absolute">
-        <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>762000</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>95250</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>2133600</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>85725</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1025" name="Comentario 1" hidden="1">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0883D118-F92D-436A-91DE-02BDD4E28B14}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1">
-              <a:spLocks noChangeArrowheads="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="2705100" y="285750"/>
-              <a:ext cx="1371600" cy="752475"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFE1" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="80"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="510000"/>
-              </a:solidFill>
-              <a:miter lim="800%"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="510000"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-              <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-                <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="es-ES" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0%">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Tahoma"/>
-                  <a:ea typeface="Tahoma"/>
-                  <a:cs typeface="Tahoma"/>
-                </a:rPr>
-                <a:t>Ale Garrido Resina:</a:t>
-              </a:r>
-              <a:endParaRPr lang="es-ES" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0%">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Tahoma"/>
-                <a:ea typeface="Tahoma"/>
-                <a:cs typeface="Tahoma"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="es-ES" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0%">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Tahoma"/>
-                  <a:ea typeface="Tahoma"/>
-                  <a:cs typeface="Tahoma"/>
-                </a:rPr>
-                <a:t>Ud:Hora</a:t>
-              </a:r>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="es-ES" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0%">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Tahoma"/>
-                <a:ea typeface="Tahoma"/>
-                <a:cs typeface="Tahoma"/>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:v="urn:schemas-microsoft-com:vml" Requires="v"/>
-    <mc:Fallback>
-      <xdr:twoCellAnchor editAs="absolute">
-        <xdr:from>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>142875</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>95250</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>723900</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>85725</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1026" name="Comentario 5" hidden="1">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD4EE551-446B-4BF5-A2D1-082CCC2AF8C9}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1">
-              <a:spLocks noChangeArrowheads="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="5476875" y="476250"/>
-              <a:ext cx="1371600" cy="752475"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFE1" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="80"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="510000"/>
-              </a:solidFill>
-              <a:miter lim="800%"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="510000"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-              <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-                <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="es-ES" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0%">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Tahoma"/>
-                  <a:ea typeface="Tahoma"/>
-                  <a:cs typeface="Tahoma"/>
-                </a:rPr>
-                <a:t>Ale Garrido Resina:</a:t>
-              </a:r>
-              <a:endParaRPr lang="es-ES" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0%">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Tahoma"/>
-                <a:ea typeface="Tahoma"/>
-                <a:cs typeface="Tahoma"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="es-ES" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0%">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Tahoma"/>
-                  <a:ea typeface="Tahoma"/>
-                  <a:cs typeface="Tahoma"/>
-                </a:rPr>
-                <a:t>5 Personas</a:t>
-              </a:r>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="es-ES" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0%">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Tahoma"/>
-                <a:ea typeface="Tahoma"/>
-                <a:cs typeface="Tahoma"/>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:v="urn:schemas-microsoft-com:vml" Requires="v"/>
-    <mc:Fallback>
-      <xdr:twoCellAnchor editAs="absolute">
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>381000</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>95250</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>781050</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>85725</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1027" name="Comentario 2" hidden="1">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E90E4E1-412D-4D9A-9E52-76CBC28AF806}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1">
-              <a:spLocks noChangeArrowheads="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="4743450" y="857250"/>
-              <a:ext cx="1371600" cy="752475"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFE1" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="80"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="510000"/>
-              </a:solidFill>
-              <a:miter lim="800%"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="510000"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-              <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-                <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="es-ES" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0%">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Tahoma"/>
-                  <a:ea typeface="Tahoma"/>
-                  <a:cs typeface="Tahoma"/>
-                </a:rPr>
-                <a:t>Ale Garrido Resina:</a:t>
-              </a:r>
-              <a:endParaRPr lang="es-ES" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0%">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Tahoma"/>
-                <a:ea typeface="Tahoma"/>
-                <a:cs typeface="Tahoma"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="es-ES" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0%">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Tahoma"/>
-                  <a:ea typeface="Tahoma"/>
-                  <a:cs typeface="Tahoma"/>
-                </a:rPr>
-                <a:t>Personas</a:t>
-              </a:r>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="es-ES" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0%">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Tahoma"/>
-                <a:ea typeface="Tahoma"/>
-                <a:cs typeface="Tahoma"/>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:v="urn:schemas-microsoft-com:vml" Requires="v"/>
-    <mc:Fallback>
-      <xdr:twoCellAnchor editAs="absolute">
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>142875</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>95250</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>542925</xdr:colOff>
-          <xdr:row>9</xdr:row>
-          <xdr:rowOff>85725</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1028" name="Comentario 3" hidden="1">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBC93C88-2B5D-4D0E-B6DB-15EB38D8C0C2}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1">
-              <a:spLocks noChangeArrowheads="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="4505325" y="1047750"/>
-              <a:ext cx="1371600" cy="752475"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFE1" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="80"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="510000"/>
-              </a:solidFill>
-              <a:miter lim="800%"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="510000"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-              <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-                <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="es-ES" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0%">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Tahoma"/>
-                  <a:ea typeface="Tahoma"/>
-                  <a:cs typeface="Tahoma"/>
-                </a:rPr>
-                <a:t>Ale Garrido Resina:</a:t>
-              </a:r>
-              <a:endParaRPr lang="es-ES" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0%">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Tahoma"/>
-                <a:ea typeface="Tahoma"/>
-                <a:cs typeface="Tahoma"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="es-ES" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0%">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Tahoma"/>
-                  <a:ea typeface="Tahoma"/>
-                  <a:cs typeface="Tahoma"/>
-                </a:rPr>
-                <a:t>Estimado desde estandar Heroku</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:v="urn:schemas-microsoft-com:vml" Requires="v"/>
-    <mc:Fallback>
-      <xdr:twoCellAnchor editAs="absolute">
-        <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>142875</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>95250</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>142875</xdr:colOff>
-          <xdr:row>9</xdr:row>
-          <xdr:rowOff>85725</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1029" name="Comentario 4" hidden="1">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F576C0B2-30BD-40A5-938C-9B77E6DB0C8A}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1">
-              <a:spLocks noChangeArrowheads="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="4895850" y="1047750"/>
-              <a:ext cx="1371600" cy="752475"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFE1" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="80"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="510000"/>
-              </a:solidFill>
-              <a:miter lim="800%"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="510000"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-              <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-                <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="es-ES" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0%">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Tahoma"/>
-                  <a:ea typeface="Tahoma"/>
-                  <a:cs typeface="Tahoma"/>
-                </a:rPr>
-                <a:t>Ale Garrido Resina:</a:t>
-              </a:r>
-              <a:endParaRPr lang="es-ES" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0%">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Tahoma"/>
-                <a:ea typeface="Tahoma"/>
-                <a:cs typeface="Tahoma"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="es-ES" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0%">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Tahoma"/>
-                  <a:ea typeface="Tahoma"/>
-                  <a:cs typeface="Tahoma"/>
-                </a:rPr>
-                <a:t>mes</a:t>
-              </a:r>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="es-ES" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0%">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Tahoma"/>
-                <a:ea typeface="Tahoma"/>
-                <a:cs typeface="Tahoma"/>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Fallback>
-  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -6247,8 +5859,8 @@
         <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
-        <a:graphicData uri="http://purl.oclc.org/ooxml/drawingml/chart">
-          <c:chart xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" r:id="rId1"/>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6285,8 +5897,8 @@
         <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
-        <a:graphicData uri="http://purl.oclc.org/ooxml/drawingml/chart">
-          <c:chart xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" r:id="rId2"/>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6296,138 +5908,328 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:v="urn:schemas-microsoft-com:vml" Requires="v"/>
-    <mc:Fallback>
-      <xdr:twoCellAnchor editAs="absolute">
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>142875</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>85725</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>723900</xdr:colOff>
-          <xdr:row>9</xdr:row>
-          <xdr:rowOff>76200</xdr:rowOff>
-        </xdr:to>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1965960" cy="262890"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="2049" name="Comentario 1" hidden="1">
+            <xdr:cNvPr id="4" name="3 CuadroTexto">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3D644CB-40F7-4202-999E-5A9483305945}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1">
-              <a:spLocks noChangeArrowheads="1"/>
-            </xdr:cNvSpPr>
+            <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
-              <a:off x="3819525" y="1038225"/>
-              <a:ext cx="1371600" cy="752475"/>
+              <a:off x="2499360" y="1573530"/>
+              <a:ext cx="1965960" cy="262890"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFE1" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="80"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="510000"/>
-              </a:solidFill>
-              <a:miter lim="800%"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="510000"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-              <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-                <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
-              </a:ext>
-            </a:extLst>
+            <a:noFill/>
           </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
             <a:lstStyle/>
             <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="es-ES" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0%">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Tahoma"/>
-                  <a:ea typeface="Tahoma"/>
-                  <a:cs typeface="Tahoma"/>
-                </a:rPr>
-                <a:t>Ale Garrido Resina:</a:t>
-              </a:r>
-              <a:endParaRPr lang="es-ES" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0%">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Tahoma"/>
-                <a:ea typeface="Tahoma"/>
-                <a:cs typeface="Tahoma"/>
-              </a:endParaRPr>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math"/>
+                      </a:rPr>
+                      <m:t>𝑦</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math"/>
+                      </a:rPr>
+                      <m:t>=29000 −2600</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math"/>
+                      </a:rPr>
+                      <m:t>𝑥</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="es-ES" sz="1100" b="0"/>
             </a:p>
             <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="es-ES" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0%">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Tahoma"/>
-                  <a:ea typeface="Tahoma"/>
-                  <a:cs typeface="Tahoma"/>
-                </a:rPr>
-                <a:t>Ud:Hora</a:t>
-              </a:r>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="es-ES" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0%">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Tahoma"/>
-                <a:ea typeface="Tahoma"/>
-                <a:cs typeface="Tahoma"/>
-              </a:endParaRPr>
+              <a:endParaRPr lang="es-ES" sz="1100"/>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Fallback>
-  </mc:AlternateContent>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="3 CuadroTexto"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2499360" y="1573530"/>
+              <a:ext cx="1965960" cy="262890"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>𝑦=29000 −2600𝑥</a:t>
+              </a:r>
+              <a:endParaRPr lang="es-ES" sz="1100" b="0"/>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="es-ES" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1965960" cy="262890"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="4 CuadroTexto">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2491740" y="1234440"/>
+              <a:ext cx="1965960" cy="262890"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math"/>
+                      </a:rPr>
+                      <m:t>𝑧</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math"/>
+                      </a:rPr>
+                      <m:t> =2600</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math"/>
+                      </a:rPr>
+                      <m:t>𝑥</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="es-ES" sz="1100" b="0"/>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="es-ES" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="4 CuadroTexto"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2491740" y="1234440"/>
+              <a:ext cx="1965960" cy="262890"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>𝑧 =2600𝑥</a:t>
+              </a:r>
+              <a:endParaRPr lang="es-ES" sz="1100" b="0"/>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="es-ES" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="8 Gráfico">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -6580,25 +6382,25 @@
         </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0%">
+            <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110%"/>
-                <a:satMod val="105%"/>
-                <a:tint val="67%"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50%">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105%"/>
-                <a:satMod val="103%"/>
-                <a:tint val="73%"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="100%">
+            <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105%"/>
-                <a:satMod val="109%"/>
-                <a:tint val="81%"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -6606,25 +6408,25 @@
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0%">
+            <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103%"/>
-                <a:lumMod val="102%"/>
-                <a:tint val="94%"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50%">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110%"/>
-                <a:lumMod val="100%"/>
-                <a:shade val="100%"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="100%">
+            <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99%"/>
-                <a:satMod val="120%"/>
-                <a:shade val="78%"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -6637,21 +6439,21 @@
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800%"/>
+          <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800%"/>
+          <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800%"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -6665,7 +6467,7 @@
           <a:effectLst>
             <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63%"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -6677,32 +6479,32 @@
         </a:solidFill>
         <a:solidFill>
           <a:schemeClr val="phClr">
-            <a:tint val="95%"/>
-            <a:satMod val="170%"/>
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0%">
+            <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93%"/>
-                <a:satMod val="150%"/>
-                <a:shade val="98%"/>
-                <a:lumMod val="102%"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50%">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="98%"/>
-                <a:satMod val="130%"/>
-                <a:shade val="90%"/>
-                <a:lumMod val="103%"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="100%">
+            <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63%"/>
-                <a:satMod val="120%"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -6722,10 +6524,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -6758,12 +6560,12 @@
       <c r="F1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="81" t="s">
+      <c r="J1" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="84"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
@@ -6972,7 +6774,7 @@
       <c r="B15">
         <v>10</v>
       </c>
-      <c r="P15" s="90"/>
+      <c r="P15" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6981,19 +6783,15 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="v">
-      <legacyDrawing r:id="rId3"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2245CC34-666A-4036-B9C2-2D2D05A00F75}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="G1:H1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="C16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
@@ -7014,11 +6812,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7031,21 +6829,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="G1" s="86" t="s">
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="G1" s="87" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="87"/>
-      <c r="J1" s="88" t="s">
+      <c r="H1" s="88"/>
+      <c r="J1" s="89" t="s">
         <v>54</v>
       </c>
-      <c r="K1" s="89"/>
+      <c r="K1" s="90"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="79" t="s">
@@ -7082,7 +6880,7 @@
       </c>
       <c r="B3" s="65">
         <f>SUM('Imputaciones semana'!A$2:A$30)</f>
-        <v>33.1</v>
+        <v>49.1</v>
       </c>
       <c r="C3" s="66">
         <v>27.19</v>
@@ -7093,11 +6891,11 @@
       </c>
       <c r="E3" s="68">
         <f t="shared" ref="E3:E9" si="0">B3*C3</f>
-        <v>899.98900000000003</v>
+        <v>1335.029</v>
       </c>
       <c r="G3" s="62">
         <f>(E10+K3)/L13</f>
-        <v>0.16164377259962187</v>
+        <v>0.21822715717406069</v>
       </c>
       <c r="H3" s="62">
         <v>1</v>
@@ -7116,22 +6914,22 @@
       </c>
       <c r="B4" s="69">
         <f>SUM('Imputaciones semana'!B$2:B$30)</f>
-        <v>29</v>
+        <v>49.75</v>
       </c>
       <c r="C4" s="70">
         <v>11.47</v>
       </c>
       <c r="D4" s="71">
         <f t="shared" ref="D4:D9" si="1">HOUR(B4)+MINUTE(B4)/60+SECOND(B4)/3600</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E4" s="72">
         <f t="shared" si="0"/>
-        <v>332.63</v>
+        <v>570.63250000000005</v>
       </c>
       <c r="G4" s="63">
         <f>G3*H4</f>
-        <v>4687.6694053890342</v>
+        <v>6328.5875580477596</v>
       </c>
       <c r="H4" s="64">
         <v>29000</v>
@@ -7143,7 +6941,7 @@
       </c>
       <c r="B5" s="69">
         <f>SUM('Imputaciones semana'!C$2:C$30)</f>
-        <v>34.6</v>
+        <v>49.6</v>
       </c>
       <c r="C5" s="70">
         <v>11.47</v>
@@ -7154,7 +6952,7 @@
       </c>
       <c r="E5" s="72">
         <f t="shared" si="0"/>
-        <v>396.86200000000002</v>
+        <v>568.91200000000003</v>
       </c>
       <c r="G5" t="s">
         <v>56</v>
@@ -7166,18 +6964,18 @@
       </c>
       <c r="B6" s="69">
         <f>SUM('Imputaciones semana'!D$2:D$30)</f>
-        <v>24.5</v>
+        <v>36.25</v>
       </c>
       <c r="C6" s="70">
         <v>11.47</v>
       </c>
       <c r="D6" s="71">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E6" s="72">
         <f t="shared" si="0"/>
-        <v>281.01500000000004</v>
+        <v>415.78750000000002</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -7186,7 +6984,7 @@
       </c>
       <c r="B7" s="69">
         <f>SUM('Imputaciones semana'!E$2:E$30)</f>
-        <v>46.5</v>
+        <v>67.5</v>
       </c>
       <c r="C7" s="70">
         <v>16.010000000000002</v>
@@ -7197,7 +6995,7 @@
       </c>
       <c r="E7" s="72">
         <f t="shared" si="0"/>
-        <v>744.46500000000003</v>
+        <v>1080.6750000000002</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -7206,18 +7004,18 @@
       </c>
       <c r="B8" s="69">
         <f>SUM('Imputaciones semana'!F$2:F$30)</f>
-        <v>17</v>
+        <v>30.5</v>
       </c>
       <c r="C8" s="70">
         <v>11.47</v>
       </c>
       <c r="D8" s="71">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E8" s="72">
         <f t="shared" si="0"/>
-        <v>194.99</v>
+        <v>349.83500000000004</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -7226,44 +7024,44 @@
       </c>
       <c r="B9" s="73">
         <f>SUM('Imputaciones semana'!G$2:G$30)</f>
-        <v>27</v>
+        <v>42.1</v>
       </c>
       <c r="C9" s="74">
         <v>11.47</v>
       </c>
       <c r="D9" s="75">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="E9" s="76">
         <f t="shared" si="0"/>
-        <v>309.69</v>
+        <v>482.88700000000006</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10">
         <f>SUM(B3:B9)</f>
-        <v>211.7</v>
+        <v>324.8</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="4">
         <f>SUM(E3:E9)</f>
-        <v>3159.6410000000001</v>
+        <v>4803.7580000000007</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="85" t="s">
+      <c r="A12" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="85"/>
-      <c r="C12" s="85"/>
-      <c r="D12" s="85"/>
-      <c r="E12" s="85"/>
-      <c r="F12" s="85"/>
-      <c r="G12" s="85"/>
-      <c r="H12" s="85"/>
+      <c r="B12" s="86"/>
+      <c r="C12" s="86"/>
+      <c r="D12" s="86"/>
+      <c r="E12" s="86"/>
+      <c r="F12" s="86"/>
+      <c r="G12" s="86"/>
+      <c r="H12" s="86"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
@@ -7448,39 +7246,39 @@
       </c>
       <c r="B17" s="36">
         <f>('Imputaciones semana'!A5)*$C$3</f>
-        <v>0</v>
+        <v>435.04</v>
       </c>
       <c r="C17" s="37">
         <f>('Imputaciones semana'!B5)*$C$4</f>
-        <v>0</v>
+        <v>238.00250000000003</v>
       </c>
       <c r="D17" s="37">
         <f>('Imputaciones semana'!C5)*$C$5</f>
-        <v>0</v>
+        <v>172.05</v>
       </c>
       <c r="E17" s="37">
         <f>('Imputaciones semana'!D5)*$C$6</f>
-        <v>0</v>
+        <v>134.77250000000001</v>
       </c>
       <c r="F17" s="37">
         <f>('Imputaciones semana'!E5)*$C$7</f>
-        <v>0</v>
+        <v>336.21000000000004</v>
       </c>
       <c r="G17" s="37">
         <f>('Imputaciones semana'!F5)*$C$8</f>
-        <v>0</v>
+        <v>154.845</v>
       </c>
       <c r="H17" s="38">
         <f>('Imputaciones semana'!G5)*$C$9</f>
-        <v>0</v>
+        <v>173.197</v>
       </c>
       <c r="I17" s="43">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1644.1170000000002</v>
       </c>
       <c r="J17" s="4">
         <f t="shared" si="3"/>
-        <v>3159.641000000001</v>
+        <v>4803.7580000000016</v>
       </c>
       <c r="K17">
         <v>4</v>
@@ -7528,7 +7326,7 @@
       </c>
       <c r="J18" s="4">
         <f t="shared" si="3"/>
-        <v>3159.641000000001</v>
+        <v>4803.7580000000016</v>
       </c>
       <c r="K18">
         <v>5</v>
@@ -7576,7 +7374,7 @@
       </c>
       <c r="J19" s="4">
         <f t="shared" si="3"/>
-        <v>3159.641000000001</v>
+        <v>4803.7580000000016</v>
       </c>
       <c r="K19">
         <v>6</v>
@@ -7624,7 +7422,7 @@
       </c>
       <c r="J20" s="4">
         <f t="shared" si="3"/>
-        <v>3159.641000000001</v>
+        <v>4803.7580000000016</v>
       </c>
       <c r="K20">
         <v>7</v>
@@ -7669,7 +7467,7 @@
       </c>
       <c r="J21" s="4">
         <f t="shared" si="3"/>
-        <v>3159.641000000001</v>
+        <v>4803.7580000000016</v>
       </c>
       <c r="K21">
         <v>8</v>
@@ -7714,7 +7512,7 @@
       </c>
       <c r="J22" s="4">
         <f t="shared" si="3"/>
-        <v>3159.641000000001</v>
+        <v>4803.7580000000016</v>
       </c>
       <c r="K22">
         <v>9</v>
@@ -7759,7 +7557,7 @@
       </c>
       <c r="J23" s="4">
         <f t="shared" si="3"/>
-        <v>3159.641000000001</v>
+        <v>4803.7580000000016</v>
       </c>
       <c r="K23">
         <v>10</v>
@@ -7804,7 +7602,7 @@
       </c>
       <c r="J24" s="4">
         <f t="shared" si="3"/>
-        <v>3159.641000000001</v>
+        <v>4803.7580000000016</v>
       </c>
       <c r="K24">
         <v>11</v>
@@ -7849,7 +7647,7 @@
       </c>
       <c r="J25" s="4">
         <f t="shared" si="3"/>
-        <v>3159.641000000001</v>
+        <v>4803.7580000000016</v>
       </c>
       <c r="K25">
         <v>12</v>
@@ -7894,7 +7692,7 @@
       </c>
       <c r="J26" s="4">
         <f t="shared" si="3"/>
-        <v>3159.641000000001</v>
+        <v>4803.7580000000016</v>
       </c>
       <c r="K26">
         <v>13</v>
@@ -7939,7 +7737,7 @@
       </c>
       <c r="J27" s="4">
         <f t="shared" si="3"/>
-        <v>3159.641000000001</v>
+        <v>4803.7580000000016</v>
       </c>
       <c r="K27">
         <v>14</v>
@@ -7984,7 +7782,7 @@
       </c>
       <c r="J28" s="4">
         <f t="shared" si="3"/>
-        <v>3159.641000000001</v>
+        <v>4803.7580000000016</v>
       </c>
       <c r="K28">
         <v>15</v>
@@ -8009,35 +7807,35 @@
       </c>
       <c r="B30" s="4">
         <f t="shared" ref="B30:H30" si="4">SUM(B14:B20)</f>
-        <v>899.98900000000003</v>
+        <v>1335.029</v>
       </c>
       <c r="C30" s="4">
         <f t="shared" si="4"/>
-        <v>332.63</v>
+        <v>570.63250000000005</v>
       </c>
       <c r="D30" s="4">
         <f t="shared" si="4"/>
-        <v>396.86200000000002</v>
+        <v>568.91200000000003</v>
       </c>
       <c r="E30" s="4">
         <f t="shared" si="4"/>
-        <v>281.01500000000004</v>
+        <v>415.78750000000002</v>
       </c>
       <c r="F30" s="4">
         <f t="shared" si="4"/>
-        <v>744.46500000000003</v>
+        <v>1080.6750000000002</v>
       </c>
       <c r="G30" s="4">
         <f t="shared" si="4"/>
-        <v>194.99</v>
+        <v>349.83500000000004</v>
       </c>
       <c r="H30" s="4">
         <f t="shared" si="4"/>
-        <v>309.69</v>
+        <v>482.887</v>
       </c>
       <c r="I30" s="4">
         <f>SUM(B30:H30)</f>
-        <v>3159.6410000000001</v>
+        <v>4803.7580000000007</v>
       </c>
     </row>
   </sheetData>
@@ -8049,21 +7847,16 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="v">
-      <legacyDrawing r:id="rId3"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" activeCellId="6" sqref="G5 F5 E5 D5 C5 B5 A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8183,13 +7976,27 @@
       <c r="L4" s="3"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+      <c r="A5" s="35">
+        <v>16</v>
+      </c>
+      <c r="B5" s="35">
+        <v>20.75</v>
+      </c>
+      <c r="C5" s="35">
+        <v>15</v>
+      </c>
+      <c r="D5" s="35">
+        <v>11.75</v>
+      </c>
+      <c r="E5" s="35">
+        <v>21</v>
+      </c>
+      <c r="F5" s="35">
+        <v>13.5</v>
+      </c>
+      <c r="G5" s="35">
+        <v>15.1</v>
+      </c>
       <c r="H5" t="s">
         <v>24</v>
       </c>
@@ -8459,4 +8266,390 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I20"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>29000</v>
+      </c>
+      <c r="B1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f>A1/12</f>
+        <v>2416.6666666666665</v>
+      </c>
+      <c r="B2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2">
+        <f>200/12</f>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="H2">
+        <v>20</v>
+      </c>
+      <c r="I2">
+        <f>H2*G2</f>
+        <v>333.33333333333337</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2400</v>
+      </c>
+      <c r="B3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3">
+        <f>550/12</f>
+        <v>45.833333333333336</v>
+      </c>
+      <c r="H3">
+        <v>10</v>
+      </c>
+      <c r="I3">
+        <f>H3*G3</f>
+        <v>458.33333333333337</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4">
+        <f>700/12</f>
+        <v>58.333333333333336</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <f>H4*G4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H5">
+        <v>25</v>
+      </c>
+      <c r="I5">
+        <f>H5*G2</f>
+        <v>416.66666666666669</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H6">
+        <v>13</v>
+      </c>
+      <c r="I6">
+        <f>H6*G3</f>
+        <v>595.83333333333337</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H7">
+        <v>30</v>
+      </c>
+      <c r="I7">
+        <f>H7*G2</f>
+        <v>500.00000000000006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <f>A1 -I17*A8</f>
+        <v>28208.333333333332</v>
+      </c>
+      <c r="C8">
+        <f>I17*A8</f>
+        <v>791.66666666666674</v>
+      </c>
+      <c r="G8" t="s">
+        <v>72</v>
+      </c>
+      <c r="H8">
+        <v>16</v>
+      </c>
+      <c r="I8">
+        <f>H8*G3</f>
+        <v>733.33333333333337</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <f>A1 -I17*A9</f>
+        <v>27416.666666666668</v>
+      </c>
+      <c r="C9">
+        <f>I17*A9</f>
+        <v>1583.3333333333335</v>
+      </c>
+      <c r="G9" t="s">
+        <v>72</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <f>H9*G4</f>
+        <v>58.333333333333336</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <f>A1 -I18*A10</f>
+        <v>25962.5</v>
+      </c>
+      <c r="C10">
+        <f>I18*A10</f>
+        <v>3037.5</v>
+      </c>
+      <c r="G10" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10">
+        <v>33</v>
+      </c>
+      <c r="I10">
+        <f>H10*G2</f>
+        <v>550</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <f>A1 -I18*A11</f>
+        <v>24950</v>
+      </c>
+      <c r="C11">
+        <f>I18*A11</f>
+        <v>4050</v>
+      </c>
+      <c r="G11" t="s">
+        <v>73</v>
+      </c>
+      <c r="H11">
+        <v>18</v>
+      </c>
+      <c r="I11">
+        <f>H11*G3</f>
+        <v>825</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <f>A1 -I18*A12</f>
+        <v>23937.5</v>
+      </c>
+      <c r="C12">
+        <f>I18*A12</f>
+        <v>5062.5</v>
+      </c>
+      <c r="G12" t="s">
+        <v>73</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <f>H12*G4</f>
+        <v>58.333333333333336</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <f>A1 -I19*A13</f>
+        <v>21250</v>
+      </c>
+      <c r="C13">
+        <f>I19*A13</f>
+        <v>7750</v>
+      </c>
+      <c r="H13">
+        <f>H10+H11+H12</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <f>A1 -I19*A14</f>
+        <v>19958.333333333332</v>
+      </c>
+      <c r="C14">
+        <f>I19*A14</f>
+        <v>9041.6666666666679</v>
+      </c>
+      <c r="H14">
+        <f>H2+H3+H4</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>8</v>
+      </c>
+      <c r="B15">
+        <f>A1 -I19*A15</f>
+        <v>18666.666666666664</v>
+      </c>
+      <c r="C15">
+        <f>I19*A15</f>
+        <v>10333.333333333334</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>9</v>
+      </c>
+      <c r="B16">
+        <f>A1 -I20*A16</f>
+        <v>16100</v>
+      </c>
+      <c r="C16">
+        <f>I20*A16</f>
+        <v>12900</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>10</v>
+      </c>
+      <c r="B17">
+        <f>A1 -I20*A17</f>
+        <v>14666.666666666668</v>
+      </c>
+      <c r="C17">
+        <f>I20*A17</f>
+        <v>14333.333333333332</v>
+      </c>
+      <c r="H17" t="s">
+        <v>70</v>
+      </c>
+      <c r="I17">
+        <f>I2+I3+I4</f>
+        <v>791.66666666666674</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>11</v>
+      </c>
+      <c r="B18">
+        <f>A1 -I20*A18</f>
+        <v>13233.333333333334</v>
+      </c>
+      <c r="C18">
+        <f>I20*A18</f>
+        <v>15766.666666666666</v>
+      </c>
+      <c r="H18" t="s">
+        <v>69</v>
+      </c>
+      <c r="I18">
+        <f>I5+I6+I4</f>
+        <v>1012.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>12</v>
+      </c>
+      <c r="B19">
+        <f>A1 -I20*A19</f>
+        <v>11800</v>
+      </c>
+      <c r="C19">
+        <f>I20*A19</f>
+        <v>17200</v>
+      </c>
+      <c r="H19" t="s">
+        <v>72</v>
+      </c>
+      <c r="I19">
+        <f>I7+I8+I9</f>
+        <v>1291.6666666666667</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H20" t="s">
+        <v>72</v>
+      </c>
+      <c r="I20">
+        <f>I10+I11+I12</f>
+        <v>1433.3333333333333</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Conocimiento/Metodología/Calculadora (version 1).xlsx
+++ b/Conocimiento/Metodología/Calculadora (version 1).xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jesos\Desktop\ISPP proyecto\ISPP_A4MJ\Conocimiento\Metodología\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Descargas\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C087E0E7-816C-4C22-8349-8C17E53AC234}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="7155" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Costes y presupuesto" sheetId="2" r:id="rId1"/>
@@ -18,17 +19,17 @@
     <sheet name="Imputaciones semana" sheetId="3" r:id="rId4"/>
     <sheet name="Hoja2" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Ale Garrido Resina</author>
   </authors>
   <commentList>
-    <comment ref="D3" authorId="0" shapeId="0">
+    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -53,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0" shapeId="0">
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -78,7 +79,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E6" authorId="0" shapeId="0">
+    <comment ref="E6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -103,7 +104,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C7" authorId="0" shapeId="0">
+    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -127,7 +128,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D7" authorId="0" shapeId="0">
+    <comment ref="D7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -157,12 +158,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Ale Garrido Resina</author>
   </authors>
   <commentList>
-    <comment ref="C7" authorId="0" shapeId="0">
+    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -192,7 +193,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="77">
   <si>
     <t>Registered time</t>
   </si>
@@ -415,11 +416,20 @@
   <si>
     <t>A partir del 9 mes</t>
   </si>
+  <si>
+    <t>23F</t>
+  </si>
+  <si>
+    <t>15-28</t>
+  </si>
+  <si>
+    <t>29 a 5</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
@@ -1196,7 +1206,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1324,6 +1334,8 @@
     <xf numFmtId="0" fontId="0" fillId="45" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Énfasis1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -1569,7 +1581,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.21822715717406069</c:v>
+                  <c:v>0.43037399506249885</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1625,7 +1637,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{934BDDEB-C00D-4F62-BB7D-E557FB84EF1D}" type="CELLRANGE">
+                    <a:fld id="{12ADD2F4-E236-4926-A58E-1A3EC9B8F088}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2464,6 +2476,1556 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.9007852530799599E-2"/>
+          <c:y val="0.34458365212517977"/>
+          <c:w val="0.92661673496259889"/>
+          <c:h val="0.25418504441565976"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="30"/>
+        <c:overlap val="31"/>
+        <c:axId val="532476552"/>
+        <c:axId val="532476224"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Caculadora!$H$2:$H$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>Objetivo</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>100%</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:gradFill rotWithShape="1">
+                    <a:gsLst>
+                      <a:gs pos="0">
+                        <a:schemeClr val="accent2">
+                          <a:satMod val="103000"/>
+                          <a:lumMod val="102000"/>
+                          <a:tint val="94000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                      <a:gs pos="50000">
+                        <a:schemeClr val="accent2">
+                          <a:satMod val="110000"/>
+                          <a:lumMod val="100000"/>
+                          <a:shade val="100000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                      <a:gs pos="100000">
+                        <a:schemeClr val="accent2">
+                          <a:lumMod val="99000"/>
+                          <a:satMod val="120000"/>
+                          <a:shade val="78000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                    </a:gsLst>
+                    <a:lin ang="5400000" scaled="0"/>
+                  </a:gradFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000">
+                        <a:alpha val="63000"/>
+                      </a:srgbClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{F5D05F6E-A05E-4728-AFD3-386EB277150F}">
+                        <c16:filteredLitCache>
+                          <c:numCache>
+                            <c:formatCode>General</c:formatCode>
+                            <c:ptCount val="1"/>
+                            <c:pt idx="0">
+                              <c:v>1</c:v>
+                            </c:pt>
+                          </c:numCache>
+                        </c16:filteredLitCache>
+                      </c:ext>
+                    </c:extLst>
+                    <c:f/>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="0"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000006-4265-4F25-A2FB-0BD8B087B9C9}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="30"/>
+        <c:overlap val="31"/>
+        <c:axId val="637636648"/>
+        <c:axId val="637642224"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Caculadora!$G$2:$G$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>Real</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>43%</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:gradFill rotWithShape="1">
+                    <a:gsLst>
+                      <a:gs pos="0">
+                        <a:schemeClr val="accent1">
+                          <a:satMod val="103000"/>
+                          <a:lumMod val="102000"/>
+                          <a:tint val="94000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                      <a:gs pos="50000">
+                        <a:schemeClr val="accent1">
+                          <a:satMod val="110000"/>
+                          <a:lumMod val="100000"/>
+                          <a:shade val="100000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                      <a:gs pos="100000">
+                        <a:schemeClr val="accent1">
+                          <a:lumMod val="99000"/>
+                          <a:satMod val="120000"/>
+                          <a:shade val="78000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                    </a:gsLst>
+                    <a:lin ang="5400000" scaled="0"/>
+                  </a:gradFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000">
+                        <a:alpha val="63000"/>
+                      </a:srgbClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{F5D05F6E-A05E-4728-AFD3-386EB277150F}">
+                        <c16:filteredLitCache>
+                          <c:numCache>
+                            <c:formatCode>General</c:formatCode>
+                            <c:ptCount val="1"/>
+                            <c:pt idx="0">
+                              <c:v>1</c:v>
+                            </c:pt>
+                          </c:numCache>
+                        </c16:filteredLitCache>
+                      </c:ext>
+                    </c:extLst>
+                    <c:f/>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="0"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000005-4265-4F25-A2FB-0BD8B087B9C9}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:valAx>
+        <c:axId val="532476224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="532476552"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="532476552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="532476224"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="637642224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="637636648"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="637636648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="637642224"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.9007852530799599E-2"/>
+          <c:y val="0.34458365212517977"/>
+          <c:w val="0.92661673496259889"/>
+          <c:h val="0.25418504441565976"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="30"/>
+        <c:overlap val="100"/>
+        <c:axId val="322950656"/>
+        <c:axId val="320139776"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Caculadora!$G$1:$G$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>Progreso</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Real</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:gradFill rotWithShape="1">
+                    <a:gsLst>
+                      <a:gs pos="0">
+                        <a:schemeClr val="accent1">
+                          <a:satMod val="103000"/>
+                          <a:lumMod val="102000"/>
+                          <a:tint val="94000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                      <a:gs pos="50000">
+                        <a:schemeClr val="accent1">
+                          <a:satMod val="110000"/>
+                          <a:lumMod val="100000"/>
+                          <a:shade val="100000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                      <a:gs pos="100000">
+                        <a:schemeClr val="accent1">
+                          <a:lumMod val="99000"/>
+                          <a:satMod val="120000"/>
+                          <a:shade val="78000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                    </a:gsLst>
+                    <a:lin ang="5400000" scaled="0"/>
+                  </a:gradFill>
+                  <a:ln>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                  </a:ln>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000">
+                        <a:alpha val="63000"/>
+                      </a:srgbClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="lt1">
+                              <a:lumMod val="85000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="es-ES"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="inEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="0"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showDataLabelsRange val="1"/>
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525">
+                            <a:solidFill>
+                              <a:schemeClr val="lt1">
+                                <a:lumMod val="95000"/>
+                                <a:alpha val="54000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Caculadora!$G$3</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref/>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0%</c:formatCode>
+                      <c:ptCount val="0"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                    <c15:categoryFilterExceptions>
+                      <c15:categoryFilterException>
+                        <c15:sqref>Caculadora!$G$3</c15:sqref>
+                        <c15:dLbl>
+                          <c:idx val="-1"/>
+                          <c:tx>
+                            <c:rich>
+                              <a:bodyPr/>
+                              <a:lstStyle/>
+                              <a:p>
+                                <a:r>
+                                  <a:rPr lang="en-US"/>
+                                  <a:t>4688#(16%)</a:t>
+                                </a:r>
+                                <a:br>
+                                  <a:rPr lang="en-US"/>
+                                </a:br>
+                                <a:endParaRPr lang="en-US"/>
+                              </a:p>
+                            </c:rich>
+                          </c:tx>
+                          <c:dLblPos val="inEnd"/>
+                          <c:showLegendKey val="0"/>
+                          <c:showVal val="0"/>
+                          <c:showCatName val="0"/>
+                          <c:showSerName val="0"/>
+                          <c:showPercent val="0"/>
+                          <c:showBubbleSize val="0"/>
+                          <c:extLst>
+                            <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                              <c16:uniqueId val="{00000000-BDD2-4A28-88C6-261E584C24CF}"/>
+                            </c:ext>
+                          </c:extLst>
+                        </c15:dLbl>
+                      </c15:categoryFilterException>
+                    </c15:categoryFilterExceptions>
+                  </c:ext>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-BDD2-4A28-88C6-261E584C24CF}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Caculadora!$H$1:$H$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>Progreso</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Objetivo</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1">
+                      <a:alpha val="15000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                  </a:ln>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000">
+                        <a:alpha val="63000"/>
+                      </a:srgbClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="es-ES"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="0"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showDataLabelsRange val="1"/>
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525">
+                            <a:solidFill>
+                              <a:schemeClr val="lt1">
+                                <a:lumMod val="95000"/>
+                                <a:alpha val="54000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Caculadora!$H$3</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref/>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0%</c:formatCode>
+                      <c:ptCount val="0"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                    <c15:datalabelsRange>
+                      <c15:f>Caculadora!$H$4</c15:f>
+                      <c15:dlblRangeCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>29000</c:v>
+                        </c:pt>
+                      </c15:dlblRangeCache>
+                    </c15:datalabelsRange>
+                  </c:ext>
+                  <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                    <c15:categoryFilterExceptions>
+                      <c15:categoryFilterException>
+                        <c15:sqref>Caculadora!$H$3</c15:sqref>
+                        <c15:dLbl>
+                          <c:idx val="-1"/>
+                          <c:tx>
+                            <c:rich>
+                              <a:bodyPr/>
+                              <a:lstStyle/>
+                              <a:p>
+                                <a:fld id="{CFDC6F51-8DF1-452B-B426-4E93378297F7}" type="CELLRANGE">
+                                  <a:rPr lang="en-US"/>
+                                  <a:pPr/>
+                                  <a:t>[CELLRANGE]</a:t>
+                                </a:fld>
+                                <a:endParaRPr lang="es-ES"/>
+                              </a:p>
+                            </c:rich>
+                          </c:tx>
+                          <c:showLegendKey val="0"/>
+                          <c:showVal val="0"/>
+                          <c:showCatName val="0"/>
+                          <c:showSerName val="0"/>
+                          <c:showPercent val="0"/>
+                          <c:showBubbleSize val="0"/>
+                          <c:extLst>
+                            <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                              <c15:dlblFieldTable/>
+                              <c15:showDataLabelsRange val="1"/>
+                            </c:ext>
+                            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                              <c16:uniqueId val="{00000002-BDD2-4A28-88C6-261E584C24CF}"/>
+                            </c:ext>
+                          </c:extLst>
+                        </c15:dLbl>
+                      </c15:categoryFilterException>
+                    </c15:categoryFilterExceptions>
+                  </c:ext>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-BDD2-4A28-88C6-261E584C24CF}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:valAx>
+        <c:axId val="320139776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd w="lg" len="lg"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="b" anchorCtr="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="322950656"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.25"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="322950656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="320139776"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:gradFill>
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1"/>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="1"/>
+            </a:gradFill>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Caculadora!$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Caculadora!$G$3</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.43037399506249885</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1374-400A-B33D-B67D2768AA75}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="15000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:glow>
+                  <a:schemeClr val="accent1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-1374-400A-B33D-B67D2768AA75}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:numRef>
+              <c:f>Caculadora!$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Caculadora!$H$3</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1374-400A-B33D-B67D2768AA75}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="331"/>
+        <c:overlap val="100"/>
+        <c:axId val="530596592"/>
+        <c:axId val="530596920"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="530596592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="530596920"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="530596920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="530596592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="15000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:glow>
+                  <a:schemeClr val="accent1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-4E0C-435C-BC82-ECD95DF43843}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:numRef>
+              <c:f>Caculadora!$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Caculadora!$H$3</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4E0C-435C-BC82-ECD95DF43843}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Horas</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Caculadora!$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-4E0C-435C-BC82-ECD95DF43843}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Presupuest</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill>
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1"/>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="1"/>
+            </a:gradFill>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Caculadora!$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Caculadora!$G$3</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.43037399506249885</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4E0C-435C-BC82-ECD95DF43843}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="331"/>
+        <c:overlap val="100"/>
+        <c:axId val="530596592"/>
+        <c:axId val="530596920"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="530596592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="530596920"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="530596920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="530596592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
@@ -2859,7 +4421,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -3233,7 +4795,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -3713,6 +5275,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="328">
   <cs:axisTitle>
@@ -4730,7 +6452,1033 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="328">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="95000"/>
+              <a:lumOff val="5000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="75000"/>
+              <a:lumOff val="25000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+      </a:gradFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="328">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="95000"/>
+              <a:lumOff val="5000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="75000"/>
+              <a:lumOff val="25000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+      </a:gradFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -5232,7 +7980,1013 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="328">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5818,6 +9572,158 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>755837</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>88527</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF103F18-A0C7-4B1D-9AA7-FC1DF20273B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>408454</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>88527</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Gráfico 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B066839E-D215-45B1-85CB-C1DBDE5030E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>246529</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>179294</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>132229</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Gráfico 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{960C9487-2BA0-4B6C-A542-6AB4EE3A76F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Gráfico 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C077959D-44AB-436C-92F7-826CA891F7B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6524,11 +10430,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6788,10 +10694,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="G1:H1"/>
   <sheetViews>
-    <sheetView topLeftCell="C16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
@@ -6812,11 +10718,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6828,7 +10734,7 @@
     <col min="11" max="12" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="85" t="s">
         <v>19</v>
       </c>
@@ -6845,7 +10751,7 @@
       </c>
       <c r="K1" s="90"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="79" t="s">
         <v>1</v>
       </c>
@@ -6873,118 +10779,128 @@
       <c r="K2" s="60" t="s">
         <v>10</v>
       </c>
+      <c r="M2" s="62">
+        <f>(E10+K3)/L13</f>
+        <v>0.43037399506249885</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>29</v>
       </c>
       <c r="B3" s="65">
         <f>SUM('Imputaciones semana'!A$2:A$30)</f>
-        <v>49.1</v>
+        <v>97.6</v>
       </c>
       <c r="C3" s="66">
         <v>27.19</v>
       </c>
       <c r="D3" s="67">
         <f>HOUR(B3)+MINUTE(B3)/60+SECOND(B3)/3600</f>
-        <v>2.4</v>
+        <v>14.4</v>
       </c>
       <c r="E3" s="68">
         <f t="shared" ref="E3:E9" si="0">B3*C3</f>
-        <v>1335.029</v>
+        <v>2653.7440000000001</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
       </c>
       <c r="G3" s="62">
         <f>(E10+K3)/L13</f>
-        <v>0.21822715717406069</v>
+        <v>0.43037399506249885</v>
       </c>
       <c r="H3" s="62">
         <v>1</v>
       </c>
       <c r="J3" s="57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K3" s="58">
         <f>'Costes y presupuesto'!D6*7*J3+'Costes y presupuesto'!D7*J3+'Costes y presupuesto'!F5*J3</f>
-        <v>1537.1666666666667</v>
+        <v>3074.3333333333335</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="77" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="69">
         <f>SUM('Imputaciones semana'!B$2:B$30)</f>
-        <v>49.75</v>
+        <v>109.5</v>
       </c>
       <c r="C4" s="70">
         <v>11.47</v>
       </c>
       <c r="D4" s="71">
         <f t="shared" ref="D4:D9" si="1">HOUR(B4)+MINUTE(B4)/60+SECOND(B4)/3600</f>
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E4" s="72">
         <f t="shared" si="0"/>
-        <v>570.63250000000005</v>
+        <v>1255.9650000000001</v>
       </c>
       <c r="G4" s="63">
-        <f>G3*H4</f>
-        <v>6328.5875580477596</v>
+        <f>E10+K3</f>
+        <v>12505.176333333335</v>
       </c>
       <c r="H4" s="64">
         <v>29000</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="77" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="69">
         <f>SUM('Imputaciones semana'!C$2:C$30)</f>
-        <v>49.6</v>
+        <v>94.1</v>
       </c>
       <c r="C5" s="70">
         <v>11.47</v>
       </c>
       <c r="D5" s="71">
         <f t="shared" si="1"/>
-        <v>14.4</v>
+        <v>2.4</v>
       </c>
       <c r="E5" s="72">
         <f t="shared" si="0"/>
-        <v>568.91200000000003</v>
+        <v>1079.327</v>
       </c>
       <c r="G5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="77" t="s">
         <v>28</v>
       </c>
       <c r="B6" s="69">
         <f>SUM('Imputaciones semana'!D$2:D$30)</f>
-        <v>36.25</v>
+        <v>60</v>
       </c>
       <c r="C6" s="70">
         <v>11.47</v>
       </c>
       <c r="D6" s="71">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E6" s="72">
         <f t="shared" si="0"/>
-        <v>415.78750000000002</v>
+        <v>688.2</v>
+      </c>
+      <c r="G6" s="92">
+        <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="77" t="s">
         <v>43</v>
       </c>
       <c r="B7" s="69">
         <f>SUM('Imputaciones semana'!E$2:E$30)</f>
-        <v>67.5</v>
+        <v>106.5</v>
       </c>
       <c r="C7" s="70">
         <v>16.010000000000002</v>
@@ -6995,16 +10911,16 @@
       </c>
       <c r="E7" s="72">
         <f t="shared" si="0"/>
-        <v>1080.6750000000002</v>
+        <v>1705.0650000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="77" t="s">
         <v>44</v>
       </c>
       <c r="B8" s="69">
         <f>SUM('Imputaciones semana'!F$2:F$30)</f>
-        <v>30.5</v>
+        <v>91.5</v>
       </c>
       <c r="C8" s="70">
         <v>11.47</v>
@@ -7015,16 +10931,16 @@
       </c>
       <c r="E8" s="72">
         <f t="shared" si="0"/>
-        <v>349.83500000000004</v>
+        <v>1049.5050000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="78" t="s">
         <v>45</v>
       </c>
       <c r="B9" s="73">
         <f>SUM('Imputaciones semana'!G$2:G$30)</f>
-        <v>42.1</v>
+        <v>87.1</v>
       </c>
       <c r="C9" s="74">
         <v>11.47</v>
@@ -7035,23 +10951,23 @@
       </c>
       <c r="E9" s="76">
         <f t="shared" si="0"/>
-        <v>482.88700000000006</v>
+        <v>999.03700000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10">
         <f>SUM(B3:B9)</f>
-        <v>324.8</v>
+        <v>646.30000000000007</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="4">
         <f>SUM(E3:E9)</f>
-        <v>4803.7580000000007</v>
+        <v>9430.8430000000008</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="86" t="s">
         <v>20</v>
       </c>
@@ -7063,7 +10979,7 @@
       <c r="G12" s="86"/>
       <c r="H12" s="86"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>29</v>
       </c>
@@ -7096,7 +11012,7 @@
         <v>29056.533333333336</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>21</v>
       </c>
@@ -7144,7 +11060,7 @@
         <v>1816.0333333333335</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>22</v>
       </c>
@@ -7192,7 +11108,7 @@
         <v>3632.0666666666671</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>23</v>
       </c>
@@ -7294,39 +11210,39 @@
       </c>
       <c r="B18" s="39">
         <f>('Imputaciones semana'!A6)*$C$3</f>
-        <v>0</v>
+        <v>965.245</v>
       </c>
       <c r="C18" s="40">
         <f>('Imputaciones semana'!B6)*$C$4</f>
-        <v>0</v>
+        <v>447.33000000000004</v>
       </c>
       <c r="D18" s="40">
         <f>('Imputaciones semana'!C6)*$C$5</f>
-        <v>0</v>
+        <v>453.065</v>
       </c>
       <c r="E18" s="40">
         <f>('Imputaciones semana'!D6)*$C$6</f>
-        <v>0</v>
+        <v>215.0625</v>
       </c>
       <c r="F18" s="40">
         <f>('Imputaciones semana'!E6)*$C$7</f>
-        <v>0</v>
+        <v>472.29500000000007</v>
       </c>
       <c r="G18" s="40">
         <f>('Imputaciones semana'!F6)*$C$8</f>
-        <v>0</v>
+        <v>539.09</v>
       </c>
       <c r="H18" s="41">
         <f>('Imputaciones semana'!G6)*$C$9</f>
-        <v>0</v>
+        <v>378.51000000000005</v>
       </c>
       <c r="I18" s="43">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3470.5975000000008</v>
       </c>
       <c r="J18" s="4">
         <f t="shared" si="3"/>
-        <v>4803.7580000000016</v>
+        <v>8274.3555000000015</v>
       </c>
       <c r="K18">
         <v>5</v>
@@ -7342,39 +11258,39 @@
       </c>
       <c r="B19" s="36">
         <f>('Imputaciones semana'!A7)*$C$3</f>
-        <v>0</v>
+        <v>353.47</v>
       </c>
       <c r="C19" s="37">
         <f>('Imputaciones semana'!B7)*$C$4</f>
-        <v>0</v>
+        <v>238.00250000000003</v>
       </c>
       <c r="D19" s="37">
         <f>('Imputaciones semana'!C7)*$C$5</f>
-        <v>0</v>
+        <v>57.35</v>
       </c>
       <c r="E19" s="37">
         <f>('Imputaciones semana'!D7)*$C$6</f>
-        <v>0</v>
+        <v>57.35</v>
       </c>
       <c r="F19" s="37">
         <f>('Imputaciones semana'!E7)*$C$7</f>
-        <v>0</v>
+        <v>152.09500000000003</v>
       </c>
       <c r="G19" s="37">
         <f>('Imputaciones semana'!F7)*$C$8</f>
-        <v>0</v>
+        <v>160.58000000000001</v>
       </c>
       <c r="H19" s="38">
         <f>('Imputaciones semana'!G7)*$C$9</f>
-        <v>0</v>
+        <v>137.64000000000001</v>
       </c>
       <c r="I19" s="43">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1156.4875000000002</v>
       </c>
       <c r="J19" s="4">
         <f t="shared" si="3"/>
-        <v>4803.7580000000016</v>
+        <v>9430.8430000000008</v>
       </c>
       <c r="K19">
         <v>6</v>
@@ -7422,7 +11338,7 @@
       </c>
       <c r="J20" s="4">
         <f t="shared" si="3"/>
-        <v>4803.7580000000016</v>
+        <v>9430.8430000000008</v>
       </c>
       <c r="K20">
         <v>7</v>
@@ -7467,7 +11383,7 @@
       </c>
       <c r="J21" s="4">
         <f t="shared" si="3"/>
-        <v>4803.7580000000016</v>
+        <v>9430.8430000000008</v>
       </c>
       <c r="K21">
         <v>8</v>
@@ -7512,7 +11428,7 @@
       </c>
       <c r="J22" s="4">
         <f t="shared" si="3"/>
-        <v>4803.7580000000016</v>
+        <v>9430.8430000000008</v>
       </c>
       <c r="K22">
         <v>9</v>
@@ -7557,7 +11473,7 @@
       </c>
       <c r="J23" s="4">
         <f t="shared" si="3"/>
-        <v>4803.7580000000016</v>
+        <v>9430.8430000000008</v>
       </c>
       <c r="K23">
         <v>10</v>
@@ -7602,7 +11518,7 @@
       </c>
       <c r="J24" s="4">
         <f t="shared" si="3"/>
-        <v>4803.7580000000016</v>
+        <v>9430.8430000000008</v>
       </c>
       <c r="K24">
         <v>11</v>
@@ -7647,7 +11563,7 @@
       </c>
       <c r="J25" s="4">
         <f t="shared" si="3"/>
-        <v>4803.7580000000016</v>
+        <v>9430.8430000000008</v>
       </c>
       <c r="K25">
         <v>12</v>
@@ -7692,7 +11608,7 @@
       </c>
       <c r="J26" s="4">
         <f t="shared" si="3"/>
-        <v>4803.7580000000016</v>
+        <v>9430.8430000000008</v>
       </c>
       <c r="K26">
         <v>13</v>
@@ -7737,7 +11653,7 @@
       </c>
       <c r="J27" s="4">
         <f t="shared" si="3"/>
-        <v>4803.7580000000016</v>
+        <v>9430.8430000000008</v>
       </c>
       <c r="K27">
         <v>14</v>
@@ -7782,7 +11698,7 @@
       </c>
       <c r="J28" s="4">
         <f t="shared" si="3"/>
-        <v>4803.7580000000016</v>
+        <v>9430.8430000000008</v>
       </c>
       <c r="K28">
         <v>15</v>
@@ -7807,35 +11723,35 @@
       </c>
       <c r="B30" s="4">
         <f t="shared" ref="B30:H30" si="4">SUM(B14:B20)</f>
-        <v>1335.029</v>
+        <v>2653.7439999999997</v>
       </c>
       <c r="C30" s="4">
         <f t="shared" si="4"/>
-        <v>570.63250000000005</v>
+        <v>1255.9650000000001</v>
       </c>
       <c r="D30" s="4">
         <f t="shared" si="4"/>
-        <v>568.91200000000003</v>
+        <v>1079.327</v>
       </c>
       <c r="E30" s="4">
         <f t="shared" si="4"/>
-        <v>415.78750000000002</v>
+        <v>688.2</v>
       </c>
       <c r="F30" s="4">
         <f t="shared" si="4"/>
-        <v>1080.6750000000002</v>
+        <v>1705.0650000000003</v>
       </c>
       <c r="G30" s="4">
         <f t="shared" si="4"/>
-        <v>349.83500000000004</v>
+        <v>1049.5050000000001</v>
       </c>
       <c r="H30" s="4">
         <f t="shared" si="4"/>
-        <v>482.887</v>
+        <v>999.03700000000003</v>
       </c>
       <c r="I30" s="4">
         <f>SUM(B30:H30)</f>
-        <v>4803.7580000000007</v>
+        <v>9430.8430000000008</v>
       </c>
     </row>
   </sheetData>
@@ -7852,11 +11768,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" activeCellId="6" sqref="G5 F5 E5 D5 C5 B5 A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7913,6 +11829,9 @@
       <c r="H2" t="s">
         <v>21</v>
       </c>
+      <c r="I2" t="s">
+        <v>74</v>
+      </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
@@ -8002,61 +11921,95 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+      <c r="A6" s="35">
+        <v>35.5</v>
+      </c>
+      <c r="B6" s="35">
+        <v>39</v>
+      </c>
+      <c r="C6" s="35">
+        <v>39.5</v>
+      </c>
+      <c r="D6" s="35">
+        <v>18.75</v>
+      </c>
+      <c r="E6" s="35">
+        <v>29.5</v>
+      </c>
+      <c r="F6" s="35">
+        <v>47</v>
+      </c>
+      <c r="G6" s="35">
+        <v>33</v>
+      </c>
       <c r="H6" t="s">
         <v>25</v>
       </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
+      <c r="A7" s="35">
+        <v>13</v>
+      </c>
+      <c r="B7" s="35">
+        <v>20.75</v>
+      </c>
+      <c r="C7" s="35">
+        <v>5</v>
+      </c>
+      <c r="D7" s="35">
+        <v>5</v>
+      </c>
+      <c r="E7" s="35">
+        <v>9.5</v>
+      </c>
+      <c r="F7" s="35">
+        <v>14</v>
+      </c>
+      <c r="G7" s="35">
+        <v>12</v>
+      </c>
       <c r="H7" t="s">
         <v>26</v>
       </c>
+      <c r="I7" s="91" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="A8" s="35"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
       <c r="H8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+      <c r="A9" s="35"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
       <c r="H9" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="A10" s="35"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
       <c r="H10" t="s">
         <v>47</v>
       </c>
@@ -8269,7 +12222,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">

--- a/Conocimiento/Metodología/Calculadora (version 1).xlsx
+++ b/Conocimiento/Metodología/Calculadora (version 1).xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Descargas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C087E0E7-816C-4C22-8349-8C17E53AC234}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="12816" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Costes y presupuesto" sheetId="2" r:id="rId1"/>
@@ -19,17 +13,17 @@
     <sheet name="Imputaciones semana" sheetId="3" r:id="rId4"/>
     <sheet name="Hoja2" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Ale Garrido Resina</author>
   </authors>
   <commentList>
-    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="D3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -54,7 +48,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="E4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -79,7 +73,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="E6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -104,7 +98,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="C7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -128,7 +122,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="D7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -158,12 +152,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Ale Garrido Resina</author>
   </authors>
   <commentList>
-    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="C7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -429,7 +423,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
@@ -1307,6 +1301,8 @@
     <xf numFmtId="0" fontId="0" fillId="47" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="42" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1334,8 +1330,6 @@
     <xf numFmtId="0" fontId="0" fillId="45" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Énfasis1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -1356,11 +1350,10 @@
     <cellStyle name="60% - Énfasis4" xfId="34" builtinId="44" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis5" xfId="38" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis6" xfId="42" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Bueno" xfId="7" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Buena" xfId="7" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Cálculo" xfId="12" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Celda de comprobación" xfId="14" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Celda vinculada" xfId="13" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Encabezado 1" xfId="3" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Encabezado 4" xfId="6" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Énfasis1" xfId="19" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Énfasis2" xfId="23" builtinId="33" customBuiltin="1"/>
@@ -1379,6 +1372,7 @@
     <cellStyle name="Texto de advertencia" xfId="15" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Texto explicativo" xfId="17" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Título" xfId="2" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título 1" xfId="3" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Título 2" xfId="4" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Título 3" xfId="5" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
@@ -1397,7 +1391,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -1434,12 +1428,9 @@
             <c:strRef>
               <c:f>Caculadora!$G$1:$G$2</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Progreso</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Real</c:v>
+                  <c:v>Progreso Real</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1488,6 +1479,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -1511,7 +1503,7 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000000-E409-4349-BB70-B4830E9B9444}"/>
@@ -1553,8 +1545,7 @@
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showDataLabelsRange val="1"/>
                 <c15:showLeaderLines val="1"/>
@@ -1586,7 +1577,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-E409-4349-BB70-B4830E9B9444}"/>
             </c:ext>
@@ -1599,12 +1590,9 @@
             <c:strRef>
               <c:f>Caculadora!$H$1:$H$2</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Progreso</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Objetivo</c:v>
+                  <c:v>Progreso Objetivo</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1632,6 +1620,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -1652,7 +1641,7 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
@@ -1694,8 +1683,7 @@
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showDataLabelsRange val="1"/>
                 <c15:showLeaderLines val="1"/>
@@ -1727,7 +1715,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:datalabelsRange>
                 <c15:f>Caculadora!$H$4</c15:f>
@@ -1754,11 +1742,11 @@
         </c:dLbls>
         <c:gapWidth val="30"/>
         <c:overlap val="100"/>
-        <c:axId val="322950656"/>
-        <c:axId val="320139776"/>
+        <c:axId val="246879232"/>
+        <c:axId val="258428864"/>
       </c:barChart>
       <c:valAx>
-        <c:axId val="320139776"/>
+        <c:axId val="258428864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1799,13 +1787,13 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="322950656"/>
+        <c:crossAx val="246879232"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.25"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="322950656"/>
+        <c:axId val="246879232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1814,7 +1802,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="320139776"/>
+        <c:crossAx val="258428864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1831,14 +1819,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:noFill/>
@@ -1866,7 +1854,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -1944,7 +1932,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0CCE-482A-8138-6F93BA323EB6}"/>
             </c:ext>
@@ -1952,7 +1940,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:order val="1"/>
           <c:tx>
             <c:v>Estimado</c:v>
           </c:tx>
@@ -2038,7 +2026,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-0CCE-482A-8138-6F93BA323EB6}"/>
             </c:ext>
@@ -2054,9 +2042,9 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="322951680"/>
-        <c:axId val="320142080"/>
-        <c:extLst>
+        <c:axId val="246879744"/>
+        <c:axId val="258490944"/>
+        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
               <c15:ser>
@@ -2134,7 +2122,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="322951680"/>
+        <c:axId val="246879744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2182,26 +2170,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="es-ES"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -2240,7 +2208,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="320142080"/>
+        <c:crossAx val="258490944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2248,7 +2216,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="320142080"/>
+        <c:axId val="258490944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="30000"/>
@@ -2299,12 +2267,23 @@
               </a:p>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2313,26 +2292,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="es-ES"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="#,##0.00\ &quot;€&quot;" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -2365,7 +2324,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="322951680"/>
+        <c:crossAx val="246879744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2420,14 +2379,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2463,7 +2422,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -2503,9 +2462,9 @@
         </c:dLbls>
         <c:gapWidth val="30"/>
         <c:overlap val="31"/>
-        <c:axId val="532476552"/>
-        <c:axId val="532476224"/>
-        <c:extLst>
+        <c:axId val="246880768"/>
+        <c:axId val="258492096"/>
+        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
               <c15:ser>
@@ -2616,9 +2575,9 @@
         </c:dLbls>
         <c:gapWidth val="30"/>
         <c:overlap val="31"/>
-        <c:axId val="637636648"/>
-        <c:axId val="637642224"/>
-        <c:extLst>
+        <c:axId val="246881792"/>
+        <c:axId val="258492672"/>
+        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
               <c15:ser>
@@ -2716,7 +2675,7 @@
         </c:extLst>
       </c:barChart>
       <c:valAx>
-        <c:axId val="532476224"/>
+        <c:axId val="258492096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2752,12 +2711,12 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="532476552"/>
+        <c:crossAx val="246880768"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="532476552"/>
+        <c:axId val="246880768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2766,14 +2725,15 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="532476224"/>
+        <c:crossAx val="258492096"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="637642224"/>
+        <c:axId val="258492672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2809,11 +2769,12 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="637636648"/>
+        <c:crossAx val="246881792"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="637636648"/>
+        <c:axId val="246881792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2822,7 +2783,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="637642224"/>
+        <c:crossAx val="258492672"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2838,14 +2800,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:noFill/>
@@ -2873,7 +2835,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -2913,9 +2875,9 @@
         </c:dLbls>
         <c:gapWidth val="30"/>
         <c:overlap val="100"/>
-        <c:axId val="322950656"/>
-        <c:axId val="320139776"/>
-        <c:extLst>
+        <c:axId val="259256320"/>
+        <c:axId val="258496704"/>
+        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
               <c15:ser>
@@ -3280,7 +3242,7 @@
         </c:extLst>
       </c:barChart>
       <c:valAx>
-        <c:axId val="320139776"/>
+        <c:axId val="258496704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3321,13 +3283,13 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="322950656"/>
+        <c:crossAx val="259256320"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.25"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="322950656"/>
+        <c:axId val="259256320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3336,7 +3298,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="320139776"/>
+        <c:crossAx val="258496704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3353,14 +3315,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:noFill/>
@@ -3388,7 +3350,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -3402,6 +3364,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3487,7 +3450,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-1374-400A-B33D-B67D2768AA75}"/>
             </c:ext>
@@ -3533,7 +3496,7 @@
                 </a:glow>
               </a:effectLst>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000002-1374-400A-B33D-B67D2768AA75}"/>
               </c:ext>
@@ -3563,7 +3526,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-1374-400A-B33D-B67D2768AA75}"/>
             </c:ext>
@@ -3579,11 +3542,11 @@
         </c:dLbls>
         <c:gapWidth val="331"/>
         <c:overlap val="100"/>
-        <c:axId val="530596592"/>
-        <c:axId val="530596920"/>
+        <c:axId val="260501504"/>
+        <c:axId val="259462208"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="530596592"/>
+        <c:axId val="260501504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3626,7 +3589,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="530596920"/>
+        <c:crossAx val="259462208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3634,7 +3597,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="530596920"/>
+        <c:axId val="259462208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3671,7 +3634,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="530596592"/>
+        <c:crossAx val="260501504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3685,14 +3648,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:noFill/>
@@ -3726,7 +3689,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -3786,7 +3749,7 @@
                 </a:glow>
               </a:effectLst>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000002-4E0C-435C-BC82-ECD95DF43843}"/>
               </c:ext>
@@ -3816,7 +3779,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-4E0C-435C-BC82-ECD95DF43843}"/>
             </c:ext>
@@ -3852,7 +3815,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-4E0C-435C-BC82-ECD95DF43843}"/>
             </c:ext>
@@ -3910,7 +3873,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-4E0C-435C-BC82-ECD95DF43843}"/>
             </c:ext>
@@ -3926,11 +3889,11 @@
         </c:dLbls>
         <c:gapWidth val="331"/>
         <c:overlap val="100"/>
-        <c:axId val="530596592"/>
-        <c:axId val="530596920"/>
+        <c:axId val="260503040"/>
+        <c:axId val="258497280"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="530596592"/>
+        <c:axId val="260503040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3940,7 +3903,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="530596920"/>
+        <c:crossAx val="258497280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3948,7 +3911,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="530596920"/>
+        <c:axId val="258497280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3958,7 +3921,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="530596592"/>
+        <c:crossAx val="260503040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3972,14 +3935,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:noFill/>
@@ -4013,7 +3976,7 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -4091,7 +4054,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5661-4738-B608-7F29A7F5D55D}"/>
             </c:ext>
@@ -4099,7 +4062,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:order val="1"/>
           <c:tx>
             <c:v>Estimado</c:v>
           </c:tx>
@@ -4185,7 +4148,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-5661-4738-B608-7F29A7F5D55D}"/>
             </c:ext>
@@ -4201,9 +4164,9 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="324195840"/>
-        <c:axId val="324018176"/>
-        <c:extLst>
+        <c:axId val="261037568"/>
+        <c:axId val="259458176"/>
+        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
               <c15:ser>
@@ -4281,7 +4244,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="324195840"/>
+        <c:axId val="261037568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4291,7 +4254,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="324018176"/>
+        <c:crossAx val="259458176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4299,7 +4262,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="324018176"/>
+        <c:axId val="259458176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="30000"/>
@@ -4324,7 +4287,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="324195840"/>
+        <c:crossAx val="261037568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4379,14 +4342,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4422,7 +4385,7 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -4454,7 +4417,7 @@
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:order val="0"/>
           <c:tx>
             <c:strRef>
               <c:f>Hoja1!$H$1</c:f>
@@ -4505,7 +4468,7 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000006-EB81-4B8A-9CC2-7323559F094F}"/>
               </c:ext>
@@ -4520,7 +4483,7 @@
               </c:pt>
             </c:numLit>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-EB81-4B8A-9CC2-7323559F094F}"/>
             </c:ext>
@@ -4528,7 +4491,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>Hoja1!$G$1</c:f>
@@ -4588,7 +4551,7 @@
               </c:pt>
             </c:numLit>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-EB81-4B8A-9CC2-7323559F094F}"/>
             </c:ext>
@@ -4604,9 +4567,9 @@
         </c:dLbls>
         <c:gapWidth val="30"/>
         <c:overlap val="100"/>
-        <c:axId val="324196864"/>
-        <c:axId val="324019904"/>
-        <c:extLst>
+        <c:axId val="285910016"/>
+        <c:axId val="259459904"/>
+        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
               <c15:ser>
@@ -4688,7 +4651,7 @@
         </c:extLst>
       </c:barChart>
       <c:valAx>
-        <c:axId val="324019904"/>
+        <c:axId val="259459904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4729,13 +4692,13 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="324196864"/>
+        <c:crossAx val="285910016"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.25"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="324196864"/>
+        <c:axId val="285910016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4744,7 +4707,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="324019904"/>
+        <c:crossAx val="259459904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4761,14 +4724,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:noFill/>
@@ -4796,7 +4759,7 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -4833,7 +4796,7 @@
             <c:spPr>
               <a:ln w="44450"/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-38B4-46DF-BC24-A92988660D8E}"/>
               </c:ext>
@@ -4846,46 +4809,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>28208.333333333332</c:v>
+                  <c:v>28855.833333333332</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27416.666666666668</c:v>
+                  <c:v>28711.666666666668</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25962.5</c:v>
+                  <c:v>27527.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24950</c:v>
+                  <c:v>27036.666666666668</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23937.5</c:v>
+                  <c:v>26545.833333333332</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21250</c:v>
+                  <c:v>23420</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19958.333333333332</c:v>
+                  <c:v>22490</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18666.666666666664</c:v>
+                  <c:v>21560</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16100</c:v>
+                  <c:v>16385</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14666.666666666668</c:v>
+                  <c:v>14983.333333333332</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13233.333333333334</c:v>
+                  <c:v>13581.666666666666</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11800</c:v>
+                  <c:v>12180</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-38B4-46DF-BC24-A92988660D8E}"/>
             </c:ext>
@@ -4910,46 +4873,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>791.66666666666674</c:v>
+                  <c:v>144.16666666666669</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1583.3333333333335</c:v>
+                  <c:v>288.33333333333337</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3037.5</c:v>
+                  <c:v>1472.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4050</c:v>
+                  <c:v>1963.3333333333335</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5062.5</c:v>
+                  <c:v>2454.166666666667</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7750</c:v>
+                  <c:v>5580</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9041.6666666666679</c:v>
+                  <c:v>6510</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10333.333333333334</c:v>
+                  <c:v>7440</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12900</c:v>
+                  <c:v>12615</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14333.333333333332</c:v>
+                  <c:v>14016.666666666668</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15766.666666666666</c:v>
+                  <c:v>15418.333333333334</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>17200</c:v>
+                  <c:v>16820</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-38B4-46DF-BC24-A92988660D8E}"/>
             </c:ext>
@@ -4963,12 +4926,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="323339776"/>
-        <c:axId val="324023360"/>
+        <c:axId val="247330816"/>
+        <c:axId val="259463936"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="323339776"/>
+        <c:axId val="247330816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4992,6 +4956,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="none"/>
@@ -5007,7 +4972,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="324023360"/>
+        <c:crossAx val="259463936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5015,7 +4980,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="324023360"/>
+        <c:axId val="259463936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5038,6 +5003,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -5054,13 +5020,14 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="323339776"/>
+        <c:crossAx val="247330816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -9519,7 +9486,7 @@
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4478CC80-9EF6-4ADD-B060-B7DA1112C280}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4478CC80-9EF6-4ADD-B060-B7DA1112C280}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9557,7 +9524,7 @@
         <xdr:cNvPr id="3" name="Gráfico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46D435CB-CF32-4D44-8F73-691DA66C623B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{46D435CB-CF32-4D44-8F73-691DA66C623B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9595,7 +9562,7 @@
         <xdr:cNvPr id="4" name="Gráfico 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF103F18-A0C7-4B1D-9AA7-FC1DF20273B9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EF103F18-A0C7-4B1D-9AA7-FC1DF20273B9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9633,7 +9600,7 @@
         <xdr:cNvPr id="6" name="Gráfico 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B066839E-D215-45B1-85CB-C1DBDE5030E2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B066839E-D215-45B1-85CB-C1DBDE5030E2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9671,7 +9638,7 @@
         <xdr:cNvPr id="7" name="Gráfico 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{960C9487-2BA0-4B6C-A542-6AB4EE3A76F6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{960C9487-2BA0-4B6C-A542-6AB4EE3A76F6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9709,7 +9676,7 @@
         <xdr:cNvPr id="9" name="Gráfico 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C077959D-44AB-436C-92F7-826CA891F7B5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C077959D-44AB-436C-92F7-826CA891F7B5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9752,7 +9719,7 @@
         <xdr:cNvPr id="3" name="Gráfico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15DB4FA1-CE3C-4ABC-8972-8E314AEC1C7C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{15DB4FA1-CE3C-4ABC-8972-8E314AEC1C7C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9790,7 +9757,7 @@
         <xdr:cNvPr id="4" name="Gráfico 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1428A001-ABB8-4817-8FF8-E1823E570921}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1428A001-ABB8-4817-8FF8-E1823E570921}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9830,7 +9797,7 @@
             <xdr:cNvPr id="4" name="3 CuadroTexto">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000004000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9970,7 +9937,7 @@
             <xdr:cNvPr id="5" name="4 CuadroTexto">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000005000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10113,7 +10080,7 @@
         <xdr:cNvPr id="9" name="8 Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10423,31 +10390,31 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -10466,14 +10433,14 @@
       <c r="F1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="82" t="s">
+      <c r="J1" s="84" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="84"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="86"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>8</v>
       </c>
@@ -10507,7 +10474,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="18"/>
       <c r="B3" s="19"/>
       <c r="C3" s="52" t="s">
@@ -10538,7 +10505,7 @@
         <v>466.66666666666669</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
       <c r="B4" s="13"/>
       <c r="C4" s="53" t="s">
@@ -10560,7 +10527,7 @@
         <v>16088</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>9</v>
       </c>
@@ -10579,7 +10546,7 @@
         <v>466.66666666666669</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="18"/>
       <c r="B6" s="19"/>
       <c r="C6" s="55" t="s">
@@ -10596,7 +10563,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
       <c r="B7" s="13"/>
       <c r="C7" s="56" t="s">
@@ -10617,7 +10584,7 @@
         <v>4748.666666666667</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
         <v>16</v>
       </c>
@@ -10626,7 +10593,7 @@
         <v>20754.666666666668</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="45" t="s">
         <v>14</v>
       </c>
@@ -10641,7 +10608,7 @@
         <v>4150.9333333333334</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
         <v>15</v>
       </c>
@@ -10656,7 +10623,7 @@
         <v>4150.9333333333334</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="E11" s="16" t="s">
         <v>10</v>
       </c>
@@ -10665,7 +10632,7 @@
         <v>29056.533333333336</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>35</v>
       </c>
@@ -10673,7 +10640,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>4</v>
       </c>
@@ -10694,14 +10661,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="G1:H1"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G1">
@@ -10718,40 +10685,40 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.44140625" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
+    <row r="1" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="G1" s="87" t="s">
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="G1" s="89" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="88"/>
-      <c r="J1" s="89" t="s">
+      <c r="H1" s="90"/>
+      <c r="J1" s="91" t="s">
         <v>54</v>
       </c>
-      <c r="K1" s="90"/>
+      <c r="K1" s="92"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="79" t="s">
         <v>1</v>
       </c>
@@ -10784,7 +10751,7 @@
         <v>0.43037399506249885</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>29</v>
       </c>
@@ -10821,7 +10788,7 @@
         <v>3074.3333333333335</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="77" t="s">
         <v>2</v>
       </c>
@@ -10848,7 +10815,7 @@
         <v>29000</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="77" t="s">
         <v>3</v>
       </c>
@@ -10871,7 +10838,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="77" t="s">
         <v>28</v>
       </c>
@@ -10890,11 +10857,11 @@
         <f t="shared" si="0"/>
         <v>688.2</v>
       </c>
-      <c r="G6" s="92">
+      <c r="G6" s="83">
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="77" t="s">
         <v>43</v>
       </c>
@@ -10914,7 +10881,7 @@
         <v>1705.0650000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="77" t="s">
         <v>44</v>
       </c>
@@ -10934,7 +10901,7 @@
         <v>1049.5050000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="78" t="s">
         <v>45</v>
       </c>
@@ -10954,7 +10921,7 @@
         <v>999.03700000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B10">
         <f>SUM(B3:B9)</f>
         <v>646.30000000000007</v>
@@ -10967,19 +10934,19 @@
         <v>9430.8430000000008</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="86" t="s">
+    <row r="12" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="86"/>
-      <c r="C12" s="86"/>
-      <c r="D12" s="86"/>
-      <c r="E12" s="86"/>
-      <c r="F12" s="86"/>
-      <c r="G12" s="86"/>
-      <c r="H12" s="86"/>
+      <c r="B12" s="88"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="88"/>
+      <c r="H12" s="88"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>29</v>
       </c>
@@ -11012,7 +10979,7 @@
         <v>29056.533333333336</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>21</v>
       </c>
@@ -11060,7 +11027,7 @@
         <v>1816.0333333333335</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>22</v>
       </c>
@@ -11108,7 +11075,7 @@
         <v>3632.0666666666671</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>23</v>
       </c>
@@ -11156,7 +11123,7 @@
         <v>5448.1</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>24</v>
       </c>
@@ -11204,7 +11171,7 @@
         <v>7264.1333333333341</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>25</v>
       </c>
@@ -11252,7 +11219,7 @@
         <v>9080.1666666666679</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>26</v>
       </c>
@@ -11300,7 +11267,7 @@
         <v>10896.2</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>27</v>
       </c>
@@ -11348,7 +11315,7 @@
         <v>12712.233333333335</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B21" s="36">
         <f>('Imputaciones semana'!A9)*$C$3</f>
         <v>0</v>
@@ -11393,7 +11360,7 @@
         <v>14528.266666666668</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B22" s="39">
         <f>('Imputaciones semana'!A10)*$C$3</f>
         <v>0</v>
@@ -11438,7 +11405,7 @@
         <v>16344.300000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B23" s="36">
         <f>('Imputaciones semana'!A11)*$C$3</f>
         <v>0</v>
@@ -11483,7 +11450,7 @@
         <v>18160.333333333336</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B24" s="39">
         <f>('Imputaciones semana'!A12)*$C$3</f>
         <v>0</v>
@@ -11528,7 +11495,7 @@
         <v>19976.366666666669</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B25" s="36">
         <f>('Imputaciones semana'!A13)*$C$3</f>
         <v>0</v>
@@ -11573,7 +11540,7 @@
         <v>21792.400000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B26" s="39">
         <f>('Imputaciones semana'!A14)*$C$3</f>
         <v>0</v>
@@ -11618,7 +11585,7 @@
         <v>23608.433333333334</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B27" s="36">
         <f>('Imputaciones semana'!A15)*$C$3</f>
         <v>0</v>
@@ -11663,7 +11630,7 @@
         <v>25424.466666666671</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B28" s="39">
         <f>('Imputaciones semana'!A16)*$C$3</f>
         <v>0</v>
@@ -11708,7 +11675,7 @@
         <v>27240.500000000004</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="K29">
         <v>16</v>
       </c>
@@ -11717,7 +11684,7 @@
         <v>29056.533333333336</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>48</v>
       </c>
@@ -11768,20 +11735,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="7" width="16.7109375" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="7" width="16.6640625" customWidth="1"/>
+    <col min="8" max="8" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -11804,7 +11771,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="35">
         <v>10</v>
       </c>
@@ -11836,7 +11803,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="35">
         <v>17.600000000000001</v>
       </c>
@@ -11865,7 +11832,7 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="35">
         <v>5.5</v>
       </c>
@@ -11894,7 +11861,7 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="35">
         <v>16</v>
       </c>
@@ -11920,7 +11887,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="35">
         <v>35.5</v>
       </c>
@@ -11949,7 +11916,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="35">
         <v>13</v>
       </c>
@@ -11974,11 +11941,11 @@
       <c r="H7" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="91" t="s">
+      <c r="I7" s="82" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="35"/>
       <c r="B8" s="35"/>
       <c r="C8" s="35"/>
@@ -11990,7 +11957,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="35"/>
       <c r="B9" s="35"/>
       <c r="C9" s="35"/>
@@ -12002,7 +11969,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="35"/>
       <c r="B10" s="35"/>
       <c r="C10" s="35"/>
@@ -12014,7 +11981,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -12026,7 +11993,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -12036,7 +12003,7 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -12046,7 +12013,7 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -12056,7 +12023,7 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -12066,7 +12033,7 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -12076,7 +12043,7 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -12086,7 +12053,7 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -12096,7 +12063,7 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -12106,7 +12073,7 @@
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -12116,7 +12083,7 @@
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -12126,7 +12093,7 @@
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -12136,7 +12103,7 @@
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -12146,7 +12113,7 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -12156,7 +12123,7 @@
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -12166,7 +12133,7 @@
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -12176,7 +12143,7 @@
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -12186,7 +12153,7 @@
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -12196,7 +12163,7 @@
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -12206,7 +12173,7 @@
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -12222,16 +12189,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>29000</v>
       </c>
@@ -12251,7 +12218,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <f>A1/12</f>
         <v>2416.6666666666665</v>
@@ -12267,14 +12234,14 @@
         <v>16.666666666666668</v>
       </c>
       <c r="H2">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I2">
-        <f>H2*G2</f>
-        <v>333.33333333333337</v>
+        <f>H2*G2+10</f>
+        <v>93.333333333333343</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2400</v>
       </c>
@@ -12289,14 +12256,14 @@
         <v>45.833333333333336</v>
       </c>
       <c r="H3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <f>H3*G3</f>
-        <v>458.33333333333337</v>
+        <f>H3*G3+5</f>
+        <v>50.833333333333336</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="F4" t="s">
         <v>65</v>
       </c>
@@ -12312,31 +12279,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="G5" t="s">
         <v>71</v>
       </c>
       <c r="H5">
-        <v>25</v>
+        <f>H2+9</f>
+        <v>14</v>
       </c>
       <c r="I5">
-        <f>H5*G2</f>
-        <v>416.66666666666669</v>
+        <f>H5*G2+80</f>
+        <v>313.33333333333337</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="G6" t="s">
         <v>71</v>
       </c>
       <c r="H6">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="I6">
-        <f>H6*G3</f>
-        <v>595.83333333333337</v>
+        <f>H6*G3+40</f>
+        <v>177.5</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>57</v>
       </c>
@@ -12350,116 +12318,115 @@
         <v>72</v>
       </c>
       <c r="H7">
-        <v>30</v>
+        <f>H5+9</f>
+        <v>23</v>
       </c>
       <c r="I7">
-        <f>H7*G2</f>
-        <v>500.00000000000006</v>
+        <f>H7*G2+110</f>
+        <v>493.33333333333337</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
       <c r="B8">
         <f>A1 -I17*A8</f>
-        <v>28208.333333333332</v>
+        <v>28855.833333333332</v>
       </c>
       <c r="C8">
         <f>I17*A8</f>
-        <v>791.66666666666674</v>
+        <v>144.16666666666669</v>
       </c>
       <c r="G8" t="s">
         <v>72</v>
       </c>
       <c r="H8">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I8">
-        <f>H8*G3</f>
-        <v>733.33333333333337</v>
+        <f>H8*G3+70</f>
+        <v>436.66666666666669</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
       <c r="B9">
         <f>A1 -I17*A9</f>
-        <v>27416.666666666668</v>
+        <v>28711.666666666668</v>
       </c>
       <c r="C9">
         <f>I17*A9</f>
-        <v>1583.3333333333335</v>
+        <v>288.33333333333337</v>
       </c>
       <c r="G9" t="s">
         <v>72</v>
       </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
       <c r="I9">
         <f>H9*G4</f>
-        <v>58.333333333333336</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3</v>
       </c>
       <c r="B10">
         <f>A1 -I18*A10</f>
-        <v>25962.5</v>
+        <v>27527.5</v>
       </c>
       <c r="C10">
         <f>I18*A10</f>
-        <v>3037.5</v>
+        <v>1472.5</v>
       </c>
       <c r="G10" t="s">
         <v>73</v>
       </c>
       <c r="H10">
-        <v>33</v>
+        <f>H7+9</f>
+        <v>32</v>
       </c>
       <c r="I10">
-        <f>H10*G2</f>
-        <v>550</v>
+        <f>H10*G2+150</f>
+        <v>683.33333333333337</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4</v>
       </c>
       <c r="B11">
         <f>A1 -I18*A11</f>
-        <v>24950</v>
+        <v>27036.666666666668</v>
       </c>
       <c r="C11">
         <f>I18*A11</f>
-        <v>4050</v>
+        <v>1963.3333333333335</v>
       </c>
       <c r="G11" t="s">
         <v>73</v>
       </c>
       <c r="H11">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I11">
-        <f>H11*G3</f>
-        <v>825</v>
+        <f>H11*G3+100</f>
+        <v>650</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>5</v>
       </c>
       <c r="B12">
         <f>A1 -I18*A12</f>
-        <v>23937.5</v>
+        <v>26545.833333333332</v>
       </c>
       <c r="C12">
         <f>I18*A12</f>
-        <v>5062.5</v>
+        <v>2454.166666666667</v>
       </c>
       <c r="G12" t="s">
         <v>73</v>
@@ -12468,137 +12435,137 @@
         <v>1</v>
       </c>
       <c r="I12">
-        <f>H12*G4</f>
-        <v>58.333333333333336</v>
+        <f>H12*G4+10</f>
+        <v>68.333333333333343</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>6</v>
       </c>
       <c r="B13">
         <f>A1 -I19*A13</f>
-        <v>21250</v>
+        <v>23420</v>
       </c>
       <c r="C13">
         <f>I19*A13</f>
-        <v>7750</v>
+        <v>5580</v>
       </c>
       <c r="H13">
         <f>H10+H11+H12</f>
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>7</v>
       </c>
       <c r="B14">
         <f>A1 -I19*A14</f>
-        <v>19958.333333333332</v>
+        <v>22490</v>
       </c>
       <c r="C14">
         <f>I19*A14</f>
-        <v>9041.6666666666679</v>
+        <v>6510</v>
       </c>
       <c r="H14">
         <f>H2+H3+H4</f>
-        <v>30</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>8</v>
       </c>
       <c r="B15">
         <f>A1 -I19*A15</f>
-        <v>18666.666666666664</v>
+        <v>21560</v>
       </c>
       <c r="C15">
         <f>I19*A15</f>
-        <v>10333.333333333334</v>
+        <v>7440</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>9</v>
       </c>
       <c r="B16">
         <f>A1 -I20*A16</f>
-        <v>16100</v>
+        <v>16385</v>
       </c>
       <c r="C16">
         <f>I20*A16</f>
-        <v>12900</v>
+        <v>12615</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>10</v>
       </c>
       <c r="B17">
         <f>A1 -I20*A17</f>
-        <v>14666.666666666668</v>
+        <v>14983.333333333332</v>
       </c>
       <c r="C17">
         <f>I20*A17</f>
-        <v>14333.333333333332</v>
+        <v>14016.666666666668</v>
       </c>
       <c r="H17" t="s">
         <v>70</v>
       </c>
       <c r="I17">
         <f>I2+I3+I4</f>
-        <v>791.66666666666674</v>
+        <v>144.16666666666669</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>11</v>
       </c>
       <c r="B18">
         <f>A1 -I20*A18</f>
-        <v>13233.333333333334</v>
+        <v>13581.666666666666</v>
       </c>
       <c r="C18">
         <f>I20*A18</f>
-        <v>15766.666666666666</v>
+        <v>15418.333333333334</v>
       </c>
       <c r="H18" t="s">
         <v>69</v>
       </c>
       <c r="I18">
         <f>I5+I6+I4</f>
-        <v>1012.5</v>
+        <v>490.83333333333337</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>12</v>
       </c>
       <c r="B19">
         <f>A1 -I20*A19</f>
-        <v>11800</v>
+        <v>12180</v>
       </c>
       <c r="C19">
         <f>I20*A19</f>
-        <v>17200</v>
+        <v>16820</v>
       </c>
       <c r="H19" t="s">
         <v>72</v>
       </c>
       <c r="I19">
         <f>I7+I8+I9</f>
-        <v>1291.6666666666667</v>
+        <v>930</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="H20" t="s">
         <v>72</v>
       </c>
       <c r="I20">
         <f>I10+I11+I12</f>
-        <v>1433.3333333333333</v>
+        <v>1401.6666666666667</v>
       </c>
     </row>
   </sheetData>
